--- a/Data/databases/case1.xlsx
+++ b/Data/databases/case1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E91312-09C4-4553-8372-F61A1B6E042B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D72EB6-1C22-4C9F-B124-50626F87741B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18615" yWindow="0" windowWidth="18930" windowHeight="20445" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3396" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="160">
   <si>
     <t>Database</t>
   </si>
@@ -447,12 +447,6 @@
     <t>heat production, hardwood chips from forest, at furnace 5000kW</t>
   </si>
   <si>
-    <t>heat production, natural gas, at boiler atmospheric non-modulating &lt;100kW</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, natural gas</t>
-  </si>
-  <si>
     <t>market for electricity, for reuse in municipal waste incineration only</t>
   </si>
   <si>
@@ -523,6 +517,9 @@
   </si>
   <si>
     <t>dishwasher cycle</t>
+  </si>
+  <si>
+    <t>heat production, at heat pump 30kW, allocation exergy</t>
   </si>
 </sst>
 </file>
@@ -1450,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
-  <dimension ref="A1:H287"/>
+  <dimension ref="A1:H286"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J265" sqref="J265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1509,7 +1506,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1648,7 +1645,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>8</v>
@@ -1869,7 +1866,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -2008,7 +2005,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>8</v>
@@ -2229,7 +2226,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -2637,7 +2634,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="46"/>
@@ -3046,7 +3043,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81" s="82"/>
       <c r="D81" s="82"/>
@@ -3356,7 +3353,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
@@ -3667,7 +3664,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C113" s="119"/>
       <c r="D113" s="119"/>
@@ -4075,7 +4072,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="139" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C133" s="134"/>
       <c r="D133" s="134"/>
@@ -4579,14 +4576,14 @@
     </row>
     <row r="159" spans="1:8" ht="15">
       <c r="A159" s="169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B159" s="169">
         <f>2.3205/513</f>
         <v>4.523391812865497E-3</v>
       </c>
       <c r="C159" s="169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D159" s="169" t="s">
         <v>8</v>
@@ -4894,14 +4891,14 @@
     </row>
     <row r="176" spans="1:7" ht="15">
       <c r="A176" s="169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B176" s="169">
         <f>3.8835/513</f>
         <v>7.5701754385964918E-3</v>
       </c>
       <c r="C176" s="169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D176" s="169" t="s">
         <v>8</v>
@@ -5732,7 +5729,7 @@
         <v>6</v>
       </c>
       <c r="B221" s="167" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C221" s="16"/>
       <c r="D221" s="16"/>
@@ -6594,23 +6591,23 @@
     </row>
     <row r="269" spans="1:8" ht="15">
       <c r="A269" s="147" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B269" s="147">
-        <v>1</v>
+        <v>6.5544999999999996E-8</v>
       </c>
       <c r="C269" s="147" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D269" s="147" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E269" s="147" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="F269" s="147"/>
       <c r="G269" s="147" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H269" s="154" t="s">
         <v>28</v>
@@ -6618,19 +6615,19 @@
     </row>
     <row r="270" spans="1:8" ht="15">
       <c r="A270" s="147" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B270" s="147">
-        <v>6.5544999999999996E-8</v>
+        <v>0.23457</v>
       </c>
       <c r="C270" s="147" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D270" s="147" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E270" s="147" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="F270" s="147"/>
       <c r="G270" s="147" t="s">
@@ -6642,19 +6639,19 @@
     </row>
     <row r="271" spans="1:8" ht="15">
       <c r="A271" s="147" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B271" s="147">
-        <v>0.23457</v>
+        <v>6.5544999999999996E-8</v>
       </c>
       <c r="C271" s="147" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D271" s="147" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E271" s="147" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="F271" s="147"/>
       <c r="G271" s="147" t="s">
@@ -6665,45 +6662,35 @@
       </c>
     </row>
     <row r="272" spans="1:8" ht="15">
-      <c r="A272" s="147" t="s">
-        <v>75</v>
-      </c>
-      <c r="B272" s="147">
-        <v>6.5544999999999996E-8</v>
-      </c>
-      <c r="C272" s="147" t="s">
-        <v>76</v>
-      </c>
-      <c r="D272" s="147" t="s">
-        <v>33</v>
-      </c>
-      <c r="E272" s="147" t="s">
-        <v>9</v>
-      </c>
-      <c r="F272" s="147"/>
-      <c r="G272" s="147" t="s">
-        <v>18</v>
-      </c>
-      <c r="H272" s="154" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="15">
-      <c r="A273" s="156"/>
-      <c r="B273" s="156"/>
-      <c r="C273" s="156"/>
-      <c r="D273" s="156"/>
-      <c r="E273" s="156"/>
-      <c r="F273" s="156"/>
-      <c r="G273" s="156"/>
-      <c r="H273" s="156"/>
-    </row>
-    <row r="274" spans="1:8" ht="15.75">
-      <c r="A274" s="157" t="s">
+      <c r="A272" s="156"/>
+      <c r="B272" s="156"/>
+      <c r="C272" s="156"/>
+      <c r="D272" s="156"/>
+      <c r="E272" s="156"/>
+      <c r="F272" s="156"/>
+      <c r="G272" s="156"/>
+      <c r="H272" s="156"/>
+    </row>
+    <row r="273" spans="1:8" ht="15.75">
+      <c r="A273" s="157" t="s">
         <v>4</v>
       </c>
-      <c r="B274" s="157" t="s">
+      <c r="B273" s="157" t="s">
         <v>41</v>
+      </c>
+      <c r="C273" s="158"/>
+      <c r="D273" s="158"/>
+      <c r="E273" s="158"/>
+      <c r="F273" s="158"/>
+      <c r="G273" s="158"/>
+      <c r="H273" s="158"/>
+    </row>
+    <row r="274" spans="1:8" ht="15">
+      <c r="A274" s="158" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" s="159">
+        <v>1</v>
       </c>
       <c r="C274" s="158"/>
       <c r="D274" s="158"/>
@@ -6714,10 +6701,10 @@
     </row>
     <row r="275" spans="1:8" ht="15">
       <c r="A275" s="158" t="s">
-        <v>5</v>
-      </c>
-      <c r="B275" s="159">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B275" s="158" t="s">
+        <v>41</v>
       </c>
       <c r="C275" s="158"/>
       <c r="D275" s="158"/>
@@ -6728,10 +6715,10 @@
     </row>
     <row r="276" spans="1:8" ht="15">
       <c r="A276" s="158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B276" s="158" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="C276" s="158"/>
       <c r="D276" s="158"/>
@@ -6742,10 +6729,10 @@
     </row>
     <row r="277" spans="1:8" ht="15">
       <c r="A277" s="158" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B277" s="158" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C277" s="158"/>
       <c r="D277" s="158"/>
@@ -6754,13 +6741,11 @@
       <c r="G277" s="158"/>
       <c r="H277" s="158"/>
     </row>
-    <row r="278" spans="1:8" ht="15">
-      <c r="A278" s="158" t="s">
-        <v>9</v>
-      </c>
-      <c r="B278" s="158" t="s">
-        <v>42</v>
-      </c>
+    <row r="278" spans="1:8" ht="15.75">
+      <c r="A278" s="157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B278" s="158"/>
       <c r="C278" s="158"/>
       <c r="D278" s="158"/>
       <c r="E278" s="158"/>
@@ -6769,52 +6754,67 @@
       <c r="H278" s="158"/>
     </row>
     <row r="279" spans="1:8" ht="15.75">
-      <c r="A279" s="157" t="s">
-        <v>10</v>
-      </c>
-      <c r="B279" s="158"/>
-      <c r="C279" s="158"/>
-      <c r="D279" s="158"/>
-      <c r="E279" s="158"/>
-      <c r="F279" s="158"/>
-      <c r="G279" s="158"/>
-      <c r="H279" s="158"/>
-    </row>
-    <row r="280" spans="1:8" ht="15.75">
-      <c r="A280" s="160" t="s">
+      <c r="A279" s="160" t="s">
         <v>11</v>
       </c>
-      <c r="B280" s="160" t="s">
+      <c r="B279" s="160" t="s">
         <v>12</v>
       </c>
-      <c r="C280" s="160" t="s">
+      <c r="C279" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="D280" s="160" t="s">
+      <c r="D279" s="160" t="s">
         <v>7</v>
       </c>
-      <c r="E280" s="160" t="s">
-        <v>9</v>
-      </c>
-      <c r="F280" s="161" t="s">
+      <c r="E279" s="160" t="s">
+        <v>9</v>
+      </c>
+      <c r="F279" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="G280" s="160" t="s">
+      <c r="G279" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="H280" s="160" t="s">
+      <c r="H279" s="160" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="280" spans="1:8" ht="15">
+      <c r="A280" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="B280" s="158">
+        <v>1</v>
+      </c>
+      <c r="C280" s="158" t="s">
+        <v>41</v>
+      </c>
+      <c r="D280" s="158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="158" t="s">
+        <v>42</v>
+      </c>
+      <c r="F280" s="158"/>
+      <c r="G280" s="158" t="s">
+        <v>16</v>
+      </c>
+      <c r="H280" s="158" t="str">
+        <f t="shared" ref="H280:H281" si="5">$B$1</f>
+        <v>case1_apos</v>
+      </c>
+    </row>
     <row r="281" spans="1:8" ht="15">
-      <c r="A281" s="158" t="s">
-        <v>41</v>
+      <c r="A281" s="297" t="str">
+        <f>A267</f>
+        <v>heat production from hot water</v>
       </c>
       <c r="B281" s="158">
-        <v>1</v>
-      </c>
-      <c r="C281" s="158" t="s">
-        <v>41</v>
+        <v>0.1026</v>
+      </c>
+      <c r="C281" s="297" t="str">
+        <f>C267</f>
+        <v>heat production from hot water</v>
       </c>
       <c r="D281" s="158" t="s">
         <v>8</v>
@@ -6824,27 +6824,25 @@
       </c>
       <c r="F281" s="158"/>
       <c r="G281" s="158" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H281" s="158" t="str">
-        <f t="shared" ref="H281:H282" si="5">$B$1</f>
+        <f t="shared" si="5"/>
         <v>case1_apos</v>
       </c>
     </row>
     <row r="282" spans="1:8" ht="15">
-      <c r="A282" s="297" t="str">
-        <f>A267</f>
-        <v>heat production from hot water</v>
+      <c r="A282" s="158" t="s">
+        <v>77</v>
       </c>
       <c r="B282" s="158">
-        <v>0.1026</v>
-      </c>
-      <c r="C282" s="297" t="str">
-        <f>C267</f>
-        <v>heat production from hot water</v>
+        <v>5.1299999999999998E-2</v>
+      </c>
+      <c r="C282" s="158" t="s">
+        <v>78</v>
       </c>
       <c r="D282" s="158" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E282" s="158" t="s">
         <v>42</v>
@@ -6853,23 +6851,22 @@
       <c r="G282" s="158" t="s">
         <v>18</v>
       </c>
-      <c r="H282" s="158" t="str">
-        <f t="shared" si="5"/>
-        <v>case1_apos</v>
+      <c r="H282" s="158" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="283" spans="1:8" ht="15">
       <c r="A283" s="158" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B283" s="158">
-        <v>5.1299999999999998E-2</v>
+        <v>0.44869999999999999</v>
       </c>
       <c r="C283" s="158" t="s">
         <v>78</v>
       </c>
       <c r="D283" s="158" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E283" s="158" t="s">
         <v>42</v>
@@ -6884,16 +6881,16 @@
     </row>
     <row r="284" spans="1:8" ht="15">
       <c r="A284" s="158" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B284" s="158">
-        <v>0.44869999999999999</v>
+        <v>0.20513000000000001</v>
       </c>
       <c r="C284" s="158" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D284" s="158" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E284" s="158" t="s">
         <v>42</v>
@@ -6908,16 +6905,16 @@
     </row>
     <row r="285" spans="1:8" ht="15">
       <c r="A285" s="158" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B285" s="158">
-        <v>0.20513000000000001</v>
+        <v>0.17949999999999999</v>
       </c>
       <c r="C285" s="158" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D285" s="158" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E285" s="158" t="s">
         <v>42</v>
@@ -6932,16 +6929,16 @@
     </row>
     <row r="286" spans="1:8" ht="15">
       <c r="A286" s="158" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B286" s="158">
-        <v>0.17949999999999999</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="C286" s="158" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D286" s="158" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E286" s="158" t="s">
         <v>42</v>
@@ -6951,30 +6948,6 @@
         <v>18</v>
       </c>
       <c r="H286" s="158" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="15">
-      <c r="A287" s="158" t="s">
-        <v>84</v>
-      </c>
-      <c r="B287" s="158">
-        <v>1.2800000000000001E-2</v>
-      </c>
-      <c r="C287" s="158" t="s">
-        <v>84</v>
-      </c>
-      <c r="D287" s="158" t="s">
-        <v>60</v>
-      </c>
-      <c r="E287" s="158" t="s">
-        <v>42</v>
-      </c>
-      <c r="F287" s="158"/>
-      <c r="G287" s="158" t="s">
-        <v>18</v>
-      </c>
-      <c r="H287" s="158" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6987,8 +6960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFA505-1D17-4E8B-8A2A-C03874A6F184}">
   <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176:F176"/>
+    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D270" sqref="D270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6997,7 +6970,7 @@
     <col min="2" max="2" width="32.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.375" bestFit="1" customWidth="1"/>
@@ -7047,7 +7020,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -7189,7 +7162,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>8</v>
@@ -7421,7 +7394,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -7561,7 +7534,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>8</v>
@@ -7794,7 +7767,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -8228,7 +8201,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="46"/>
@@ -8659,7 +8632,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81" s="82"/>
       <c r="D81" s="82"/>
@@ -8981,7 +8954,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
@@ -9303,7 +9276,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C113" s="119"/>
       <c r="D113" s="119"/>
@@ -9733,7 +9706,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="139" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C133" s="134"/>
       <c r="D133" s="134"/>
@@ -10254,14 +10227,14 @@
     </row>
     <row r="159" spans="1:8" ht="15">
       <c r="A159" s="169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B159" s="169">
         <f>2.3205/513</f>
         <v>4.523391812865497E-3</v>
       </c>
       <c r="C159" s="169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D159" s="169" t="s">
         <v>8</v>
@@ -10272,7 +10245,9 @@
       <c r="F159" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G159" s="189"/>
+      <c r="G159" s="183" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="160" spans="1:8" ht="15">
       <c r="A160" s="183" t="s">
@@ -10569,14 +10544,14 @@
     </row>
     <row r="176" spans="1:7" ht="15">
       <c r="A176" s="169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B176" s="169">
         <f>3.8835/513</f>
         <v>7.5701754385964918E-3</v>
       </c>
       <c r="C176" s="169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D176" s="169" t="s">
         <v>8</v>
@@ -10587,7 +10562,9 @@
       <c r="F176" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="G176" s="189"/>
+      <c r="G176" s="183" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="177" spans="1:7" ht="15">
       <c r="A177" s="183" t="s">
@@ -11406,7 +11383,7 @@
         <v>6</v>
       </c>
       <c r="B221" s="187" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C221" s="183"/>
       <c r="D221" s="183"/>
@@ -11487,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="189" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D226" s="189" t="s">
         <v>8</v>
@@ -12305,16 +12282,16 @@
     </row>
     <row r="270" spans="1:8" ht="15">
       <c r="A270" s="208" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="B270" s="214">
         <v>0.36499999999999999</v>
       </c>
       <c r="C270" s="208" t="s">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="D270" s="208" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E270" s="208" t="s">
         <v>42</v>
@@ -12384,7 +12361,7 @@
         <v>6</v>
       </c>
       <c r="B275" s="275" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C275" s="270"/>
       <c r="D275" s="270"/>
@@ -12515,13 +12492,13 @@
     </row>
     <row r="282" spans="1:8" ht="15">
       <c r="A282" s="272" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B282" s="272">
         <v>-1.0929</v>
       </c>
       <c r="C282" s="272" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D282" s="272" t="s">
         <v>33</v>
@@ -12539,13 +12516,13 @@
     </row>
     <row r="283" spans="1:8" ht="15">
       <c r="A283" s="272" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B283" s="272">
         <v>-7.6600999999999999</v>
       </c>
       <c r="C283" s="272" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D283" s="272" t="s">
         <v>33</v>
@@ -12725,13 +12702,13 @@
     </row>
     <row r="294" spans="1:8" ht="15">
       <c r="A294" s="235" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B294" s="235">
         <v>-1.5427999999999999</v>
       </c>
       <c r="C294" s="235" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D294" s="235" t="s">
         <v>33</v>
@@ -12749,13 +12726,13 @@
     </row>
     <row r="295" spans="1:8" ht="15">
       <c r="A295" s="235" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B295" s="235">
         <v>-10.694000000000001</v>
       </c>
       <c r="C295" s="235" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D295" s="235" t="s">
         <v>33</v>
@@ -12935,13 +12912,13 @@
     </row>
     <row r="306" spans="1:8" ht="15">
       <c r="A306" s="158" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B306" s="158">
         <v>-1.1687000000000001</v>
       </c>
       <c r="C306" s="158" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D306" s="158" t="s">
         <v>33</v>
@@ -12959,13 +12936,13 @@
     </row>
     <row r="307" spans="1:8" ht="15">
       <c r="A307" s="158" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B307" s="158">
         <v>-8.1515000000000004</v>
       </c>
       <c r="C307" s="158" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D307" s="158" t="s">
         <v>33</v>
@@ -12986,7 +12963,7 @@
         <v>4</v>
       </c>
       <c r="B309" s="294" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C309" s="82"/>
       <c r="D309" s="83"/>
@@ -13014,7 +12991,7 @@
         <v>6</v>
       </c>
       <c r="B311" s="286" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C311" s="82"/>
       <c r="D311" s="82"/>
@@ -13145,13 +13122,13 @@
     </row>
     <row r="318" spans="1:8" ht="15">
       <c r="A318" s="84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B318" s="84">
         <v>-0.49508999999999997</v>
       </c>
       <c r="C318" s="84" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D318" s="84" t="s">
         <v>33</v>
@@ -13169,13 +13146,13 @@
     </row>
     <row r="319" spans="1:8" ht="15">
       <c r="A319" s="84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B319" s="84">
         <v>-3.5777999999999999</v>
       </c>
       <c r="C319" s="84" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D319" s="84" t="s">
         <v>33</v>
@@ -13196,7 +13173,7 @@
         <v>4</v>
       </c>
       <c r="B321" s="294" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C321" s="82"/>
       <c r="D321" s="83"/>
@@ -13224,7 +13201,7 @@
         <v>6</v>
       </c>
       <c r="B323" s="286" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C323" s="82"/>
       <c r="D323" s="82"/>
@@ -13355,13 +13332,13 @@
     </row>
     <row r="330" spans="1:8" ht="15">
       <c r="A330" s="84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B330" s="84">
         <v>-0.99109999999999998</v>
       </c>
       <c r="C330" s="84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D330" s="84" t="s">
         <v>8</v>
@@ -13382,7 +13359,7 @@
         <v>4</v>
       </c>
       <c r="B332" s="294" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C332" s="82"/>
       <c r="D332" s="83"/>
@@ -13410,7 +13387,7 @@
         <v>6</v>
       </c>
       <c r="B334" s="286" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C334" s="82"/>
       <c r="D334" s="82"/>
@@ -13540,7 +13517,7 @@
     </row>
     <row r="341" spans="1:8" ht="15">
       <c r="A341" s="84" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B341" s="84">
         <v>-0.94473311289560702</v>
@@ -13567,7 +13544,7 @@
         <v>4</v>
       </c>
       <c r="B343" s="294" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C343" s="82"/>
       <c r="D343" s="83"/>
@@ -13595,7 +13572,7 @@
         <v>6</v>
       </c>
       <c r="B345" s="286" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C345" s="82"/>
       <c r="D345" s="82"/>
@@ -13725,7 +13702,7 @@
     </row>
     <row r="352" spans="1:8" ht="15">
       <c r="A352" s="84" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B352" s="84">
         <v>-0.8</v>
@@ -13757,7 +13734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986E469-2788-4B6C-A900-7850E4852EEB}">
   <dimension ref="A1:H287"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A239" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -13813,7 +13790,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -13953,7 +13930,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>8</v>
@@ -14007,7 +13984,7 @@
         <v>7.5700000000000003E-3</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D14" s="77" t="s">
         <v>26</v>
@@ -14082,7 +14059,7 @@
         <v>-5.9100000000000005E-4</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" s="78" t="s">
         <v>36</v>
@@ -14182,7 +14159,7 @@
         <v>6</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
@@ -14322,7 +14299,7 @@
         <v>3.125E-2</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="26" t="s">
         <v>8</v>
@@ -14376,7 +14353,7 @@
         <v>4.5199999999999997E-3</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D32" s="71" t="s">
         <v>26</v>
@@ -14451,7 +14428,7 @@
         <v>-9.8900000000000008E-4</v>
       </c>
       <c r="C35" s="72" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D35" s="72" t="s">
         <v>36</v>
@@ -14551,7 +14528,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C41" s="32"/>
       <c r="D41" s="32"/>
@@ -14747,7 +14724,7 @@
         <v>7.5700000000000003E-3</v>
       </c>
       <c r="C50" s="63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D50" s="65" t="s">
         <v>26</v>
@@ -14822,7 +14799,7 @@
         <v>-5.9100000000000005E-4</v>
       </c>
       <c r="C53" s="63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D53" s="66" t="s">
         <v>36</v>
@@ -14972,7 +14949,7 @@
         <v>6</v>
       </c>
       <c r="B61" s="51" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C61" s="46"/>
       <c r="D61" s="46"/>
@@ -15168,7 +15145,7 @@
         <v>4.5199999999999997E-3</v>
       </c>
       <c r="C70" s="59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D70" s="59" t="s">
         <v>26</v>
@@ -15243,7 +15220,7 @@
         <v>-9.8899999999999995E-3</v>
       </c>
       <c r="C73" s="59" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D73" s="60" t="s">
         <v>36</v>
@@ -15393,7 +15370,7 @@
         <v>6</v>
       </c>
       <c r="B81" s="87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C81" s="82"/>
       <c r="D81" s="82"/>
@@ -15662,7 +15639,7 @@
         <v>-3.16E-3</v>
       </c>
       <c r="C93" s="95" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D93" s="94" t="s">
         <v>36</v>
@@ -15711,7 +15688,7 @@
         <v>6</v>
       </c>
       <c r="B97" s="106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C97" s="101"/>
       <c r="D97" s="101"/>
@@ -15982,7 +15959,7 @@
         <v>-8.9899999999999997E-3</v>
       </c>
       <c r="C109" s="114" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D109" s="113" t="s">
         <v>36</v>
@@ -16031,7 +16008,7 @@
         <v>6</v>
       </c>
       <c r="B113" s="124" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C113" s="119"/>
       <c r="D113" s="119"/>
@@ -16402,7 +16379,7 @@
         <v>-3.16E-3</v>
       </c>
       <c r="C129" s="119" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D129" s="121" t="s">
         <v>36</v>
@@ -16451,7 +16428,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="139" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C133" s="134"/>
       <c r="D133" s="134"/>
@@ -16823,7 +16800,7 @@
         <v>-8.9899999999999997E-3</v>
       </c>
       <c r="C149" s="134" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D149" s="136" t="s">
         <v>36</v>
@@ -16964,14 +16941,14 @@
     </row>
     <row r="159" spans="1:8" ht="15">
       <c r="A159" s="169" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B159" s="169">
         <f>2.3205/513</f>
         <v>4.523391812865497E-3</v>
       </c>
       <c r="C159" s="169" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D159" s="169" t="s">
         <v>8</v>
@@ -17281,13 +17258,13 @@
     </row>
     <row r="176" spans="1:7" ht="15">
       <c r="A176" s="189" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B176" s="189">
         <v>7.5700000000000003E-3</v>
       </c>
       <c r="C176" s="189" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D176" s="189" t="s">
         <v>8</v>
@@ -18119,7 +18096,7 @@
         <v>6</v>
       </c>
       <c r="B221" s="187" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C221" s="183"/>
       <c r="D221" s="183"/>
@@ -18200,7 +18177,7 @@
         <v>1</v>
       </c>
       <c r="C226" s="189" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D226" s="189" t="s">
         <v>8</v>
@@ -19381,21 +19358,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Data/databases/case1.xlsx
+++ b/Data/databases/case1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D72EB6-1C22-4C9F-B124-50626F87741B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36FE6B4-4AA4-4F79-B126-CEC02AEAA984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="162">
   <si>
     <t>Database</t>
   </si>
@@ -521,6 +521,12 @@
   <si>
     <t>heat production, at heat pump 30kW, allocation exergy</t>
   </si>
+  <si>
+    <t>heat pump, 30kW</t>
+  </si>
+  <si>
+    <t>market for heat pump, 30kW</t>
+  </si>
 </sst>
 </file>
 
@@ -603,7 +609,7 @@
       <name val="Calibri (body)"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +783,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -793,7 +811,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="331">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1186,6 +1204,33 @@
     <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="30" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="30" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="31" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="6" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -6958,10 +7003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFA505-1D17-4E8B-8A2A-C03874A6F184}">
-  <dimension ref="A1:J352"/>
+  <dimension ref="A1:J363"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D270" sqref="D270"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B367" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12291,7 +12336,7 @@
         <v>83</v>
       </c>
       <c r="D270" s="208" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E270" s="208" t="s">
         <v>42</v>
@@ -12300,8 +12345,9 @@
       <c r="G270" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="H270" s="208" t="s">
-        <v>127</v>
+      <c r="H270" s="210" t="str">
+        <f>$B$1</f>
+        <v>case1_consq</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="15">
@@ -13721,6 +13767,192 @@
         <v>18</v>
       </c>
       <c r="H352" s="84" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" ht="15.75">
+      <c r="A354" s="312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B354" s="313" t="s">
+        <v>159</v>
+      </c>
+      <c r="C354" s="314"/>
+      <c r="D354" s="315"/>
+      <c r="E354" s="314"/>
+      <c r="F354" s="316"/>
+      <c r="G354" s="314"/>
+      <c r="H354" s="314"/>
+    </row>
+    <row r="355" spans="1:8" ht="15">
+      <c r="A355" s="317" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" s="318">
+        <v>1</v>
+      </c>
+      <c r="C355" s="314"/>
+      <c r="D355" s="314"/>
+      <c r="E355" s="314"/>
+      <c r="F355" s="316"/>
+      <c r="G355" s="314"/>
+      <c r="H355" s="314"/>
+    </row>
+    <row r="356" spans="1:8" ht="15">
+      <c r="A356" s="317" t="s">
+        <v>6</v>
+      </c>
+      <c r="B356" s="319" t="s">
+        <v>83</v>
+      </c>
+      <c r="C356" s="314"/>
+      <c r="D356" s="314"/>
+      <c r="E356" s="314"/>
+      <c r="F356" s="316"/>
+      <c r="G356" s="314"/>
+      <c r="H356" s="314"/>
+    </row>
+    <row r="357" spans="1:8" ht="15">
+      <c r="A357" s="317" t="s">
+        <v>7</v>
+      </c>
+      <c r="B357" s="320" t="s">
+        <v>39</v>
+      </c>
+      <c r="C357" s="314"/>
+      <c r="D357" s="314"/>
+      <c r="E357" s="314"/>
+      <c r="F357" s="316"/>
+      <c r="G357" s="314"/>
+      <c r="H357" s="314"/>
+    </row>
+    <row r="358" spans="1:8" ht="15">
+      <c r="A358" s="317" t="s">
+        <v>9</v>
+      </c>
+      <c r="B358" s="321" t="s">
+        <v>42</v>
+      </c>
+      <c r="C358" s="314"/>
+      <c r="D358" s="314"/>
+      <c r="E358" s="314"/>
+      <c r="F358" s="316"/>
+      <c r="G358" s="314"/>
+      <c r="H358" s="314"/>
+    </row>
+    <row r="359" spans="1:8" ht="15.75">
+      <c r="A359" s="322" t="s">
+        <v>10</v>
+      </c>
+      <c r="B359" s="323"/>
+      <c r="C359" s="322"/>
+      <c r="D359" s="322"/>
+      <c r="E359" s="322"/>
+      <c r="F359" s="316"/>
+      <c r="G359" s="322"/>
+      <c r="H359" s="322"/>
+    </row>
+    <row r="360" spans="1:8" ht="15.75">
+      <c r="A360" s="322" t="s">
+        <v>11</v>
+      </c>
+      <c r="B360" s="322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C360" s="322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" s="322" t="s">
+        <v>7</v>
+      </c>
+      <c r="E360" s="322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" s="324" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360" s="322" t="s">
+        <v>14</v>
+      </c>
+      <c r="H360" s="322" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" ht="15">
+      <c r="A361" s="321" t="str">
+        <f>B354</f>
+        <v>heat production, at heat pump 30kW, allocation exergy</v>
+      </c>
+      <c r="B361" s="325">
+        <f>B355</f>
+        <v>1</v>
+      </c>
+      <c r="C361" s="321" t="str">
+        <f>B356</f>
+        <v>heat, central or small-scale, other than natural gas</v>
+      </c>
+      <c r="D361" s="321" t="str">
+        <f>B357</f>
+        <v>DK</v>
+      </c>
+      <c r="E361" s="321" t="str">
+        <f>B358</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F361" s="316"/>
+      <c r="G361" s="314" t="s">
+        <v>16</v>
+      </c>
+      <c r="H361" s="321" t="str">
+        <f>$B$1</f>
+        <v>case1_consq</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" ht="15">
+      <c r="A362" s="326" t="s">
+        <v>73</v>
+      </c>
+      <c r="B362" s="327">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="C362" s="328" t="s">
+        <v>74</v>
+      </c>
+      <c r="D362" s="329" t="s">
+        <v>39</v>
+      </c>
+      <c r="E362" s="329" t="s">
+        <v>40</v>
+      </c>
+      <c r="F362" s="329"/>
+      <c r="G362" s="328" t="s">
+        <v>18</v>
+      </c>
+      <c r="H362" s="328" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" ht="15">
+      <c r="A363" s="316" t="s">
+        <v>161</v>
+      </c>
+      <c r="B363" s="330">
+        <v>3.47E-8</v>
+      </c>
+      <c r="C363" s="316" t="s">
+        <v>160</v>
+      </c>
+      <c r="D363" s="316" t="s">
+        <v>8</v>
+      </c>
+      <c r="E363" s="329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363" s="316"/>
+      <c r="G363" s="316" t="s">
+        <v>18</v>
+      </c>
+      <c r="H363" s="316" t="s">
         <v>127</v>
       </c>
     </row>
@@ -19358,21 +19590,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Data/databases/case1.xlsx
+++ b/Data/databases/case1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB6675D-3656-419B-864D-17519370367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11412CCE-8F91-401A-92F3-878BD64F98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7355,8 +7355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFA505-1D17-4E8B-8A2A-C03874A6F184}">
   <dimension ref="A1:J377"/>
   <sheetViews>
-    <sheetView topLeftCell="A255" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D270" sqref="D270"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7685,14 +7685,14 @@
         <v>34</v>
       </c>
       <c r="B17" s="12">
-        <f>ev391apos!B17</f>
-        <v>-5.9100000000000005E-4</v>
+        <f>-ev391apos!B17</f>
+        <v>5.9100000000000005E-4</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E17" s="78" t="s">
         <v>27</v>
@@ -8058,14 +8058,14 @@
         <v>34</v>
       </c>
       <c r="B35" s="26">
-        <f>ev391apos!B35</f>
-        <v>-9.8900000000000008E-4</v>
+        <f>-ev391apos!B35</f>
+        <v>9.8900000000000008E-4</v>
       </c>
       <c r="C35" s="72" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="72" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E35" s="72" t="s">
         <v>27</v>
@@ -8436,14 +8436,14 @@
         <v>34</v>
       </c>
       <c r="B53" s="39">
-        <f>ev391apos!B53</f>
-        <v>-5.9100000000000005E-4</v>
+        <f>-ev391apos!B53</f>
+        <v>5.9100000000000005E-4</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>35</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E53" s="66" t="s">
         <v>27</v>
@@ -8867,14 +8867,14 @@
         <v>34</v>
       </c>
       <c r="B73" s="53">
-        <f>ev391apos!B73</f>
-        <v>-9.8899999999999995E-3</v>
+        <f>-ev391apos!B73</f>
+        <v>9.8899999999999995E-3</v>
       </c>
       <c r="C73" s="59" t="s">
         <v>35</v>
       </c>
       <c r="D73" s="60" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E73" s="60" t="s">
         <v>27</v>
@@ -9295,15 +9295,15 @@
       <c r="A93" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="92">
-        <f>ev391apos!B93</f>
-        <v>-3.16E-3</v>
+      <c r="B93" s="89">
+        <f>-ev391apos!B93</f>
+        <v>3.16E-3</v>
       </c>
       <c r="C93" s="95" t="s">
         <v>35</v>
       </c>
       <c r="D93" s="94" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E93" s="94" t="s">
         <v>27</v>
@@ -9618,14 +9618,14 @@
         <v>34</v>
       </c>
       <c r="B109" s="111">
-        <f>ev391apos!B109</f>
-        <v>-8.9899999999999997E-3</v>
+        <f>-ev391apos!B109</f>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="C109" s="114" t="s">
         <v>35</v>
       </c>
       <c r="D109" s="113" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E109" s="113" t="s">
         <v>27</v>
@@ -10047,15 +10047,15 @@
       <c r="A129" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="129">
-        <f>ev391apos!B129</f>
-        <v>-3.16E-3</v>
+      <c r="B129" s="126">
+        <f>-ev391apos!B129</f>
+        <v>3.16E-3</v>
       </c>
       <c r="C129" s="119" t="s">
         <v>35</v>
       </c>
       <c r="D129" s="121" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E129" s="121" t="s">
         <v>27</v>
@@ -10477,14 +10477,14 @@
         <v>34</v>
       </c>
       <c r="B149" s="144">
-        <f>ev391apos!B149</f>
-        <v>-8.9899999999999997E-3</v>
+        <f>-ev391apos!B149</f>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="C149" s="134" t="s">
         <v>35</v>
       </c>
       <c r="D149" s="136" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E149" s="136" t="s">
         <v>27</v>
@@ -14607,8 +14607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986E469-2788-4B6C-A900-7850E4852EEB}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D147" sqref="D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14928,8 +14928,8 @@
         <v>34</v>
       </c>
       <c r="B17" s="298">
-        <f>ev391apos!B17</f>
-        <v>-5.9100000000000005E-4</v>
+        <f>-ev391apos!B17</f>
+        <v>5.9100000000000005E-4</v>
       </c>
       <c r="C17" s="78" t="s">
         <v>143</v>
@@ -15297,8 +15297,8 @@
         <v>34</v>
       </c>
       <c r="B35" s="304">
-        <f>ev391apos!B35</f>
-        <v>-9.8900000000000008E-4</v>
+        <f>-ev391apos!B35</f>
+        <v>9.8900000000000008E-4</v>
       </c>
       <c r="C35" s="72" t="s">
         <v>143</v>
@@ -15668,8 +15668,8 @@
         <v>34</v>
       </c>
       <c r="B53" s="303">
-        <f>ev391apos!B53</f>
-        <v>-5.9100000000000005E-4</v>
+        <f>-ev391apos!B53</f>
+        <v>5.9100000000000005E-4</v>
       </c>
       <c r="C53" s="63" t="s">
         <v>143</v>
@@ -16089,8 +16089,8 @@
         <v>34</v>
       </c>
       <c r="B73" s="299">
-        <f>ev391apos!B73</f>
-        <v>-9.8899999999999995E-3</v>
+        <f>-ev391apos!B73</f>
+        <v>9.8899999999999995E-3</v>
       </c>
       <c r="C73" s="59" t="s">
         <v>143</v>
@@ -16508,8 +16508,8 @@
         <v>34</v>
       </c>
       <c r="B93" s="300">
-        <f>ev391apos!B93</f>
-        <v>-3.16E-3</v>
+        <f>-ev391apos!B93</f>
+        <v>3.16E-3</v>
       </c>
       <c r="C93" s="95" t="s">
         <v>143</v>
@@ -16828,8 +16828,8 @@
         <v>34</v>
       </c>
       <c r="B109" s="116">
-        <f>ev391apos!B109</f>
-        <v>-8.9899999999999997E-3</v>
+        <f>-ev391apos!B109</f>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="C109" s="114" t="s">
         <v>143</v>
@@ -17248,8 +17248,8 @@
         <v>34</v>
       </c>
       <c r="B129" s="301">
-        <f>ev391apos!B129</f>
-        <v>-3.16E-3</v>
+        <f>-ev391apos!B129</f>
+        <v>3.16E-3</v>
       </c>
       <c r="C129" s="119" t="s">
         <v>143</v>
@@ -17669,8 +17669,8 @@
         <v>34</v>
       </c>
       <c r="B149" s="144">
-        <f>ev391apos!B149</f>
-        <v>-8.9899999999999997E-3</v>
+        <f>-ev391apos!B149</f>
+        <v>8.9899999999999997E-3</v>
       </c>
       <c r="C149" s="134" t="s">
         <v>143</v>
@@ -20493,21 +20493,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Data/databases/case1.xlsx
+++ b/Data/databases/case1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11412CCE-8F91-401A-92F3-878BD64F98B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E50963-58C9-495D-8EEC-BF0FD62FCBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -1556,8 +1556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3005,7 +3005,7 @@
         <v>34</v>
       </c>
       <c r="B73" s="58">
-        <v>-9.8899999999999995E-3</v>
+        <v>-9.8900000000000008E-4</v>
       </c>
       <c r="C73" s="59" t="s">
         <v>35</v>
@@ -7355,8 +7355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFA505-1D17-4E8B-8A2A-C03874A6F184}">
   <dimension ref="A1:J377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8868,7 +8868,7 @@
       </c>
       <c r="B73" s="53">
         <f>-ev391apos!B73</f>
-        <v>9.8899999999999995E-3</v>
+        <v>9.8900000000000008E-4</v>
       </c>
       <c r="C73" s="59" t="s">
         <v>35</v>
@@ -14607,8 +14607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986E469-2788-4B6C-A900-7850E4852EEB}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D147" sqref="D147"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" activeCellId="1" sqref="L18 C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16090,7 +16090,7 @@
       </c>
       <c r="B73" s="299">
         <f>-ev391apos!B73</f>
-        <v>9.8899999999999995E-3</v>
+        <v>9.8900000000000008E-4</v>
       </c>
       <c r="C73" s="59" t="s">
         <v>143</v>
@@ -20493,21 +20493,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <TemplafyFormConfiguration><![CDATA[{"formFields":[],"formDataEntries":[]}]]></TemplafyFormConfiguration>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<TemplafyTemplateConfiguration><![CDATA[{"transformationConfigurations":[],"templateName":"Book","templateDescription":"","enableDocumentContentUpdater":false,"version":"2.0"}]]></TemplafyTemplateConfiguration>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB8A4D0-2978-4CC7-A263-CA3830AE9439}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32EA6D85-E46E-4C0A-BEA4-CBE991220F99}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Data/databases/case1.xlsx
+++ b/Data/databases/case1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E50963-58C9-495D-8EEC-BF0FD62FCBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067C3AD-69AD-4FC0-9D1A-4C50FCB48049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="37320" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
@@ -556,10 +556,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -840,13 +841,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="346">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1225,13 +1227,11 @@
     <xf numFmtId="165" fontId="5" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="6" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="8" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1288,12 +1288,16 @@
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="6" fillId="32" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 11 3" xfId="2" xr:uid="{E521D4CE-33CD-4494-93CC-FD35BBFA04D3}"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{DD43638F-98E3-4462-A4CD-C9B4165D49CB}"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
@@ -1554,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
-  <dimension ref="A1:H300"/>
+  <dimension ref="A1:I300"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1775,8 +1779,8 @@
         <v>22</v>
       </c>
       <c r="B13" s="15">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
+        <f>1/5</f>
+        <v>0.2</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>23</v>
@@ -2136,8 +2140,8 @@
         <v>22</v>
       </c>
       <c r="B31" s="29">
-        <f>1/8</f>
-        <v>0.125</v>
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>23</v>
@@ -2498,7 +2502,8 @@
         <v>22</v>
       </c>
       <c r="B49" s="42">
-        <v>0.16666666666666666</v>
+        <f>B13</f>
+        <v>0.2</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>23</v>
@@ -2666,7 +2671,7 @@
       <c r="A56" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="305">
+      <c r="B56" s="303">
         <v>-2.22398280701754E-2</v>
       </c>
       <c r="C56" s="63" t="s">
@@ -2690,7 +2695,7 @@
       <c r="A57" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="B57" s="305">
+      <c r="B57" s="303">
         <v>-0.400316905263158</v>
       </c>
       <c r="C57" s="63" t="s">
@@ -2907,8 +2912,8 @@
         <v>22</v>
       </c>
       <c r="B69" s="56">
-        <f>1/8</f>
-        <v>0.125</v>
+        <f>B31</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C69" s="53" t="s">
         <v>23</v>
@@ -3289,8 +3294,8 @@
         <v>22</v>
       </c>
       <c r="B88" s="92">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C88" s="89" t="s">
         <v>23</v>
@@ -3599,8 +3604,8 @@
         <v>22</v>
       </c>
       <c r="B104" s="111">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C104" s="108" t="s">
         <v>23</v>
@@ -3910,8 +3915,8 @@
         <v>22</v>
       </c>
       <c r="B120" s="129">
-        <f>1/12</f>
-        <v>8.3333333333333329E-2</v>
+        <f>B88</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C120" s="126" t="s">
         <v>23</v>
@@ -4318,8 +4323,8 @@
         <v>22</v>
       </c>
       <c r="B140" s="144">
-        <f>1/9</f>
-        <v>0.1111111111111111</v>
+        <f>B104</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C140" s="141" t="s">
         <v>23</v>
@@ -4437,7 +4442,7 @@
         <v>case1_apos</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="15">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="141" t="s">
         <v>56</v>
       </c>
@@ -4461,7 +4466,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="141" t="s">
         <v>58</v>
       </c>
@@ -4485,7 +4490,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="141" t="s">
         <v>61</v>
       </c>
@@ -4509,7 +4514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="15">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="141" t="s">
         <v>63</v>
       </c>
@@ -4533,7 +4538,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="141" t="s">
         <v>34</v>
       </c>
@@ -4557,7 +4562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="15.75">
+    <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="162" t="s">
         <v>4</v>
       </c>
@@ -4570,7 +4575,7 @@
       <c r="F151" s="16"/>
       <c r="G151" s="16"/>
     </row>
-    <row r="152" spans="1:8" ht="15">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="165" t="s">
         <v>5</v>
       </c>
@@ -4583,7 +4588,7 @@
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:8" ht="15">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="165" t="s">
         <v>6</v>
       </c>
@@ -4596,7 +4601,7 @@
       <c r="F153" s="16"/>
       <c r="G153" s="16"/>
     </row>
-    <row r="154" spans="1:8" ht="15">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="165" t="s">
         <v>7</v>
       </c>
@@ -4609,7 +4614,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:8" ht="15">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="165" t="s">
         <v>9</v>
       </c>
@@ -4622,7 +4627,7 @@
       <c r="F155" s="16"/>
       <c r="G155" s="16"/>
     </row>
-    <row r="156" spans="1:8" ht="15.75">
+    <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="170" t="s">
         <v>10</v>
       </c>
@@ -4633,7 +4638,7 @@
       <c r="F156" s="170"/>
       <c r="G156" s="170"/>
     </row>
-    <row r="157" spans="1:8" ht="15.75">
+    <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="170" t="s">
         <v>11</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="15">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="169" t="str">
         <f>B151</f>
         <v>alubox (small)</v>
@@ -4684,8 +4689,9 @@
         <f>$B$1</f>
         <v>case1_apos</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="15">
+      <c r="I158" s="345"/>
+    </row>
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="169" t="s">
         <v>153</v>
       </c>
@@ -4709,7 +4715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="15">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="16" t="s">
         <v>85</v>
       </c>
@@ -7134,215 +7140,215 @@
       </c>
     </row>
     <row r="290" spans="1:8" ht="15.75">
-      <c r="A290" s="325" t="s">
+      <c r="A290" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="B290" s="326" t="s">
+      <c r="B290" s="324" t="s">
         <v>168</v>
       </c>
-      <c r="C290" s="327"/>
-      <c r="D290" s="328"/>
-      <c r="E290" s="327"/>
-      <c r="F290" s="329"/>
-      <c r="G290" s="327"/>
-      <c r="H290" s="327"/>
+      <c r="C290" s="325"/>
+      <c r="D290" s="326"/>
+      <c r="E290" s="325"/>
+      <c r="F290" s="327"/>
+      <c r="G290" s="325"/>
+      <c r="H290" s="325"/>
     </row>
     <row r="291" spans="1:8" ht="15">
-      <c r="A291" s="330" t="s">
+      <c r="A291" s="328" t="s">
         <v>5</v>
       </c>
-      <c r="B291" s="331">
+      <c r="B291" s="329">
         <v>1</v>
       </c>
-      <c r="C291" s="327"/>
-      <c r="D291" s="327"/>
-      <c r="E291" s="327"/>
-      <c r="F291" s="329"/>
-      <c r="G291" s="327"/>
-      <c r="H291" s="327"/>
+      <c r="C291" s="325"/>
+      <c r="D291" s="325"/>
+      <c r="E291" s="325"/>
+      <c r="F291" s="327"/>
+      <c r="G291" s="325"/>
+      <c r="H291" s="325"/>
     </row>
     <row r="292" spans="1:8" ht="15">
-      <c r="A292" s="330" t="s">
+      <c r="A292" s="328" t="s">
         <v>6</v>
       </c>
-      <c r="B292" s="332" t="s">
+      <c r="B292" s="330" t="s">
         <v>169</v>
       </c>
-      <c r="C292" s="327"/>
-      <c r="D292" s="327"/>
-      <c r="E292" s="327"/>
-      <c r="F292" s="329"/>
-      <c r="G292" s="327"/>
-      <c r="H292" s="327"/>
+      <c r="C292" s="325"/>
+      <c r="D292" s="325"/>
+      <c r="E292" s="325"/>
+      <c r="F292" s="327"/>
+      <c r="G292" s="325"/>
+      <c r="H292" s="325"/>
     </row>
     <row r="293" spans="1:8" ht="15">
-      <c r="A293" s="330" t="s">
+      <c r="A293" s="328" t="s">
         <v>7</v>
       </c>
-      <c r="B293" s="333" t="s">
+      <c r="B293" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="C293" s="327"/>
-      <c r="D293" s="327"/>
-      <c r="E293" s="327"/>
-      <c r="F293" s="329"/>
-      <c r="G293" s="327"/>
-      <c r="H293" s="327"/>
+      <c r="C293" s="325"/>
+      <c r="D293" s="325"/>
+      <c r="E293" s="325"/>
+      <c r="F293" s="327"/>
+      <c r="G293" s="325"/>
+      <c r="H293" s="325"/>
     </row>
     <row r="294" spans="1:8" ht="15">
-      <c r="A294" s="330" t="s">
-        <v>9</v>
-      </c>
-      <c r="B294" s="334" t="s">
-        <v>27</v>
-      </c>
-      <c r="C294" s="327"/>
-      <c r="D294" s="327"/>
-      <c r="E294" s="327"/>
-      <c r="F294" s="329"/>
-      <c r="G294" s="327"/>
-      <c r="H294" s="327"/>
+      <c r="A294" s="328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294" s="332" t="s">
+        <v>27</v>
+      </c>
+      <c r="C294" s="325"/>
+      <c r="D294" s="325"/>
+      <c r="E294" s="325"/>
+      <c r="F294" s="327"/>
+      <c r="G294" s="325"/>
+      <c r="H294" s="325"/>
     </row>
     <row r="295" spans="1:8" ht="15.75">
-      <c r="A295" s="335" t="s">
+      <c r="A295" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="B295" s="336"/>
-      <c r="C295" s="335"/>
-      <c r="D295" s="335"/>
-      <c r="E295" s="335"/>
-      <c r="F295" s="329"/>
-      <c r="G295" s="335"/>
-      <c r="H295" s="335"/>
+      <c r="B295" s="334"/>
+      <c r="C295" s="333"/>
+      <c r="D295" s="333"/>
+      <c r="E295" s="333"/>
+      <c r="F295" s="327"/>
+      <c r="G295" s="333"/>
+      <c r="H295" s="333"/>
     </row>
     <row r="296" spans="1:8" ht="15.75">
-      <c r="A296" s="335" t="s">
+      <c r="A296" s="333" t="s">
         <v>11</v>
       </c>
-      <c r="B296" s="335" t="s">
+      <c r="B296" s="333" t="s">
         <v>12</v>
       </c>
-      <c r="C296" s="335" t="s">
+      <c r="C296" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="D296" s="335" t="s">
+      <c r="D296" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="E296" s="335" t="s">
-        <v>9</v>
-      </c>
-      <c r="F296" s="337" t="s">
+      <c r="E296" s="333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" s="335" t="s">
         <v>13</v>
       </c>
-      <c r="G296" s="335" t="s">
+      <c r="G296" s="333" t="s">
         <v>14</v>
       </c>
-      <c r="H296" s="335" t="s">
+      <c r="H296" s="333" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="15">
-      <c r="A297" s="334" t="str">
+      <c r="A297" s="332" t="str">
         <f>B290</f>
         <v xml:space="preserve">assembly of aluminium container </v>
       </c>
-      <c r="B297" s="338">
+      <c r="B297" s="336">
         <f>B291</f>
         <v>1</v>
       </c>
-      <c r="C297" s="334" t="str">
+      <c r="C297" s="332" t="str">
         <f>B292</f>
         <v>assembly process</v>
       </c>
-      <c r="D297" s="334" t="str">
+      <c r="D297" s="332" t="str">
         <f>B293</f>
         <v>RER</v>
       </c>
-      <c r="E297" s="334" t="str">
+      <c r="E297" s="332" t="str">
         <f>B294</f>
         <v>kilogram</v>
       </c>
-      <c r="F297" s="329"/>
-      <c r="G297" s="327" t="s">
+      <c r="F297" s="327"/>
+      <c r="G297" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="H297" s="334" t="str">
+      <c r="H297" s="332" t="str">
         <f>$B$1</f>
         <v>case1_apos</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="15">
-      <c r="A298" s="339" t="s">
+      <c r="A298" s="337" t="s">
         <v>165</v>
       </c>
-      <c r="B298" s="340">
+      <c r="B298" s="338">
         <f>29.9606978647957/57.9</f>
         <v>0.51745592167177379</v>
       </c>
-      <c r="C298" s="341" t="s">
+      <c r="C298" s="339" t="s">
         <v>162</v>
       </c>
-      <c r="D298" s="342" t="s">
+      <c r="D298" s="340" t="s">
         <v>26</v>
       </c>
-      <c r="E298" s="342" t="s">
+      <c r="E298" s="340" t="s">
         <v>40</v>
       </c>
-      <c r="F298" s="342"/>
-      <c r="G298" s="341" t="s">
-        <v>18</v>
-      </c>
-      <c r="H298" s="341" t="s">
+      <c r="F298" s="340"/>
+      <c r="G298" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H298" s="339" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="15">
-      <c r="A299" s="329" t="s">
+      <c r="A299" s="327" t="s">
         <v>166</v>
       </c>
-      <c r="B299" s="343">
+      <c r="B299" s="341">
         <f>4.828916289625E-09/57.9+2.16545429809825E-08/57.9</f>
         <v>4.5739998740254746E-10</v>
       </c>
-      <c r="C299" s="329" t="s">
+      <c r="C299" s="327" t="s">
         <v>163</v>
       </c>
-      <c r="D299" s="329" t="s">
+      <c r="D299" s="327" t="s">
         <v>26</v>
       </c>
-      <c r="E299" s="342" t="s">
-        <v>27</v>
-      </c>
-      <c r="F299" s="329"/>
-      <c r="G299" s="329" t="s">
-        <v>18</v>
-      </c>
-      <c r="H299" s="341" t="s">
+      <c r="E299" s="340" t="s">
+        <v>27</v>
+      </c>
+      <c r="F299" s="327"/>
+      <c r="G299" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H299" s="339" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="15">
-      <c r="A300" s="329" t="s">
+      <c r="A300" s="327" t="s">
         <v>167</v>
       </c>
-      <c r="B300" s="343">
+      <c r="B300" s="341">
         <f>2.64834592706075E-08/57.9</f>
         <v>4.5739998740254751E-10</v>
       </c>
-      <c r="C300" s="329" t="s">
+      <c r="C300" s="327" t="s">
         <v>164</v>
       </c>
-      <c r="D300" s="329" t="s">
+      <c r="D300" s="327" t="s">
         <v>8</v>
       </c>
-      <c r="E300" s="342" t="s">
-        <v>9</v>
-      </c>
-      <c r="F300" s="329"/>
-      <c r="G300" s="329" t="s">
-        <v>18</v>
-      </c>
-      <c r="H300" s="341" t="s">
+      <c r="E300" s="340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" s="327"/>
+      <c r="G300" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H300" s="339" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7355,8 +7361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFA505-1D17-4E8B-8A2A-C03874A6F184}">
   <dimension ref="A1:J377"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView topLeftCell="A95" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7552,7 +7558,7 @@
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="15">
         <f>ev391apos!B12</f>
         <v>6.25E-2</v>
       </c>
@@ -7578,9 +7584,9 @@
       <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="15">
         <f>ev391apos!B13</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>23</v>
@@ -7924,7 +7930,7 @@
       <c r="A30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="29">
         <f>ev391apos!B30</f>
         <v>3.125E-2</v>
       </c>
@@ -7950,9 +7956,9 @@
       <c r="A31" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="29">
         <f>ev391apos!B31</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>23</v>
@@ -8301,7 +8307,7 @@
         <f>A242</f>
         <v>wet wipe</v>
       </c>
-      <c r="B48" s="344">
+      <c r="B48" s="342">
         <f>ev391apos!B48</f>
         <v>2</v>
       </c>
@@ -8330,7 +8336,7 @@
       </c>
       <c r="B49" s="42">
         <f>ev391apos!B49</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="C49" s="43" t="s">
         <v>23</v>
@@ -8761,7 +8767,7 @@
       </c>
       <c r="B69" s="56">
         <f>ev391apos!B69</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C69" s="53" t="s">
         <v>23</v>
@@ -9164,7 +9170,7 @@
       </c>
       <c r="B88" s="92">
         <f>ev391apos!B88</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C88" s="89" t="s">
         <v>23</v>
@@ -9486,7 +9492,7 @@
       </c>
       <c r="B104" s="111">
         <f>ev391apos!B104</f>
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C104" s="108" t="s">
         <v>23</v>
@@ -9808,7 +9814,7 @@
       </c>
       <c r="B120" s="129">
         <f>ev391apos!B120</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C120" s="126" t="s">
         <v>23</v>
@@ -10238,7 +10244,7 @@
       </c>
       <c r="B140" s="144">
         <f>ev391apos!B140</f>
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C140" s="141" t="s">
         <v>23</v>
@@ -14199,401 +14205,401 @@
       </c>
     </row>
     <row r="356" spans="1:8" ht="15.75">
-      <c r="A356" s="306" t="s">
+      <c r="A356" s="304" t="s">
         <v>4</v>
       </c>
-      <c r="B356" s="307" t="s">
+      <c r="B356" s="305" t="s">
         <v>159</v>
       </c>
-      <c r="C356" s="308"/>
-      <c r="D356" s="309"/>
-      <c r="E356" s="308"/>
-      <c r="F356" s="310"/>
-      <c r="G356" s="308"/>
-      <c r="H356" s="308"/>
+      <c r="C356" s="306"/>
+      <c r="D356" s="307"/>
+      <c r="E356" s="306"/>
+      <c r="F356" s="308"/>
+      <c r="G356" s="306"/>
+      <c r="H356" s="306"/>
     </row>
     <row r="357" spans="1:8" ht="15">
-      <c r="A357" s="311" t="s">
+      <c r="A357" s="309" t="s">
         <v>5</v>
       </c>
-      <c r="B357" s="312">
+      <c r="B357" s="310">
         <v>1</v>
       </c>
-      <c r="C357" s="308"/>
-      <c r="D357" s="308"/>
-      <c r="E357" s="308"/>
-      <c r="F357" s="310"/>
-      <c r="G357" s="308"/>
-      <c r="H357" s="308"/>
+      <c r="C357" s="306"/>
+      <c r="D357" s="306"/>
+      <c r="E357" s="306"/>
+      <c r="F357" s="308"/>
+      <c r="G357" s="306"/>
+      <c r="H357" s="306"/>
     </row>
     <row r="358" spans="1:8" ht="15">
-      <c r="A358" s="311" t="s">
+      <c r="A358" s="309" t="s">
         <v>6</v>
       </c>
-      <c r="B358" s="313" t="s">
+      <c r="B358" s="311" t="s">
         <v>83</v>
       </c>
-      <c r="C358" s="308"/>
-      <c r="D358" s="308"/>
-      <c r="E358" s="308"/>
-      <c r="F358" s="310"/>
-      <c r="G358" s="308"/>
-      <c r="H358" s="308"/>
+      <c r="C358" s="306"/>
+      <c r="D358" s="306"/>
+      <c r="E358" s="306"/>
+      <c r="F358" s="308"/>
+      <c r="G358" s="306"/>
+      <c r="H358" s="306"/>
     </row>
     <row r="359" spans="1:8" ht="15">
-      <c r="A359" s="311" t="s">
+      <c r="A359" s="309" t="s">
         <v>7</v>
       </c>
-      <c r="B359" s="314" t="s">
+      <c r="B359" s="312" t="s">
         <v>39</v>
       </c>
-      <c r="C359" s="308"/>
-      <c r="D359" s="308"/>
-      <c r="E359" s="308"/>
-      <c r="F359" s="310"/>
-      <c r="G359" s="308"/>
-      <c r="H359" s="308"/>
+      <c r="C359" s="306"/>
+      <c r="D359" s="306"/>
+      <c r="E359" s="306"/>
+      <c r="F359" s="308"/>
+      <c r="G359" s="306"/>
+      <c r="H359" s="306"/>
     </row>
     <row r="360" spans="1:8" ht="15">
-      <c r="A360" s="311" t="s">
-        <v>9</v>
-      </c>
-      <c r="B360" s="315" t="s">
+      <c r="A360" s="309" t="s">
+        <v>9</v>
+      </c>
+      <c r="B360" s="313" t="s">
         <v>42</v>
       </c>
-      <c r="C360" s="308"/>
-      <c r="D360" s="308"/>
-      <c r="E360" s="308"/>
-      <c r="F360" s="310"/>
-      <c r="G360" s="308"/>
-      <c r="H360" s="308"/>
+      <c r="C360" s="306"/>
+      <c r="D360" s="306"/>
+      <c r="E360" s="306"/>
+      <c r="F360" s="308"/>
+      <c r="G360" s="306"/>
+      <c r="H360" s="306"/>
     </row>
     <row r="361" spans="1:8" ht="15.75">
-      <c r="A361" s="316" t="s">
+      <c r="A361" s="314" t="s">
         <v>10</v>
       </c>
-      <c r="B361" s="317"/>
-      <c r="C361" s="316"/>
-      <c r="D361" s="316"/>
-      <c r="E361" s="316"/>
-      <c r="F361" s="310"/>
-      <c r="G361" s="316"/>
-      <c r="H361" s="316"/>
+      <c r="B361" s="315"/>
+      <c r="C361" s="314"/>
+      <c r="D361" s="314"/>
+      <c r="E361" s="314"/>
+      <c r="F361" s="308"/>
+      <c r="G361" s="314"/>
+      <c r="H361" s="314"/>
     </row>
     <row r="362" spans="1:8" ht="15.75">
-      <c r="A362" s="316" t="s">
+      <c r="A362" s="314" t="s">
         <v>11</v>
       </c>
-      <c r="B362" s="316" t="s">
+      <c r="B362" s="314" t="s">
         <v>12</v>
       </c>
-      <c r="C362" s="316" t="s">
+      <c r="C362" s="314" t="s">
         <v>6</v>
       </c>
-      <c r="D362" s="316" t="s">
+      <c r="D362" s="314" t="s">
         <v>7</v>
       </c>
-      <c r="E362" s="316" t="s">
-        <v>9</v>
-      </c>
-      <c r="F362" s="318" t="s">
+      <c r="E362" s="314" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" s="316" t="s">
         <v>13</v>
       </c>
-      <c r="G362" s="316" t="s">
+      <c r="G362" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="H362" s="316" t="s">
+      <c r="H362" s="314" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:8" ht="15">
-      <c r="A363" s="315" t="str">
+      <c r="A363" s="313" t="str">
         <f>B356</f>
         <v>heat production, at heat pump 30kW, allocation exergy</v>
       </c>
-      <c r="B363" s="319">
+      <c r="B363" s="317">
         <f>B357</f>
         <v>1</v>
       </c>
-      <c r="C363" s="315" t="str">
+      <c r="C363" s="313" t="str">
         <f>B358</f>
         <v>heat, central or small-scale, other than natural gas</v>
       </c>
-      <c r="D363" s="315" t="str">
+      <c r="D363" s="313" t="str">
         <f>B359</f>
         <v>DK</v>
       </c>
-      <c r="E363" s="315" t="str">
+      <c r="E363" s="313" t="str">
         <f>B360</f>
         <v>megajoule</v>
       </c>
-      <c r="F363" s="310"/>
-      <c r="G363" s="308" t="s">
+      <c r="F363" s="308"/>
+      <c r="G363" s="306" t="s">
         <v>16</v>
       </c>
-      <c r="H363" s="315" t="str">
+      <c r="H363" s="313" t="str">
         <f>$B$1</f>
         <v>case1_consq</v>
       </c>
     </row>
     <row r="364" spans="1:8" ht="15">
-      <c r="A364" s="320" t="s">
+      <c r="A364" s="318" t="s">
         <v>73</v>
       </c>
-      <c r="B364" s="321">
+      <c r="B364" s="319">
         <v>6.1699999999999998E-2</v>
       </c>
-      <c r="C364" s="322" t="s">
+      <c r="C364" s="320" t="s">
         <v>74</v>
       </c>
-      <c r="D364" s="323" t="s">
+      <c r="D364" s="321" t="s">
         <v>39</v>
       </c>
-      <c r="E364" s="323" t="s">
+      <c r="E364" s="321" t="s">
         <v>40</v>
       </c>
-      <c r="F364" s="323"/>
-      <c r="G364" s="322" t="s">
-        <v>18</v>
-      </c>
-      <c r="H364" s="322" t="s">
+      <c r="F364" s="321"/>
+      <c r="G364" s="320" t="s">
+        <v>18</v>
+      </c>
+      <c r="H364" s="320" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="365" spans="1:8" ht="15">
-      <c r="A365" s="310" t="s">
+      <c r="A365" s="308" t="s">
         <v>161</v>
       </c>
-      <c r="B365" s="324">
+      <c r="B365" s="322">
         <v>3.47E-8</v>
       </c>
-      <c r="C365" s="310" t="s">
+      <c r="C365" s="308" t="s">
         <v>160</v>
       </c>
-      <c r="D365" s="310" t="s">
+      <c r="D365" s="308" t="s">
         <v>8</v>
       </c>
-      <c r="E365" s="323" t="s">
-        <v>9</v>
-      </c>
-      <c r="F365" s="310"/>
-      <c r="G365" s="310" t="s">
-        <v>18</v>
-      </c>
-      <c r="H365" s="310" t="s">
+      <c r="E365" s="321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365" s="308"/>
+      <c r="G365" s="308" t="s">
+        <v>18</v>
+      </c>
+      <c r="H365" s="308" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="367" spans="1:8" ht="15.75">
-      <c r="A367" s="325" t="s">
+      <c r="A367" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="B367" s="326" t="s">
+      <c r="B367" s="324" t="s">
         <v>168</v>
       </c>
-      <c r="C367" s="327"/>
-      <c r="D367" s="328"/>
-      <c r="E367" s="327"/>
-      <c r="F367" s="329"/>
-      <c r="G367" s="327"/>
-      <c r="H367" s="327"/>
+      <c r="C367" s="325"/>
+      <c r="D367" s="326"/>
+      <c r="E367" s="325"/>
+      <c r="F367" s="327"/>
+      <c r="G367" s="325"/>
+      <c r="H367" s="325"/>
     </row>
     <row r="368" spans="1:8" ht="15">
-      <c r="A368" s="330" t="s">
+      <c r="A368" s="328" t="s">
         <v>5</v>
       </c>
-      <c r="B368" s="331">
+      <c r="B368" s="329">
         <v>1</v>
       </c>
-      <c r="C368" s="327"/>
-      <c r="D368" s="327"/>
-      <c r="E368" s="327"/>
-      <c r="F368" s="329"/>
-      <c r="G368" s="327"/>
-      <c r="H368" s="327"/>
+      <c r="C368" s="325"/>
+      <c r="D368" s="325"/>
+      <c r="E368" s="325"/>
+      <c r="F368" s="327"/>
+      <c r="G368" s="325"/>
+      <c r="H368" s="325"/>
     </row>
     <row r="369" spans="1:8" ht="15">
-      <c r="A369" s="330" t="s">
+      <c r="A369" s="328" t="s">
         <v>6</v>
       </c>
-      <c r="B369" s="332" t="s">
+      <c r="B369" s="330" t="s">
         <v>169</v>
       </c>
-      <c r="C369" s="327"/>
-      <c r="D369" s="327"/>
-      <c r="E369" s="327"/>
-      <c r="F369" s="329"/>
-      <c r="G369" s="327"/>
-      <c r="H369" s="327"/>
+      <c r="C369" s="325"/>
+      <c r="D369" s="325"/>
+      <c r="E369" s="325"/>
+      <c r="F369" s="327"/>
+      <c r="G369" s="325"/>
+      <c r="H369" s="325"/>
     </row>
     <row r="370" spans="1:8" ht="15">
-      <c r="A370" s="330" t="s">
+      <c r="A370" s="328" t="s">
         <v>7</v>
       </c>
-      <c r="B370" s="333" t="s">
+      <c r="B370" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="C370" s="327"/>
-      <c r="D370" s="327"/>
-      <c r="E370" s="327"/>
-      <c r="F370" s="329"/>
-      <c r="G370" s="327"/>
-      <c r="H370" s="327"/>
+      <c r="C370" s="325"/>
+      <c r="D370" s="325"/>
+      <c r="E370" s="325"/>
+      <c r="F370" s="327"/>
+      <c r="G370" s="325"/>
+      <c r="H370" s="325"/>
     </row>
     <row r="371" spans="1:8" ht="15">
-      <c r="A371" s="330" t="s">
-        <v>9</v>
-      </c>
-      <c r="B371" s="334" t="s">
-        <v>27</v>
-      </c>
-      <c r="C371" s="327"/>
-      <c r="D371" s="327"/>
-      <c r="E371" s="327"/>
-      <c r="F371" s="329"/>
-      <c r="G371" s="327"/>
-      <c r="H371" s="327"/>
+      <c r="A371" s="328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" s="332" t="s">
+        <v>27</v>
+      </c>
+      <c r="C371" s="325"/>
+      <c r="D371" s="325"/>
+      <c r="E371" s="325"/>
+      <c r="F371" s="327"/>
+      <c r="G371" s="325"/>
+      <c r="H371" s="325"/>
     </row>
     <row r="372" spans="1:8" ht="15.75">
-      <c r="A372" s="335" t="s">
+      <c r="A372" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="B372" s="336"/>
-      <c r="C372" s="335"/>
-      <c r="D372" s="335"/>
-      <c r="E372" s="335"/>
-      <c r="F372" s="329"/>
-      <c r="G372" s="335"/>
-      <c r="H372" s="335"/>
+      <c r="B372" s="334"/>
+      <c r="C372" s="333"/>
+      <c r="D372" s="333"/>
+      <c r="E372" s="333"/>
+      <c r="F372" s="327"/>
+      <c r="G372" s="333"/>
+      <c r="H372" s="333"/>
     </row>
     <row r="373" spans="1:8" ht="15.75">
-      <c r="A373" s="335" t="s">
+      <c r="A373" s="333" t="s">
         <v>11</v>
       </c>
-      <c r="B373" s="335" t="s">
+      <c r="B373" s="333" t="s">
         <v>12</v>
       </c>
-      <c r="C373" s="335" t="s">
+      <c r="C373" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="D373" s="335" t="s">
+      <c r="D373" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="E373" s="335" t="s">
-        <v>9</v>
-      </c>
-      <c r="F373" s="337" t="s">
+      <c r="E373" s="333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F373" s="335" t="s">
         <v>13</v>
       </c>
-      <c r="G373" s="335" t="s">
+      <c r="G373" s="333" t="s">
         <v>14</v>
       </c>
-      <c r="H373" s="335" t="s">
+      <c r="H373" s="333" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="15">
-      <c r="A374" s="334" t="str">
+      <c r="A374" s="332" t="str">
         <f>B367</f>
         <v xml:space="preserve">assembly of aluminium container </v>
       </c>
-      <c r="B374" s="338">
+      <c r="B374" s="336">
         <f>B368</f>
         <v>1</v>
       </c>
-      <c r="C374" s="334" t="str">
+      <c r="C374" s="332" t="str">
         <f>B369</f>
         <v>assembly process</v>
       </c>
-      <c r="D374" s="334" t="str">
+      <c r="D374" s="332" t="str">
         <f>B370</f>
         <v>RER</v>
       </c>
-      <c r="E374" s="334" t="str">
+      <c r="E374" s="332" t="str">
         <f>B371</f>
         <v>kilogram</v>
       </c>
-      <c r="F374" s="329"/>
-      <c r="G374" s="327" t="s">
+      <c r="F374" s="327"/>
+      <c r="G374" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="H374" s="334" t="str">
+      <c r="H374" s="332" t="str">
         <f>$B$1</f>
         <v>case1_consq</v>
       </c>
     </row>
     <row r="375" spans="1:8" ht="15">
-      <c r="A375" s="339" t="s">
+      <c r="A375" s="337" t="s">
         <v>165</v>
       </c>
-      <c r="B375" s="340">
+      <c r="B375" s="338">
         <f>29.9606978647957/57.9</f>
         <v>0.51745592167177379</v>
       </c>
-      <c r="C375" s="341" t="s">
+      <c r="C375" s="339" t="s">
         <v>162</v>
       </c>
-      <c r="D375" s="342" t="s">
+      <c r="D375" s="340" t="s">
         <v>26</v>
       </c>
-      <c r="E375" s="342" t="s">
+      <c r="E375" s="340" t="s">
         <v>40</v>
       </c>
-      <c r="F375" s="342"/>
-      <c r="G375" s="341" t="s">
-        <v>18</v>
-      </c>
-      <c r="H375" s="341" t="s">
+      <c r="F375" s="340"/>
+      <c r="G375" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H375" s="339" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="376" spans="1:8" ht="15">
-      <c r="A376" s="329" t="s">
+      <c r="A376" s="327" t="s">
         <v>166</v>
       </c>
-      <c r="B376" s="343">
+      <c r="B376" s="341">
         <f>4.828916289625E-09/57.9+2.16545429809825E-08/57.9</f>
         <v>4.5739998740254746E-10</v>
       </c>
-      <c r="C376" s="329" t="s">
+      <c r="C376" s="327" t="s">
         <v>163</v>
       </c>
-      <c r="D376" s="329" t="s">
+      <c r="D376" s="327" t="s">
         <v>26</v>
       </c>
-      <c r="E376" s="342" t="s">
-        <v>27</v>
-      </c>
-      <c r="F376" s="329"/>
-      <c r="G376" s="329" t="s">
-        <v>18</v>
-      </c>
-      <c r="H376" s="329" t="s">
+      <c r="E376" s="340" t="s">
+        <v>27</v>
+      </c>
+      <c r="F376" s="327"/>
+      <c r="G376" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H376" s="327" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="377" spans="1:8" ht="15">
-      <c r="A377" s="329" t="s">
+      <c r="A377" s="327" t="s">
         <v>167</v>
       </c>
-      <c r="B377" s="343">
+      <c r="B377" s="341">
         <f>2.64834592706075E-08/57.9</f>
         <v>4.5739998740254751E-10</v>
       </c>
-      <c r="C377" s="329" t="s">
+      <c r="C377" s="327" t="s">
         <v>164</v>
       </c>
-      <c r="D377" s="329" t="s">
+      <c r="D377" s="327" t="s">
         <v>8</v>
       </c>
-      <c r="E377" s="342" t="s">
-        <v>9</v>
-      </c>
-      <c r="F377" s="329"/>
-      <c r="G377" s="329" t="s">
-        <v>18</v>
-      </c>
-      <c r="H377" s="329" t="s">
+      <c r="E377" s="340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377" s="327"/>
+      <c r="G377" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H377" s="327" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14607,8 +14613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986E469-2788-4B6C-A900-7850E4852EEB}">
   <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C22" activeCellId="1" sqref="L18 C22"/>
+    <sheetView topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -14772,7 +14778,7 @@
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="298">
+      <c r="B11" s="343">
         <f>ev391apos!B11</f>
         <v>1.9493177387914229E-3</v>
       </c>
@@ -14798,7 +14804,7 @@
       <c r="A12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="298">
+      <c r="B12" s="343">
         <f>ev391apos!B12</f>
         <v>6.25E-2</v>
       </c>
@@ -14825,9 +14831,9 @@
         <f>A257</f>
         <v>autoclave</v>
       </c>
-      <c r="B13" s="298">
+      <c r="B13" s="343">
         <f>ev391apos!B13</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="C13" s="12" t="str">
         <f>C257</f>
@@ -14852,7 +14858,7 @@
       <c r="A14" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="298">
+      <c r="B14" s="343">
         <f>-ev391apos!B14</f>
         <v>7.5700000000000003E-3</v>
       </c>
@@ -14877,7 +14883,7 @@
       <c r="A15" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="298">
+      <c r="B15" s="343">
         <f>ev391apos!B15</f>
         <v>-7.1900000000000002E-3</v>
       </c>
@@ -14902,7 +14908,7 @@
       <c r="A16" s="79" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="298">
+      <c r="B16" s="343">
         <f>ev391apos!B16</f>
         <v>-1.5799999999999999E-4</v>
       </c>
@@ -14927,7 +14933,7 @@
       <c r="A17" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="298">
+      <c r="B17" s="343">
         <f>-ev391apos!B17</f>
         <v>5.9100000000000005E-4</v>
       </c>
@@ -14952,7 +14958,7 @@
       <c r="A18" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="298">
+      <c r="B18" s="343">
         <f>ev391apos!B18</f>
         <v>-3.7039473684210498E-4</v>
       </c>
@@ -14977,7 +14983,7 @@
       <c r="A19" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="298">
+      <c r="B19" s="343">
         <f>ev391apos!B19</f>
         <v>-6.6671052631578796E-3</v>
       </c>
@@ -15196,7 +15202,7 @@
       </c>
       <c r="B31" s="29">
         <f>ev391apos!B31</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C31" s="26" t="str">
         <f>C257</f>
@@ -15221,7 +15227,7 @@
       <c r="A32" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="304">
+      <c r="B32" s="344">
         <f>-ev391apos!B32</f>
         <v>4.5199999999999997E-3</v>
       </c>
@@ -15246,7 +15252,7 @@
       <c r="A33" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="304">
+      <c r="B33" s="344">
         <f>ev391apos!B33</f>
         <v>-4.3E-3</v>
       </c>
@@ -15271,7 +15277,7 @@
       <c r="A34" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="304">
+      <c r="B34" s="344">
         <f>ev391apos!B34</f>
         <v>-3.1599999999999998E-4</v>
       </c>
@@ -15296,7 +15302,7 @@
       <c r="A35" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="304">
+      <c r="B35" s="344">
         <f>-ev391apos!B35</f>
         <v>9.8900000000000008E-4</v>
       </c>
@@ -15321,7 +15327,7 @@
       <c r="A36" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="304">
+      <c r="B36" s="344">
         <f>ev391apos!B36</f>
         <v>-1.85197368421052E-4</v>
       </c>
@@ -15346,7 +15352,7 @@
       <c r="A37" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="304">
+      <c r="B37" s="344">
         <f>ev391apos!B37</f>
         <v>-3.3335526315789398E-3</v>
       </c>
@@ -15567,7 +15573,7 @@
       </c>
       <c r="B49" s="42">
         <f>ev391apos!B49</f>
-        <v>0.16666666666666666</v>
+        <v>0.2</v>
       </c>
       <c r="C49" s="37" t="str">
         <f>C257</f>
@@ -15592,7 +15598,7 @@
       <c r="A50" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="302">
+      <c r="B50" s="301">
         <f>-ev391apos!B50</f>
         <v>7.5700000000000003E-3</v>
       </c>
@@ -15642,7 +15648,7 @@
       <c r="A52" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="B52" s="303">
+      <c r="B52" s="302">
         <f>ev391apos!B52</f>
         <v>-1.5799999999999999E-4</v>
       </c>
@@ -15667,7 +15673,7 @@
       <c r="A53" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="303">
+      <c r="B53" s="302">
         <f>-ev391apos!B53</f>
         <v>5.9100000000000005E-4</v>
       </c>
@@ -15692,7 +15698,7 @@
       <c r="A54" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B54" s="303">
+      <c r="B54" s="302">
         <f>ev391apos!B54</f>
         <v>-2E-3</v>
       </c>
@@ -15931,7 +15937,7 @@
       <c r="A67" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="299">
+      <c r="B67" s="298">
         <f>ev391apos!B67</f>
         <v>1.9493177387914229E-3</v>
       </c>
@@ -15958,7 +15964,7 @@
         <f>A48</f>
         <v>wet wipe</v>
       </c>
-      <c r="B68" s="299">
+      <c r="B68" s="298">
         <f>ev391apos!B68</f>
         <v>2</v>
       </c>
@@ -15986,9 +15992,9 @@
         <f>A257</f>
         <v>autoclave</v>
       </c>
-      <c r="B69" s="299">
+      <c r="B69" s="298">
         <f>ev391apos!B69</f>
-        <v>0.125</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C69" s="53" t="str">
         <f>C257</f>
@@ -16013,7 +16019,7 @@
       <c r="A70" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="299">
+      <c r="B70" s="298">
         <f>-ev391apos!B70</f>
         <v>4.5199999999999997E-3</v>
       </c>
@@ -16038,7 +16044,7 @@
       <c r="A71" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B71" s="299">
+      <c r="B71" s="298">
         <f>ev391apos!B71</f>
         <v>-4.3E-3</v>
       </c>
@@ -16063,7 +16069,7 @@
       <c r="A72" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B72" s="299">
+      <c r="B72" s="298">
         <f>ev391apos!B72</f>
         <v>-3.1599999999999998E-4</v>
       </c>
@@ -16088,7 +16094,7 @@
       <c r="A73" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="299">
+      <c r="B73" s="298">
         <f>-ev391apos!B73</f>
         <v>9.8900000000000008E-4</v>
       </c>
@@ -16113,7 +16119,7 @@
       <c r="A74" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="B74" s="299">
+      <c r="B74" s="298">
         <f>ev391apos!B74</f>
         <v>-2E-3</v>
       </c>
@@ -16138,7 +16144,7 @@
       <c r="A75" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="299">
+      <c r="B75" s="298">
         <f>ev391apos!B75</f>
         <v>-1.09E-2</v>
       </c>
@@ -16163,7 +16169,7 @@
       <c r="A76" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B76" s="299">
+      <c r="B76" s="298">
         <f>ev391apos!B76</f>
         <v>-2.20546307017544E-2</v>
       </c>
@@ -16188,7 +16194,7 @@
       <c r="A77" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="299">
+      <c r="B77" s="298">
         <f>ev391apos!B77</f>
         <v>-0.39698335263157902</v>
       </c>
@@ -16352,7 +16358,7 @@
       <c r="A87" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="B87" s="300">
+      <c r="B87" s="299">
         <f>ev391apos!B87</f>
         <v>1</v>
       </c>
@@ -16379,9 +16385,9 @@
         <f>A257</f>
         <v>autoclave</v>
       </c>
-      <c r="B88" s="300">
+      <c r="B88" s="299">
         <f>ev391apos!B88</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C88" s="89" t="str">
         <f>C257</f>
@@ -16406,7 +16412,7 @@
       <c r="A89" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B89" s="300">
+      <c r="B89" s="299">
         <f>ev391apos!B89</f>
         <v>-7.0999999999999994E-2</v>
       </c>
@@ -16431,7 +16437,7 @@
       <c r="A90" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="B90" s="300">
+      <c r="B90" s="299">
         <f>ev391apos!B90</f>
         <v>-7.2700000000000004E-3</v>
       </c>
@@ -16456,7 +16462,7 @@
       <c r="A91" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B91" s="300">
+      <c r="B91" s="299">
         <f>ev391apos!B91</f>
         <v>-0.14709144573749999</v>
       </c>
@@ -16481,7 +16487,7 @@
       <c r="A92" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B92" s="300">
+      <c r="B92" s="299">
         <f>ev391apos!B92</f>
         <v>-2.6476460232750001</v>
       </c>
@@ -16507,7 +16513,7 @@
       <c r="A93" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B93" s="300">
+      <c r="B93" s="299">
         <f>-ev391apos!B93</f>
         <v>3.16E-3</v>
       </c>
@@ -16701,7 +16707,7 @@
       </c>
       <c r="B104" s="116">
         <f>ev391apos!B104</f>
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C104" s="108" t="str">
         <f>C257</f>
@@ -16990,7 +16996,7 @@
       <c r="A119" s="126" t="s">
         <v>52</v>
       </c>
-      <c r="B119" s="301">
+      <c r="B119" s="300">
         <f>ev391apos!B119</f>
         <v>1</v>
       </c>
@@ -17017,9 +17023,9 @@
         <f>A257</f>
         <v>autoclave</v>
       </c>
-      <c r="B120" s="301">
+      <c r="B120" s="300">
         <f>ev391apos!B120</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C120" s="126" t="str">
         <f>C257</f>
@@ -17044,7 +17050,7 @@
       <c r="A121" s="126" t="s">
         <v>53</v>
       </c>
-      <c r="B121" s="301">
+      <c r="B121" s="300">
         <f>ev391apos!B121</f>
         <v>-1.0699999999999999E-2</v>
       </c>
@@ -17070,7 +17076,7 @@
       <c r="A122" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="B122" s="301">
+      <c r="B122" s="300">
         <f>ev391apos!B122</f>
         <v>-1.09E-2</v>
       </c>
@@ -17096,7 +17102,7 @@
       <c r="A123" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="B123" s="301">
+      <c r="B123" s="300">
         <f>ev391apos!B123</f>
         <v>-2.2063716860624999E-2</v>
       </c>
@@ -17121,7 +17127,7 @@
       <c r="A124" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="B124" s="301">
+      <c r="B124" s="300">
         <f>ev391apos!B124</f>
         <v>-0.39714690349124998</v>
       </c>
@@ -17147,7 +17153,7 @@
       <c r="A125" s="126" t="s">
         <v>56</v>
       </c>
-      <c r="B125" s="301">
+      <c r="B125" s="300">
         <f>ev391apos!B125</f>
         <v>-6.0400000000000002E-2</v>
       </c>
@@ -17172,7 +17178,7 @@
       <c r="A126" s="126" t="s">
         <v>58</v>
       </c>
-      <c r="B126" s="301">
+      <c r="B126" s="300">
         <f>ev391apos!B126</f>
         <v>-6.1799999999999997E-3</v>
       </c>
@@ -17197,7 +17203,7 @@
       <c r="A127" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="B127" s="301">
+      <c r="B127" s="300">
         <f>ev391apos!B127</f>
         <v>7.2700000000000004E-3</v>
       </c>
@@ -17222,7 +17228,7 @@
       <c r="A128" s="126" t="s">
         <v>63</v>
       </c>
-      <c r="B128" s="301">
+      <c r="B128" s="300">
         <f>ev391apos!B128</f>
         <v>7.0999999999999994E-2</v>
       </c>
@@ -17247,7 +17253,7 @@
       <c r="A129" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="B129" s="301">
+      <c r="B129" s="300">
         <f>-ev391apos!B129</f>
         <v>3.16E-3</v>
       </c>
@@ -17441,7 +17447,7 @@
       </c>
       <c r="B140" s="144">
         <f>ev391apos!B140</f>
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C140" s="141" t="str">
         <f>C257</f>
@@ -20275,215 +20281,215 @@
       </c>
     </row>
     <row r="290" spans="1:8" ht="15.75">
-      <c r="A290" s="325" t="s">
+      <c r="A290" s="323" t="s">
         <v>4</v>
       </c>
-      <c r="B290" s="326" t="s">
+      <c r="B290" s="324" t="s">
         <v>168</v>
       </c>
-      <c r="C290" s="327"/>
-      <c r="D290" s="328"/>
-      <c r="E290" s="327"/>
-      <c r="F290" s="329"/>
-      <c r="G290" s="327"/>
-      <c r="H290" s="327"/>
+      <c r="C290" s="325"/>
+      <c r="D290" s="326"/>
+      <c r="E290" s="325"/>
+      <c r="F290" s="327"/>
+      <c r="G290" s="325"/>
+      <c r="H290" s="325"/>
     </row>
     <row r="291" spans="1:8" ht="15">
-      <c r="A291" s="330" t="s">
+      <c r="A291" s="328" t="s">
         <v>5</v>
       </c>
-      <c r="B291" s="331">
+      <c r="B291" s="329">
         <v>1</v>
       </c>
-      <c r="C291" s="327"/>
-      <c r="D291" s="327"/>
-      <c r="E291" s="327"/>
-      <c r="F291" s="329"/>
-      <c r="G291" s="327"/>
-      <c r="H291" s="327"/>
+      <c r="C291" s="325"/>
+      <c r="D291" s="325"/>
+      <c r="E291" s="325"/>
+      <c r="F291" s="327"/>
+      <c r="G291" s="325"/>
+      <c r="H291" s="325"/>
     </row>
     <row r="292" spans="1:8" ht="15">
-      <c r="A292" s="330" t="s">
+      <c r="A292" s="328" t="s">
         <v>6</v>
       </c>
-      <c r="B292" s="332" t="s">
+      <c r="B292" s="330" t="s">
         <v>169</v>
       </c>
-      <c r="C292" s="327"/>
-      <c r="D292" s="327"/>
-      <c r="E292" s="327"/>
-      <c r="F292" s="329"/>
-      <c r="G292" s="327"/>
-      <c r="H292" s="327"/>
+      <c r="C292" s="325"/>
+      <c r="D292" s="325"/>
+      <c r="E292" s="325"/>
+      <c r="F292" s="327"/>
+      <c r="G292" s="325"/>
+      <c r="H292" s="325"/>
     </row>
     <row r="293" spans="1:8" ht="15">
-      <c r="A293" s="330" t="s">
+      <c r="A293" s="328" t="s">
         <v>7</v>
       </c>
-      <c r="B293" s="333" t="s">
+      <c r="B293" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="C293" s="327"/>
-      <c r="D293" s="327"/>
-      <c r="E293" s="327"/>
-      <c r="F293" s="329"/>
-      <c r="G293" s="327"/>
-      <c r="H293" s="327"/>
+      <c r="C293" s="325"/>
+      <c r="D293" s="325"/>
+      <c r="E293" s="325"/>
+      <c r="F293" s="327"/>
+      <c r="G293" s="325"/>
+      <c r="H293" s="325"/>
     </row>
     <row r="294" spans="1:8" ht="15">
-      <c r="A294" s="330" t="s">
-        <v>9</v>
-      </c>
-      <c r="B294" s="334" t="s">
-        <v>27</v>
-      </c>
-      <c r="C294" s="327"/>
-      <c r="D294" s="327"/>
-      <c r="E294" s="327"/>
-      <c r="F294" s="329"/>
-      <c r="G294" s="327"/>
-      <c r="H294" s="327"/>
+      <c r="A294" s="328" t="s">
+        <v>9</v>
+      </c>
+      <c r="B294" s="332" t="s">
+        <v>27</v>
+      </c>
+      <c r="C294" s="325"/>
+      <c r="D294" s="325"/>
+      <c r="E294" s="325"/>
+      <c r="F294" s="327"/>
+      <c r="G294" s="325"/>
+      <c r="H294" s="325"/>
     </row>
     <row r="295" spans="1:8" ht="15.75">
-      <c r="A295" s="335" t="s">
+      <c r="A295" s="333" t="s">
         <v>10</v>
       </c>
-      <c r="B295" s="336"/>
-      <c r="C295" s="335"/>
-      <c r="D295" s="335"/>
-      <c r="E295" s="335"/>
-      <c r="F295" s="329"/>
-      <c r="G295" s="335"/>
-      <c r="H295" s="335"/>
+      <c r="B295" s="334"/>
+      <c r="C295" s="333"/>
+      <c r="D295" s="333"/>
+      <c r="E295" s="333"/>
+      <c r="F295" s="327"/>
+      <c r="G295" s="333"/>
+      <c r="H295" s="333"/>
     </row>
     <row r="296" spans="1:8" ht="15.75">
-      <c r="A296" s="335" t="s">
+      <c r="A296" s="333" t="s">
         <v>11</v>
       </c>
-      <c r="B296" s="335" t="s">
+      <c r="B296" s="333" t="s">
         <v>12</v>
       </c>
-      <c r="C296" s="335" t="s">
+      <c r="C296" s="333" t="s">
         <v>6</v>
       </c>
-      <c r="D296" s="335" t="s">
+      <c r="D296" s="333" t="s">
         <v>7</v>
       </c>
-      <c r="E296" s="335" t="s">
-        <v>9</v>
-      </c>
-      <c r="F296" s="337" t="s">
+      <c r="E296" s="333" t="s">
+        <v>9</v>
+      </c>
+      <c r="F296" s="335" t="s">
         <v>13</v>
       </c>
-      <c r="G296" s="335" t="s">
+      <c r="G296" s="333" t="s">
         <v>14</v>
       </c>
-      <c r="H296" s="335" t="s">
+      <c r="H296" s="333" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="15">
-      <c r="A297" s="334" t="str">
+      <c r="A297" s="332" t="str">
         <f>B290</f>
         <v xml:space="preserve">assembly of aluminium container </v>
       </c>
-      <c r="B297" s="338">
+      <c r="B297" s="336">
         <f>B291</f>
         <v>1</v>
       </c>
-      <c r="C297" s="334" t="str">
+      <c r="C297" s="332" t="str">
         <f>B292</f>
         <v>assembly process</v>
       </c>
-      <c r="D297" s="334" t="str">
+      <c r="D297" s="332" t="str">
         <f>B293</f>
         <v>RER</v>
       </c>
-      <c r="E297" s="334" t="str">
+      <c r="E297" s="332" t="str">
         <f>B294</f>
         <v>kilogram</v>
       </c>
-      <c r="F297" s="329"/>
-      <c r="G297" s="327" t="s">
+      <c r="F297" s="327"/>
+      <c r="G297" s="325" t="s">
         <v>16</v>
       </c>
-      <c r="H297" s="334" t="str">
+      <c r="H297" s="332" t="str">
         <f>$B$1</f>
         <v>case1_cut_off</v>
       </c>
     </row>
     <row r="298" spans="1:8" ht="15">
-      <c r="A298" s="339" t="s">
+      <c r="A298" s="337" t="s">
         <v>165</v>
       </c>
-      <c r="B298" s="340">
+      <c r="B298" s="338">
         <f>29.9606978647957/57.9</f>
         <v>0.51745592167177379</v>
       </c>
-      <c r="C298" s="341" t="s">
+      <c r="C298" s="339" t="s">
         <v>162</v>
       </c>
-      <c r="D298" s="342" t="s">
+      <c r="D298" s="340" t="s">
         <v>26</v>
       </c>
-      <c r="E298" s="342" t="s">
+      <c r="E298" s="340" t="s">
         <v>40</v>
       </c>
-      <c r="F298" s="342"/>
-      <c r="G298" s="341" t="s">
-        <v>18</v>
-      </c>
-      <c r="H298" s="341" t="s">
+      <c r="F298" s="340"/>
+      <c r="G298" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H298" s="339" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="15">
-      <c r="A299" s="329" t="s">
+      <c r="A299" s="327" t="s">
         <v>166</v>
       </c>
-      <c r="B299" s="343">
+      <c r="B299" s="341">
         <f>4.828916289625E-09/57.9+2.16545429809825E-08/57.9</f>
         <v>4.5739998740254746E-10</v>
       </c>
-      <c r="C299" s="329" t="s">
+      <c r="C299" s="327" t="s">
         <v>163</v>
       </c>
-      <c r="D299" s="329" t="s">
+      <c r="D299" s="327" t="s">
         <v>26</v>
       </c>
-      <c r="E299" s="342" t="s">
-        <v>27</v>
-      </c>
-      <c r="F299" s="329"/>
-      <c r="G299" s="329" t="s">
-        <v>18</v>
-      </c>
-      <c r="H299" s="341" t="s">
+      <c r="E299" s="340" t="s">
+        <v>27</v>
+      </c>
+      <c r="F299" s="327"/>
+      <c r="G299" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H299" s="339" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="15">
-      <c r="A300" s="329" t="s">
+      <c r="A300" s="327" t="s">
         <v>167</v>
       </c>
-      <c r="B300" s="343">
+      <c r="B300" s="341">
         <f>2.64834592706075E-08/57.9</f>
         <v>4.5739998740254751E-10</v>
       </c>
-      <c r="C300" s="329" t="s">
+      <c r="C300" s="327" t="s">
         <v>164</v>
       </c>
-      <c r="D300" s="329" t="s">
+      <c r="D300" s="327" t="s">
         <v>8</v>
       </c>
-      <c r="E300" s="342" t="s">
-        <v>9</v>
-      </c>
-      <c r="F300" s="329"/>
-      <c r="G300" s="329" t="s">
-        <v>18</v>
-      </c>
-      <c r="H300" s="341" t="s">
+      <c r="E300" s="340" t="s">
+        <v>9</v>
+      </c>
+      <c r="F300" s="327"/>
+      <c r="G300" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H300" s="339" t="s">
         <v>128</v>
       </c>
     </row>

--- a/Data/databases/case1.xlsx
+++ b/Data/databases/case1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B437D5-E41D-439B-A3E4-EFE30467F84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4966D11-862D-4BAD-9133-113241431E7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
@@ -1604,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:I325"/>
   <sheetViews>
-    <sheetView topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A257" sqref="A257"/>
+    <sheetView topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2810,8 +2810,8 @@
         <v>48</v>
       </c>
       <c r="B59" s="64">
-        <f>-2.55*4*2*10^-3</f>
-        <v>-2.0399999999999998E-2</v>
+        <f>-60/25*10^-3*2</f>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="C59" s="63" t="s">
         <v>49</v>
@@ -3283,8 +3283,8 @@
         <v>48</v>
       </c>
       <c r="B81" s="58">
-        <f>-2.55*4*2*10^-3</f>
-        <v>-2.0399999999999998E-2</v>
+        <f>B59</f>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="C81" s="59" t="s">
         <v>49</v>
@@ -6679,8 +6679,8 @@
         <v>100</v>
       </c>
       <c r="B256" s="174">
-        <f>2.55*4*10^-3</f>
-        <v>1.0199999999999999E-2</v>
+        <f>60/25*10^-3</f>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C256" s="16" t="s">
         <v>101</v>
@@ -7936,8 +7936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFA505-1D17-4E8B-8A2A-C03874A6F184}">
   <dimension ref="A1:J400"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9195,7 +9195,7 @@
       </c>
       <c r="B59" s="39">
         <f>ev391apos!B59</f>
-        <v>-2.0399999999999998E-2</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="C59" s="64" t="str">
         <f>C304</f>
@@ -9687,7 +9687,7 @@
       </c>
       <c r="B81" s="53">
         <f>ev391apos!B81</f>
-        <v>-2.0399999999999998E-2</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="C81" s="58" t="str">
         <f>A304</f>
@@ -13178,8 +13178,8 @@
         <v>100</v>
       </c>
       <c r="B256" s="200">
-        <f>2.55*4*10^-3</f>
-        <v>1.0199999999999999E-2</v>
+        <f>60/25*10^-3</f>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="C256" s="183" t="s">
         <v>101</v>
@@ -15727,8 +15727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986E469-2788-4B6C-A900-7850E4852EEB}">
   <dimension ref="A1:H323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B257" sqref="B257"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16968,7 +16968,7 @@
       </c>
       <c r="B59" s="42">
         <f>ev391apos!B59</f>
-        <v>-2.0399999999999998E-2</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="C59" s="63" t="s">
         <v>49</v>
@@ -17450,7 +17450,7 @@
       </c>
       <c r="B81" s="298">
         <f>ev391apos!B81</f>
-        <v>-2.0399999999999998E-2</v>
+        <v>-4.7999999999999996E-3</v>
       </c>
       <c r="C81" s="59" t="s">
         <v>49</v>

--- a/Data/databases/case1.xlsx
+++ b/Data/databases/case1.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruw\Desktop\RA\Single-use-vs-multi-use-in-health-care\Data\databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE93BFB-8879-4C4A-8CDF-6526CF599AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70602201-1B8E-469D-961E-99841514248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37680" windowHeight="20580" activeTab="2" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" firstSheet="1" activeTab="1" xr2:uid="{8896788D-4D17-4058-8025-1A7424B43ED5}"/>
   </bookViews>
   <sheets>
-    <sheet name="ev391apos" sheetId="1" r:id="rId1"/>
+    <sheet name="ev391apos" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="ev391consq" sheetId="2" r:id="rId2"/>
     <sheet name="ev391cutoff" sheetId="3" r:id="rId3"/>
+    <sheet name="ev391cutoff (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3980" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5213" uniqueCount="211">
   <si>
     <t>Database</t>
   </si>
@@ -671,14 +672,18 @@
   <si>
     <t>The autoclave can handle 7 boxes</t>
   </si>
+  <si>
+    <t>market for polyethylene, high density, granulate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -990,7 +995,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="594">
+  <cellXfs count="597">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1591,7 +1596,7 @@
     <xf numFmtId="2" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2099,6 +2104,9 @@
     <xf numFmtId="2" fontId="6" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="8" fillId="10" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -2371,8 +2379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE942774-4FA8-4DB9-ACB7-61C81F9E1DC2}">
   <dimension ref="A1:J352"/>
   <sheetViews>
-    <sheetView topLeftCell="A295" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B283" sqref="B283"/>
+    <sheetView topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4322,7 +4330,7 @@
         <v>37</v>
       </c>
       <c r="B84" s="515">
-        <v>3.9974364035087723E-2</v>
+        <v>-3.9974364035087702E-2</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>38</v>
@@ -5364,16 +5372,16 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="112" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" s="115">
+        <v>210</v>
+      </c>
+      <c r="B134" s="112">
         <v>-6.1799999999999997E-3</v>
       </c>
       <c r="C134" s="105" t="s">
         <v>59</v>
       </c>
       <c r="D134" s="107" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E134" s="107" t="s">
         <v>27</v>
@@ -5391,7 +5399,7 @@
       <c r="A135" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B135" s="115">
+      <c r="B135" s="112">
         <v>7.2700000000000004E-3</v>
       </c>
       <c r="C135" s="105" t="s">
@@ -9778,15 +9786,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5FFA505-1D17-4E8B-8A2A-C03874A6F184}">
   <dimension ref="A1:J413"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="83.375" style="129" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="53.875" style="129" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.875" style="129" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" style="129" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" style="129" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" style="129" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.875" style="129" bestFit="1" customWidth="1"/>
@@ -11728,7 +11736,7 @@
         <v>Scaled to 1 use</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:10">
       <c r="A81" s="198" t="str">
         <f>A303</f>
         <v>waste polyethylene</v>
@@ -11760,7 +11768,7 @@
         <v>Scaled to 1 use</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="52" t="str">
         <f>ev391apos!A82</f>
         <v>steel recycling</v>
@@ -11795,7 +11803,7 @@
         <v>Scaled to 1 use</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="52" t="str">
         <f>ev391apos!A83</f>
         <v>steel production, chromium steel 18/8, hot rolled</v>
@@ -11828,14 +11836,15 @@
         <f>ev391apos!I83</f>
         <v>Scaled to 1 use</v>
       </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="J83" s="460"/>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="59" t="s">
         <v>37</v>
       </c>
       <c r="B84" s="55">
         <f>ev391apos!B84</f>
-        <v>3.9974364035087723E-2</v>
+        <v>-3.9974364035087702E-2</v>
       </c>
       <c r="C84" s="58" t="s">
         <v>38</v>
@@ -11858,7 +11867,7 @@
         <v>Scaled to 1 use</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:10">
       <c r="A85" s="59" t="s">
         <v>121</v>
       </c>
@@ -11888,7 +11897,7 @@
         <v>Scaled to 1 use</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:10" ht="15.75">
       <c r="A87" s="71" t="s">
         <v>4</v>
       </c>
@@ -11903,7 +11912,7 @@
       <c r="H87" s="73"/>
       <c r="I87" s="73"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" s="76" t="s">
         <v>5</v>
       </c>
@@ -11918,7 +11927,7 @@
       <c r="H88" s="73"/>
       <c r="I88" s="73"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" s="76" t="s">
         <v>6</v>
       </c>
@@ -11933,7 +11942,7 @@
       <c r="H89" s="73"/>
       <c r="I89" s="73"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" s="76" t="s">
         <v>7</v>
       </c>
@@ -11948,7 +11957,7 @@
       <c r="H90" s="73"/>
       <c r="I90" s="73"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:10">
       <c r="A91" s="76" t="s">
         <v>9</v>
       </c>
@@ -11963,7 +11972,7 @@
       <c r="H91" s="73"/>
       <c r="I91" s="73"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:10" ht="15.75">
       <c r="A92" s="81" t="s">
         <v>10</v>
       </c>
@@ -11976,7 +11985,7 @@
       <c r="H92" s="81"/>
       <c r="I92" s="81"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:10" ht="15.75">
       <c r="A93" s="81" t="s">
         <v>11</v>
       </c>
@@ -12005,7 +12014,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:10">
       <c r="A94" s="80" t="str">
         <f>B87</f>
         <v>H200 SU</v>
@@ -12036,7 +12045,7 @@
       </c>
       <c r="I94" s="80"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="80" t="s">
         <v>52</v>
       </c>
@@ -12063,7 +12072,7 @@
       </c>
       <c r="I95" s="80"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" s="80" t="s">
         <v>22</v>
       </c>
@@ -12894,7 +12903,7 @@
       <c r="A133" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="B133" s="115">
+      <c r="B133" s="112">
         <f>ev391apos!B133</f>
         <v>-6.0400000000000002E-2</v>
       </c>
@@ -12918,17 +12927,17 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="112" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="B134" s="115">
         <f>ev391apos!B134</f>
         <v>-6.1799999999999997E-3</v>
       </c>
       <c r="C134" s="105" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D134" s="107" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E134" s="107" t="s">
         <v>27</v>
@@ -13370,18 +13379,21 @@
       <c r="I153" s="118"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="B154" s="128">
+      <c r="A154" s="125" t="str">
+        <f>A134</f>
+        <v>market for polyethylene, high density, granulate</v>
+      </c>
+      <c r="B154" s="596">
         <f>ev391apos!B154</f>
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="C154" s="118" t="s">
-        <v>62</v>
-      </c>
-      <c r="D154" s="120" t="s">
-        <v>60</v>
+      <c r="C154" s="125" t="str">
+        <f>C134</f>
+        <v>polyethylene, high density, granulate</v>
+      </c>
+      <c r="D154" s="125" t="str">
+        <f>D134</f>
+        <v>GLO</v>
       </c>
       <c r="E154" s="120" t="s">
         <v>27</v>
@@ -13400,7 +13412,7 @@
         <f>A135</f>
         <v>polyethylene recycling</v>
       </c>
-      <c r="B155" s="128">
+      <c r="B155" s="596">
         <f>-ev391apos!B155</f>
         <v>-2.1899999999999999E-2</v>
       </c>
@@ -18461,8 +18473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3986E469-2788-4B6C-A900-7850E4852EEB}">
   <dimension ref="A1:L350"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView topLeftCell="A120" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20483,7 +20495,7 @@
       </c>
       <c r="B84" s="337">
         <f>ev391apos!B84</f>
-        <v>3.9974364035087723E-2</v>
+        <v>-3.9974364035087702E-2</v>
       </c>
       <c r="C84" s="339" t="s">
         <v>38</v>
@@ -21556,9 +21568,9 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="386" t="s">
-        <v>58</v>
-      </c>
-      <c r="B134" s="389">
+        <v>210</v>
+      </c>
+      <c r="B134" s="386">
         <f>ev391apos!B134</f>
         <v>-6.1799999999999997E-3</v>
       </c>
@@ -21566,7 +21578,7 @@
         <v>59</v>
       </c>
       <c r="D134" s="381" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E134" s="381" t="s">
         <v>27</v>
@@ -21584,7 +21596,7 @@
       <c r="A135" s="386" t="s">
         <v>61</v>
       </c>
-      <c r="B135" s="389">
+      <c r="B135" s="386">
         <f>ev391apos!B135</f>
         <v>7.2700000000000004E-3</v>
       </c>
@@ -22000,18 +22012,21 @@
       <c r="I153" s="393"/>
     </row>
     <row r="154" spans="1:9">
-      <c r="A154" s="400" t="s">
-        <v>58</v>
+      <c r="A154" s="400" t="str">
+        <f>A134</f>
+        <v>market for polyethylene, high density, granulate</v>
       </c>
       <c r="B154" s="403">
         <f>ev391apos!B154</f>
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="C154" s="393" t="s">
-        <v>59</v>
-      </c>
-      <c r="D154" s="395" t="s">
-        <v>60</v>
+      <c r="C154" s="400" t="str">
+        <f>C134</f>
+        <v>polyethylene, high density, granulate</v>
+      </c>
+      <c r="D154" s="400" t="str">
+        <f>D134</f>
+        <v>GLO</v>
       </c>
       <c r="E154" s="395" t="s">
         <v>27</v>
@@ -25898,6 +25913,7584 @@
       </c>
       <c r="H345" s="481" t="str">
         <f t="shared" ref="H345" si="4">$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I345" s="481" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" s="481" t="s">
+        <v>173</v>
+      </c>
+      <c r="B346" s="483">
+        <v>1</v>
+      </c>
+      <c r="C346" s="481" t="s">
+        <v>74</v>
+      </c>
+      <c r="D346" s="481" t="s">
+        <v>39</v>
+      </c>
+      <c r="E346" s="483" t="s">
+        <v>42</v>
+      </c>
+      <c r="F346" s="481"/>
+      <c r="G346" s="481" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" s="481" t="s">
+        <v>120</v>
+      </c>
+      <c r="I346" s="481"/>
+    </row>
+    <row r="347" spans="1:9">
+      <c r="A347" s="481" t="s">
+        <v>181</v>
+      </c>
+      <c r="B347" s="483">
+        <f>-0.0123797167117415</f>
+        <v>-1.23797167117415E-2</v>
+      </c>
+      <c r="C347" s="481" t="s">
+        <v>180</v>
+      </c>
+      <c r="D347" s="481" t="s">
+        <v>39</v>
+      </c>
+      <c r="E347" s="481" t="s">
+        <v>105</v>
+      </c>
+      <c r="F347" s="481"/>
+      <c r="G347" s="481" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" s="481" t="s">
+        <v>120</v>
+      </c>
+      <c r="I347" s="481" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" s="481" t="s">
+        <v>183</v>
+      </c>
+      <c r="B348" s="483">
+        <f>36/22.73*ABS(B347)</f>
+        <v>1.9607118417188471E-2</v>
+      </c>
+      <c r="C348" s="481" t="s">
+        <v>182</v>
+      </c>
+      <c r="D348" s="481" t="s">
+        <v>184</v>
+      </c>
+      <c r="E348" s="481" t="s">
+        <v>105</v>
+      </c>
+      <c r="F348" s="481"/>
+      <c r="G348" s="481" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" s="481" t="s">
+        <v>120</v>
+      </c>
+      <c r="I348" s="481" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" s="481" t="s">
+        <v>199</v>
+      </c>
+      <c r="B349" s="483">
+        <v>-2.3798767406651801E-2</v>
+      </c>
+      <c r="C349" s="481"/>
+      <c r="D349" s="481"/>
+      <c r="E349" s="481" t="s">
+        <v>27</v>
+      </c>
+      <c r="F349" s="481" t="s">
+        <v>201</v>
+      </c>
+      <c r="G349" s="481" t="s">
+        <v>67</v>
+      </c>
+      <c r="H349" s="481" t="s">
+        <v>68</v>
+      </c>
+      <c r="I349" s="481"/>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" s="481" t="s">
+        <v>200</v>
+      </c>
+      <c r="B350" s="589">
+        <v>-8.9133960324538801E-6</v>
+      </c>
+      <c r="C350" s="481"/>
+      <c r="D350" s="481"/>
+      <c r="E350" s="481" t="s">
+        <v>27</v>
+      </c>
+      <c r="F350" s="481" t="s">
+        <v>201</v>
+      </c>
+      <c r="G350" s="481" t="s">
+        <v>67</v>
+      </c>
+      <c r="H350" s="481" t="s">
+        <v>68</v>
+      </c>
+      <c r="I350" s="481"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8059B4-60CF-4AF5-A305-72B1A76BCFB6}">
+  <dimension ref="A1:L350"/>
+  <sheetViews>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="83.375" style="487" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.75" style="487" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.375" style="487" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" style="487" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" style="487" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.875" style="487" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5" style="487" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36" style="487" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="487"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75">
+      <c r="A1" s="272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="496" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="276"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="279" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="276"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="279" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="497" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="276"/>
+      <c r="D5" s="276"/>
+      <c r="E5" s="276"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="276"/>
+      <c r="H5" s="276"/>
+      <c r="I5" s="276"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="279" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="276"/>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="279" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="284" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="496"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
+      <c r="A9" s="284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="496" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="284" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="285" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="284" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="284" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="284" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="283" t="str">
+        <f>B3</f>
+        <v>alubox (large + dishwasher)</v>
+      </c>
+      <c r="B10" s="15">
+        <f>B4</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="283" t="str">
+        <f>B5</f>
+        <v>ALC</v>
+      </c>
+      <c r="D10" s="283" t="str">
+        <f>B6</f>
+        <v>GLO</v>
+      </c>
+      <c r="E10" s="283" t="str">
+        <f>B7</f>
+        <v>unit</v>
+      </c>
+      <c r="F10" s="278"/>
+      <c r="G10" s="276" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="283" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I10" s="283"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="283" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="12">
+        <f>1/513</f>
+        <v>1.9493177387914229E-3</v>
+      </c>
+      <c r="C11" s="283" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="283" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="278"/>
+      <c r="G11" s="276" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="283" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I11" s="283" t="str">
+        <f>ev391apos!I11</f>
+        <v>Dividing by 513 to scale to one use</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="283" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="15">
+        <f>1/16</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C12" s="283" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="283" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="278"/>
+      <c r="G12" s="276" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="283" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I12" s="283" t="str">
+        <f>ev391apos!I12</f>
+        <v>The cabinet washer can handle 16 boxes</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="283" t="str">
+        <f>A267</f>
+        <v>autoclave</v>
+      </c>
+      <c r="B13" s="15">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="283" t="str">
+        <f>C267</f>
+        <v>autoclave cycle</v>
+      </c>
+      <c r="D13" s="283" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="283" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="278"/>
+      <c r="G13" s="276" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="283" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I13" s="283" t="str">
+        <f>ev391apos!I13</f>
+        <v>The autoclave can handle 5 boxes</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="287" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="501">
+        <f>-B186/513</f>
+        <v>-7.4824561403508778E-3</v>
+      </c>
+      <c r="C14" s="288" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="289" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="289" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="290"/>
+      <c r="G14" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="289" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="283" t="str">
+        <f>ev391apos!I14</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="287" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="501">
+        <f>(B14-B14*5.70055986996569%)*95.1327433628319%</f>
+        <v>-6.7124847937617034E-3</v>
+      </c>
+      <c r="C15" s="289" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="289" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="289" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="290"/>
+      <c r="G15" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="289" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" s="283" t="str">
+        <f>ev391apos!I15</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="287" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="501">
+        <v>-1.5799999999999999E-4</v>
+      </c>
+      <c r="C16" s="289" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="287" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="287" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="290"/>
+      <c r="G16" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="289" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="283" t="str">
+        <f>ev391apos!I16</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="290" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="501">
+        <v>-5.9100000000000005E-4</v>
+      </c>
+      <c r="C17" s="290" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="290" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="290" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="290"/>
+      <c r="G17" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="289" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="283" t="str">
+        <f>ev391apos!I17</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="283" t="str">
+        <f>ev391apos!A18</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="B18" s="502">
+        <f>45/(1000*513)</f>
+        <v>8.7719298245614029E-5</v>
+      </c>
+      <c r="C18" s="283" t="str">
+        <f>ev391apos!C18</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="D18" s="283" t="str">
+        <f>ev391apos!D18</f>
+        <v>RER</v>
+      </c>
+      <c r="E18" s="283" t="str">
+        <f>ev391apos!E18</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F18" s="283"/>
+      <c r="G18" s="283" t="str">
+        <f>ev391apos!G18</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H18" s="283" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I18" s="283" t="str">
+        <f>ev391apos!I18</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="283" t="str">
+        <f>ev391apos!A19</f>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="B19" s="501">
+        <f>(45/(1000*513))*(1/SUM(B310:B312))</f>
+        <v>-7.7252281919293979E-5</v>
+      </c>
+      <c r="C19" s="283" t="str">
+        <f>ev391apos!C19</f>
+        <v>steel, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="D19" s="283" t="str">
+        <f>ev391apos!D19</f>
+        <v>RER</v>
+      </c>
+      <c r="E19" s="283" t="str">
+        <f>ev391apos!E19</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F19" s="283"/>
+      <c r="G19" s="283" t="str">
+        <f>ev391apos!G19</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H19" s="289" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" s="283" t="str">
+        <f>ev391apos!I19</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="290" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="501">
+        <v>-3.7039473684210498E-4</v>
+      </c>
+      <c r="C20" s="290" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="290" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="290" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="290"/>
+      <c r="G20" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="289" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="283" t="str">
+        <f>ev391apos!I20</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="290" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="501">
+        <v>-6.6671052631578796E-3</v>
+      </c>
+      <c r="C21" s="290" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="290" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="290" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="290"/>
+      <c r="G21" s="289" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="283" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I21" s="283" t="str">
+        <f>ev391apos!I21</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="B22" s="594"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75">
+      <c r="A23" s="291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="504" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="293"/>
+      <c r="D23" s="294"/>
+      <c r="E23" s="293"/>
+      <c r="F23" s="295"/>
+      <c r="G23" s="293"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="293"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="296" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="22">
+        <v>1</v>
+      </c>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
+      <c r="E24" s="293"/>
+      <c r="F24" s="295"/>
+      <c r="G24" s="293"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="293"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="296" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="505" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="295"/>
+      <c r="G25" s="293"/>
+      <c r="H25" s="293"/>
+      <c r="I25" s="293"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="296" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
+      <c r="E26" s="293"/>
+      <c r="F26" s="295"/>
+      <c r="G26" s="293"/>
+      <c r="H26" s="293"/>
+      <c r="I26" s="293"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="296" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="293"/>
+      <c r="D27" s="293"/>
+      <c r="E27" s="293"/>
+      <c r="F27" s="295"/>
+      <c r="G27" s="293"/>
+      <c r="H27" s="293"/>
+      <c r="I27" s="293"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75">
+      <c r="A28" s="301" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="504"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="301"/>
+      <c r="E28" s="301"/>
+      <c r="F28" s="295"/>
+      <c r="G28" s="301"/>
+      <c r="H28" s="301"/>
+      <c r="I28" s="301"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75">
+      <c r="A29" s="301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="504" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="301" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="301" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="302" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="301" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="301" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="301" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="300" t="str">
+        <f>B23</f>
+        <v>alubox (small + dishwasher)</v>
+      </c>
+      <c r="B30" s="28">
+        <f>B24</f>
+        <v>1</v>
+      </c>
+      <c r="C30" s="300" t="str">
+        <f>B25</f>
+        <v>ASC</v>
+      </c>
+      <c r="D30" s="300" t="str">
+        <f>B26</f>
+        <v>GLO</v>
+      </c>
+      <c r="E30" s="300" t="str">
+        <f>B27</f>
+        <v>unit</v>
+      </c>
+      <c r="F30" s="295"/>
+      <c r="G30" s="293" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="300" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I30" s="300"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="300" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="25">
+        <f>1/513</f>
+        <v>1.9493177387914229E-3</v>
+      </c>
+      <c r="C31" s="300" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="300" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="295"/>
+      <c r="G31" s="293" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="300" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I31" s="300" t="str">
+        <f>ev391apos!I31</f>
+        <v>Dividing by 513 to scale to one use</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="300" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" s="28">
+        <f>1/32</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C32" s="300" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="300" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="295"/>
+      <c r="G32" s="293" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="300" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I32" s="300" t="str">
+        <f>ev391apos!I32</f>
+        <v>The cabinet washer can handle 32 boxes</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="300" t="str">
+        <f>A267</f>
+        <v>autoclave</v>
+      </c>
+      <c r="B33" s="28">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C33" s="300" t="str">
+        <f>C267</f>
+        <v>autoclave cycle</v>
+      </c>
+      <c r="D33" s="300" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="300" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="295"/>
+      <c r="G33" s="293" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="300" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I33" s="300" t="str">
+        <f>ev391apos!I33</f>
+        <v>The autoclave can handle 9 boxes</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="304" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="506">
+        <f>-B167/513</f>
+        <v>-4.435672514619883E-3</v>
+      </c>
+      <c r="C34" s="305" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="306" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="306" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="307"/>
+      <c r="G34" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="306" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="300" t="str">
+        <f>ev391apos!I34</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="304" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="506">
+        <f>(B34-B34*5.70055986996569%)*95.1327433628319%</f>
+        <v>-3.9792260383495516E-3</v>
+      </c>
+      <c r="C35" s="306" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="306" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="306" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="307"/>
+      <c r="G35" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="306" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="300" t="str">
+        <f>ev391apos!I35</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="304" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="506">
+        <v>-3.1599999999999998E-4</v>
+      </c>
+      <c r="C36" s="306" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="304" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="304" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="307"/>
+      <c r="G36" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" s="306" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="300" t="str">
+        <f>ev391apos!I36</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="307" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="506">
+        <v>-9.8900000000000008E-4</v>
+      </c>
+      <c r="C37" s="307" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="307" t="s">
+        <v>60</v>
+      </c>
+      <c r="E37" s="307" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="307"/>
+      <c r="G37" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" s="306" t="s">
+        <v>120</v>
+      </c>
+      <c r="I37" s="300" t="str">
+        <f>ev391apos!I37</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="300" t="str">
+        <f>ev391apos!A38</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="B38" s="506">
+        <f t="shared" ref="B38:B39" si="0">B18</f>
+        <v>8.7719298245614029E-5</v>
+      </c>
+      <c r="C38" s="300" t="str">
+        <f>ev391apos!C38</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="D38" s="300" t="str">
+        <f>ev391apos!D38</f>
+        <v>RER</v>
+      </c>
+      <c r="E38" s="300" t="str">
+        <f>ev391apos!E38</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F38" s="300"/>
+      <c r="G38" s="300" t="str">
+        <f>ev391apos!G38</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H38" s="300" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I38" s="300" t="str">
+        <f>ev391apos!I38</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="300" t="str">
+        <f>ev391apos!A39</f>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="B39" s="506">
+        <f t="shared" si="0"/>
+        <v>-7.7252281919293979E-5</v>
+      </c>
+      <c r="C39" s="300" t="str">
+        <f>ev391apos!C39</f>
+        <v>steel, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="D39" s="300" t="str">
+        <f>ev391apos!D39</f>
+        <v>RER</v>
+      </c>
+      <c r="E39" s="300" t="str">
+        <f>ev391apos!E39</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F39" s="300"/>
+      <c r="G39" s="300" t="str">
+        <f>ev391apos!G39</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H39" s="306" t="s">
+        <v>120</v>
+      </c>
+      <c r="I39" s="300" t="str">
+        <f>ev391apos!I39</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="307" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="506">
+        <v>-1.85197368421052E-4</v>
+      </c>
+      <c r="C40" s="307" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="307" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="307" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="307"/>
+      <c r="G40" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="306" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="300" t="str">
+        <f>ev391apos!I40</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="307" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="506">
+        <v>-3.3335526315789398E-3</v>
+      </c>
+      <c r="C41" s="307" t="s">
+        <v>41</v>
+      </c>
+      <c r="D41" s="307" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="307" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="307"/>
+      <c r="G41" s="306" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="300" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I41" s="300" t="str">
+        <f>ev391apos!I41</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="B42" s="460"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75">
+      <c r="A43" s="308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="509" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="310"/>
+      <c r="D43" s="311"/>
+      <c r="E43" s="310"/>
+      <c r="F43" s="312"/>
+      <c r="G43" s="310"/>
+      <c r="H43" s="310"/>
+      <c r="I43" s="310"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="313" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="35">
+        <v>1</v>
+      </c>
+      <c r="C44" s="310"/>
+      <c r="D44" s="310"/>
+      <c r="E44" s="310"/>
+      <c r="F44" s="312"/>
+      <c r="G44" s="310"/>
+      <c r="H44" s="310"/>
+      <c r="I44" s="310"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="313" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="510" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" s="310"/>
+      <c r="D45" s="310"/>
+      <c r="E45" s="310"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="310"/>
+      <c r="H45" s="310"/>
+      <c r="I45" s="310"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="313" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="310"/>
+      <c r="D46" s="310"/>
+      <c r="E46" s="310"/>
+      <c r="F46" s="312"/>
+      <c r="G46" s="310"/>
+      <c r="H46" s="310"/>
+      <c r="I46" s="310"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="313" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="310"/>
+      <c r="D47" s="310"/>
+      <c r="E47" s="310"/>
+      <c r="F47" s="312"/>
+      <c r="G47" s="310"/>
+      <c r="H47" s="310"/>
+      <c r="I47" s="310"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75">
+      <c r="A48" s="318" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="509"/>
+      <c r="C48" s="318"/>
+      <c r="D48" s="318"/>
+      <c r="E48" s="318"/>
+      <c r="F48" s="312"/>
+      <c r="G48" s="318"/>
+      <c r="H48" s="318"/>
+      <c r="I48" s="318"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75">
+      <c r="A49" s="318" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" s="509" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="318" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="318" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="319" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="318" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="318" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="318" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="317" t="str">
+        <f>B43</f>
+        <v>alubox (large + wipe)</v>
+      </c>
+      <c r="B50" s="41">
+        <f>B44</f>
+        <v>1</v>
+      </c>
+      <c r="C50" s="321" t="str">
+        <f>B45</f>
+        <v>ALW</v>
+      </c>
+      <c r="D50" s="317" t="str">
+        <f>B46</f>
+        <v>GLO</v>
+      </c>
+      <c r="E50" s="317" t="str">
+        <f>B47</f>
+        <v>unit</v>
+      </c>
+      <c r="F50" s="312"/>
+      <c r="G50" s="310" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="317" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I50" s="317"/>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="317" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="38">
+        <f>1/513</f>
+        <v>1.9493177387914229E-3</v>
+      </c>
+      <c r="C51" s="321" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="317" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="312"/>
+      <c r="G51" s="310" t="s">
+        <v>18</v>
+      </c>
+      <c r="H51" s="317" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I51" s="317" t="str">
+        <f>ev391apos!I51</f>
+        <v>Dividing by 513 to scale to one use</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="317" t="str">
+        <f>A252</f>
+        <v>wet wipe</v>
+      </c>
+      <c r="B52" s="41">
+        <v>2</v>
+      </c>
+      <c r="C52" s="317" t="str">
+        <f>C252</f>
+        <v>wet wipe</v>
+      </c>
+      <c r="D52" s="317" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="312"/>
+      <c r="G52" s="310" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="317" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I52" s="317"/>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="317" t="str">
+        <f>A267</f>
+        <v>autoclave</v>
+      </c>
+      <c r="B53" s="41">
+        <f>B13</f>
+        <v>0.2</v>
+      </c>
+      <c r="C53" s="315" t="str">
+        <f>C267</f>
+        <v>autoclave cycle</v>
+      </c>
+      <c r="D53" s="317" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="317" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" s="312"/>
+      <c r="G53" s="310" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" s="317" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I53" s="317" t="str">
+        <f>ev391apos!I53</f>
+        <v>The autoclave can handle 5 boxes</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="322" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" s="61">
+        <f>B14</f>
+        <v>-7.4824561403508778E-3</v>
+      </c>
+      <c r="C54" s="322" t="s">
+        <v>130</v>
+      </c>
+      <c r="D54" s="323" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="323" t="s">
+        <v>27</v>
+      </c>
+      <c r="F54" s="324"/>
+      <c r="G54" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" s="323" t="s">
+        <v>120</v>
+      </c>
+      <c r="I54" s="317" t="str">
+        <f>ev391apos!I54</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="322" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="595">
+        <f>B15</f>
+        <v>-6.7124847937617034E-3</v>
+      </c>
+      <c r="C55" s="322" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55" s="323" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="323" t="s">
+        <v>27</v>
+      </c>
+      <c r="F55" s="324"/>
+      <c r="G55" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" s="323" t="s">
+        <v>120</v>
+      </c>
+      <c r="I55" s="317" t="str">
+        <f>ev391apos!I55</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="322" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="61">
+        <v>-1.5799999999999999E-4</v>
+      </c>
+      <c r="C56" s="322" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="322" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="322" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="324"/>
+      <c r="G56" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" s="323" t="s">
+        <v>120</v>
+      </c>
+      <c r="I56" s="317" t="str">
+        <f>ev391apos!I56</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="322" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="61">
+        <v>-5.9100000000000005E-4</v>
+      </c>
+      <c r="C57" s="322" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" s="324" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="324" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" s="324"/>
+      <c r="G57" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="323" t="s">
+        <v>120</v>
+      </c>
+      <c r="I57" s="317" t="str">
+        <f>ev391apos!I57</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="324" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="61">
+        <v>-2E-3</v>
+      </c>
+      <c r="C58" s="322" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" s="324" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="324" t="s">
+        <v>27</v>
+      </c>
+      <c r="F58" s="324"/>
+      <c r="G58" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H58" s="323" t="s">
+        <v>120</v>
+      </c>
+      <c r="I58" s="317" t="str">
+        <f>ev391apos!I58</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="324" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="61">
+        <f>-60/25*10^-3*2</f>
+        <v>-4.7999999999999996E-3</v>
+      </c>
+      <c r="C59" s="322" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" s="324" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="324" t="s">
+        <v>27</v>
+      </c>
+      <c r="F59" s="324"/>
+      <c r="G59" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="323" t="s">
+        <v>120</v>
+      </c>
+      <c r="I59" s="317" t="str">
+        <f>ev391apos!I59</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" s="317" t="str">
+        <f>ev391apos!A60</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="B60" s="61">
+        <f t="shared" ref="B60:B61" si="1">B18</f>
+        <v>8.7719298245614029E-5</v>
+      </c>
+      <c r="C60" s="317" t="str">
+        <f>ev391apos!C60</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="D60" s="317" t="str">
+        <f>ev391apos!D60</f>
+        <v>RER</v>
+      </c>
+      <c r="E60" s="317" t="str">
+        <f>ev391apos!E60</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F60" s="317"/>
+      <c r="G60" s="317" t="str">
+        <f>ev391apos!G60</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H60" s="317" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I60" s="317" t="str">
+        <f>ev391apos!I60</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="317" t="str">
+        <f>ev391apos!A61</f>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="B61" s="61">
+        <f t="shared" si="1"/>
+        <v>-7.7252281919293979E-5</v>
+      </c>
+      <c r="C61" s="317" t="str">
+        <f>ev391apos!C61</f>
+        <v>steel, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="D61" s="317" t="str">
+        <f>ev391apos!D61</f>
+        <v>RER</v>
+      </c>
+      <c r="E61" s="317" t="str">
+        <f>ev391apos!E61</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F61" s="317"/>
+      <c r="G61" s="317" t="str">
+        <f>ev391apos!G61</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H61" s="323" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="317" t="str">
+        <f>ev391apos!I61</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" s="322" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="511">
+        <v>-4.0159561403508799E-2</v>
+      </c>
+      <c r="C62" s="322" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" s="324" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="324" t="s">
+        <v>40</v>
+      </c>
+      <c r="F62" s="324"/>
+      <c r="G62" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="323" t="s">
+        <v>120</v>
+      </c>
+      <c r="I62" s="317" t="str">
+        <f>ev391apos!I62</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" s="322" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="511">
+        <v>-0.72287210526315804</v>
+      </c>
+      <c r="C63" s="322" t="s">
+        <v>41</v>
+      </c>
+      <c r="D63" s="324" t="s">
+        <v>39</v>
+      </c>
+      <c r="E63" s="324" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" s="324"/>
+      <c r="G63" s="323" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="317" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I63" s="317" t="str">
+        <f>ev391apos!I63</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="B64" s="460"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.75">
+      <c r="A65" s="325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" s="512" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="327"/>
+      <c r="D65" s="328"/>
+      <c r="E65" s="327"/>
+      <c r="F65" s="329"/>
+      <c r="G65" s="327"/>
+      <c r="H65" s="327"/>
+      <c r="I65" s="327"/>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" s="330" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" s="49">
+        <v>1</v>
+      </c>
+      <c r="C66" s="327"/>
+      <c r="D66" s="327"/>
+      <c r="E66" s="327"/>
+      <c r="F66" s="329"/>
+      <c r="G66" s="327"/>
+      <c r="H66" s="327"/>
+      <c r="I66" s="327"/>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" s="330" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="513" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="327"/>
+      <c r="D67" s="327"/>
+      <c r="E67" s="327"/>
+      <c r="F67" s="329"/>
+      <c r="G67" s="327"/>
+      <c r="H67" s="327"/>
+      <c r="I67" s="327"/>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" s="330" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="327"/>
+      <c r="D68" s="327"/>
+      <c r="E68" s="327"/>
+      <c r="F68" s="329"/>
+      <c r="G68" s="327"/>
+      <c r="H68" s="327"/>
+      <c r="I68" s="327"/>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" s="330" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" s="327"/>
+      <c r="D69" s="327"/>
+      <c r="E69" s="327"/>
+      <c r="F69" s="329"/>
+      <c r="G69" s="327"/>
+      <c r="H69" s="327"/>
+      <c r="I69" s="327"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75">
+      <c r="A70" s="335" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="512"/>
+      <c r="C70" s="335"/>
+      <c r="D70" s="335"/>
+      <c r="E70" s="335"/>
+      <c r="F70" s="329"/>
+      <c r="G70" s="335"/>
+      <c r="H70" s="335"/>
+      <c r="I70" s="335"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75">
+      <c r="A71" s="335" t="s">
+        <v>11</v>
+      </c>
+      <c r="B71" s="512" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" s="335" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="335" t="s">
+        <v>9</v>
+      </c>
+      <c r="F71" s="336" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="335" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="335" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="335" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="334" t="str">
+        <f>B65</f>
+        <v>alubox (small + wipe)</v>
+      </c>
+      <c r="B72" s="55">
+        <f>B66</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="334" t="str">
+        <f>B67</f>
+        <v>ASW</v>
+      </c>
+      <c r="D72" s="334" t="str">
+        <f>B68</f>
+        <v>GLO</v>
+      </c>
+      <c r="E72" s="334" t="str">
+        <f>B69</f>
+        <v>unit</v>
+      </c>
+      <c r="F72" s="329"/>
+      <c r="G72" s="327" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="334" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I72" s="334"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="334" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="52">
+        <f>1/513</f>
+        <v>1.9493177387914229E-3</v>
+      </c>
+      <c r="C73" s="334" t="s">
+        <v>44</v>
+      </c>
+      <c r="D73" s="334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="329"/>
+      <c r="G73" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="334" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I73" s="334" t="str">
+        <f>ev391apos!I73</f>
+        <v>Dividing by 513 to scale to one use</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" s="334" t="str">
+        <f>A52</f>
+        <v>wet wipe</v>
+      </c>
+      <c r="B74" s="593">
+        <v>2</v>
+      </c>
+      <c r="C74" s="334" t="str">
+        <f>C52</f>
+        <v>wet wipe</v>
+      </c>
+      <c r="D74" s="334" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F74" s="329"/>
+      <c r="G74" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="334" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I74" s="334"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="334" t="str">
+        <f>A267</f>
+        <v>autoclave</v>
+      </c>
+      <c r="B75" s="55">
+        <f>B33</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C75" s="334" t="str">
+        <f>C267</f>
+        <v>autoclave cycle</v>
+      </c>
+      <c r="D75" s="334" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="334" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="329"/>
+      <c r="G75" s="327" t="s">
+        <v>18</v>
+      </c>
+      <c r="H75" s="334" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I75" s="334" t="str">
+        <f>ev391apos!I75</f>
+        <v>The autoclave can handle 9 boxes</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" s="338" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="57">
+        <f>B34</f>
+        <v>-4.435672514619883E-3</v>
+      </c>
+      <c r="C76" s="339" t="s">
+        <v>130</v>
+      </c>
+      <c r="D76" s="339" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" s="339" t="s">
+        <v>27</v>
+      </c>
+      <c r="F76" s="340"/>
+      <c r="G76" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="339" t="s">
+        <v>120</v>
+      </c>
+      <c r="I76" s="334" t="str">
+        <f>ev391apos!I76</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="338" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="57">
+        <f>B35</f>
+        <v>-3.9792260383495516E-3</v>
+      </c>
+      <c r="C77" s="339" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77" s="339" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="339" t="s">
+        <v>27</v>
+      </c>
+      <c r="F77" s="340"/>
+      <c r="G77" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="339" t="s">
+        <v>120</v>
+      </c>
+      <c r="I77" s="334" t="str">
+        <f>ev391apos!I77</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" s="338" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="57">
+        <v>-3.1599999999999998E-4</v>
+      </c>
+      <c r="C78" s="339" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" s="338" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="338" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" s="340"/>
+      <c r="G78" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="339" t="s">
+        <v>120</v>
+      </c>
+      <c r="I78" s="334" t="str">
+        <f>ev391apos!I78</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" s="340" t="s">
+        <v>34</v>
+      </c>
+      <c r="B79" s="57">
+        <v>-9.8900000000000008E-4</v>
+      </c>
+      <c r="C79" s="339" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="340" t="s">
+        <v>60</v>
+      </c>
+      <c r="E79" s="340" t="s">
+        <v>27</v>
+      </c>
+      <c r="F79" s="340"/>
+      <c r="G79" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="339" t="s">
+        <v>120</v>
+      </c>
+      <c r="I79" s="334" t="str">
+        <f>ev391apos!I79</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" s="340" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="57">
+        <v>-2E-3</v>
+      </c>
+      <c r="C80" s="339" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="340" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="340" t="s">
+        <v>27</v>
+      </c>
+      <c r="F80" s="340"/>
+      <c r="G80" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="339" t="s">
+        <v>120</v>
+      </c>
+      <c r="I80" s="334" t="str">
+        <f>ev391apos!I80</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" s="340" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="57">
+        <f>B59</f>
+        <v>-4.7999999999999996E-3</v>
+      </c>
+      <c r="C81" s="339" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" s="340" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="340" t="s">
+        <v>27</v>
+      </c>
+      <c r="F81" s="340"/>
+      <c r="G81" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H81" s="339" t="s">
+        <v>120</v>
+      </c>
+      <c r="I81" s="334" t="str">
+        <f>ev391apos!I81</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" s="334" t="str">
+        <f>ev391apos!A82</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="B82" s="198">
+        <f t="shared" ref="B82:B83" si="2">B18</f>
+        <v>8.7719298245614029E-5</v>
+      </c>
+      <c r="C82" s="334" t="str">
+        <f>ev391apos!C82</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="D82" s="334" t="str">
+        <f>ev391apos!D82</f>
+        <v>RER</v>
+      </c>
+      <c r="E82" s="334" t="str">
+        <f>ev391apos!E82</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F82" s="334"/>
+      <c r="G82" s="334" t="str">
+        <f>ev391apos!G82</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H82" s="334" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I82" s="334" t="str">
+        <f>ev391apos!I82</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" s="334" t="str">
+        <f>ev391apos!A83</f>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="B83" s="198">
+        <f t="shared" si="2"/>
+        <v>-7.7252281919293979E-5</v>
+      </c>
+      <c r="C83" s="334" t="str">
+        <f>ev391apos!C83</f>
+        <v>steel, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="D83" s="334" t="str">
+        <f>ev391apos!D83</f>
+        <v>RER</v>
+      </c>
+      <c r="E83" s="334" t="str">
+        <f>ev391apos!E83</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F83" s="334"/>
+      <c r="G83" s="334" t="str">
+        <f>ev391apos!G83</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H83" s="339" t="s">
+        <v>120</v>
+      </c>
+      <c r="I83" s="334" t="str">
+        <f>ev391apos!I83</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" s="340" t="s">
+        <v>37</v>
+      </c>
+      <c r="B84" s="515">
+        <v>-3.9974364035087702E-2</v>
+      </c>
+      <c r="C84" s="339" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" s="340" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="340" t="s">
+        <v>40</v>
+      </c>
+      <c r="F84" s="340"/>
+      <c r="G84" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H84" s="339" t="s">
+        <v>120</v>
+      </c>
+      <c r="I84" s="334" t="str">
+        <f>ev391apos!I84</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" s="340" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" s="516">
+        <v>-0.71953855263157895</v>
+      </c>
+      <c r="C85" s="339" t="s">
+        <v>41</v>
+      </c>
+      <c r="D85" s="340" t="s">
+        <v>39</v>
+      </c>
+      <c r="E85" s="340" t="s">
+        <v>42</v>
+      </c>
+      <c r="F85" s="340"/>
+      <c r="G85" s="339" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="334" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I85" s="334" t="str">
+        <f>ev391apos!I85</f>
+        <v>Scaled to 1 use</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="B86" s="460"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75">
+      <c r="A87" s="341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="517" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="343"/>
+      <c r="D87" s="344"/>
+      <c r="E87" s="343"/>
+      <c r="F87" s="345"/>
+      <c r="G87" s="343"/>
+      <c r="H87" s="343"/>
+      <c r="I87" s="343"/>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" s="346" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="77">
+        <v>1</v>
+      </c>
+      <c r="C88" s="343"/>
+      <c r="D88" s="343"/>
+      <c r="E88" s="343"/>
+      <c r="F88" s="345"/>
+      <c r="G88" s="343"/>
+      <c r="H88" s="343"/>
+      <c r="I88" s="343"/>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" s="346" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="518" t="s">
+        <v>139</v>
+      </c>
+      <c r="C89" s="343"/>
+      <c r="D89" s="343"/>
+      <c r="E89" s="343"/>
+      <c r="F89" s="345"/>
+      <c r="G89" s="343"/>
+      <c r="H89" s="343"/>
+      <c r="I89" s="343"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="346" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="343"/>
+      <c r="D90" s="343"/>
+      <c r="E90" s="343"/>
+      <c r="F90" s="345"/>
+      <c r="G90" s="343"/>
+      <c r="H90" s="343"/>
+      <c r="I90" s="343"/>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" s="346" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="343"/>
+      <c r="D91" s="343"/>
+      <c r="E91" s="343"/>
+      <c r="F91" s="345"/>
+      <c r="G91" s="343"/>
+      <c r="H91" s="343"/>
+      <c r="I91" s="343"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.75">
+      <c r="A92" s="351" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" s="517"/>
+      <c r="C92" s="351"/>
+      <c r="D92" s="351"/>
+      <c r="E92" s="351"/>
+      <c r="F92" s="345"/>
+      <c r="G92" s="351"/>
+      <c r="H92" s="351"/>
+      <c r="I92" s="351"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.75">
+      <c r="A93" s="351" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" s="517" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" s="351" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="352" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="351" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="351" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="351" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" s="350" t="str">
+        <f>B87</f>
+        <v>H200 SU</v>
+      </c>
+      <c r="B94" s="83">
+        <f>B88</f>
+        <v>1</v>
+      </c>
+      <c r="C94" s="350" t="str">
+        <f>B89</f>
+        <v>H2S</v>
+      </c>
+      <c r="D94" s="350" t="str">
+        <f>B90</f>
+        <v>GLO</v>
+      </c>
+      <c r="E94" s="350" t="str">
+        <f>B91</f>
+        <v>unit</v>
+      </c>
+      <c r="F94" s="345"/>
+      <c r="G94" s="343" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="350" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I94" s="350"/>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" s="350" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="83">
+        <v>1</v>
+      </c>
+      <c r="C95" s="350" t="s">
+        <v>52</v>
+      </c>
+      <c r="D95" s="350" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="345"/>
+      <c r="G95" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="350" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I95" s="350"/>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" s="350" t="str">
+        <f>A267</f>
+        <v>autoclave</v>
+      </c>
+      <c r="B96" s="83">
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C96" s="350" t="str">
+        <f>C267</f>
+        <v>autoclave cycle</v>
+      </c>
+      <c r="D96" s="350" t="s">
+        <v>39</v>
+      </c>
+      <c r="E96" s="350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="345"/>
+      <c r="G96" s="343" t="s">
+        <v>18</v>
+      </c>
+      <c r="H96" s="350" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I96" s="354" t="str">
+        <f>ev391apos!I96</f>
+        <v>The autoclave can handle 14 boxes</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" s="355" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="520">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+      <c r="C97" s="355" t="s">
+        <v>54</v>
+      </c>
+      <c r="D97" s="356" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="356" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97" s="356"/>
+      <c r="G97" s="357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H97" s="357" t="s">
+        <v>120</v>
+      </c>
+      <c r="I97" s="357"/>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" s="358" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="520">
+        <v>-7.2700000000000004E-3</v>
+      </c>
+      <c r="C98" s="357" t="s">
+        <v>49</v>
+      </c>
+      <c r="D98" s="356" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="356" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98" s="356"/>
+      <c r="G98" s="357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H98" s="357" t="s">
+        <v>120</v>
+      </c>
+      <c r="I98" s="357"/>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" s="358" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="520">
+        <v>-0.14709144573749999</v>
+      </c>
+      <c r="C99" s="357" t="s">
+        <v>38</v>
+      </c>
+      <c r="D99" s="356" t="s">
+        <v>39</v>
+      </c>
+      <c r="E99" s="356" t="s">
+        <v>40</v>
+      </c>
+      <c r="F99" s="356"/>
+      <c r="G99" s="357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="357" t="s">
+        <v>120</v>
+      </c>
+      <c r="I99" s="357"/>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" s="358" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="520">
+        <v>-2.6476460232750001</v>
+      </c>
+      <c r="C100" s="357" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="356" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="356" t="s">
+        <v>42</v>
+      </c>
+      <c r="F100" s="356"/>
+      <c r="G100" s="357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="350" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I100" s="350"/>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" s="358" t="s">
+        <v>34</v>
+      </c>
+      <c r="B101" s="86">
+        <v>-3.16E-3</v>
+      </c>
+      <c r="C101" s="357" t="s">
+        <v>134</v>
+      </c>
+      <c r="D101" s="356" t="s">
+        <v>36</v>
+      </c>
+      <c r="E101" s="356" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101" s="356"/>
+      <c r="G101" s="357" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="357" t="s">
+        <v>120</v>
+      </c>
+      <c r="I101" s="357"/>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="B102" s="460"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.75">
+      <c r="A103" s="359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" s="521" t="s">
+        <v>55</v>
+      </c>
+      <c r="C103" s="361"/>
+      <c r="D103" s="362"/>
+      <c r="E103" s="361"/>
+      <c r="F103" s="363"/>
+      <c r="G103" s="361"/>
+      <c r="H103" s="361"/>
+      <c r="I103" s="361"/>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="93">
+        <v>1</v>
+      </c>
+      <c r="C104" s="361"/>
+      <c r="D104" s="361"/>
+      <c r="E104" s="361"/>
+      <c r="F104" s="363"/>
+      <c r="G104" s="361"/>
+      <c r="H104" s="361"/>
+      <c r="I104" s="361"/>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" s="364" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" s="522" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="361"/>
+      <c r="D105" s="361"/>
+      <c r="E105" s="361"/>
+      <c r="F105" s="363"/>
+      <c r="G105" s="361"/>
+      <c r="H105" s="361"/>
+      <c r="I105" s="361"/>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" s="364" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="361"/>
+      <c r="D106" s="361"/>
+      <c r="E106" s="361"/>
+      <c r="F106" s="363"/>
+      <c r="G106" s="361"/>
+      <c r="H106" s="361"/>
+      <c r="I106" s="361"/>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" s="364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="361"/>
+      <c r="D107" s="361"/>
+      <c r="E107" s="361"/>
+      <c r="F107" s="363"/>
+      <c r="G107" s="361"/>
+      <c r="H107" s="361"/>
+      <c r="I107" s="361"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.75">
+      <c r="A108" s="369" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" s="521"/>
+      <c r="C108" s="369"/>
+      <c r="D108" s="369"/>
+      <c r="E108" s="369"/>
+      <c r="F108" s="363"/>
+      <c r="G108" s="369"/>
+      <c r="H108" s="369"/>
+      <c r="I108" s="369"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.75">
+      <c r="A109" s="369" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="521" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="369" t="s">
+        <v>7</v>
+      </c>
+      <c r="E109" s="369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="370" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="369" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="369" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="369" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" s="368" t="str">
+        <f>B103</f>
+        <v>H400 SU</v>
+      </c>
+      <c r="B110" s="99">
+        <f>B104</f>
+        <v>1</v>
+      </c>
+      <c r="C110" s="368" t="str">
+        <f>B105</f>
+        <v>H4S</v>
+      </c>
+      <c r="D110" s="368" t="str">
+        <f>B106</f>
+        <v>GLO</v>
+      </c>
+      <c r="E110" s="368" t="str">
+        <f>B107</f>
+        <v>unit</v>
+      </c>
+      <c r="F110" s="363"/>
+      <c r="G110" s="361" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="368" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I110" s="368"/>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" s="368" t="str">
+        <f>A221</f>
+        <v>H400</v>
+      </c>
+      <c r="B111" s="99">
+        <v>1</v>
+      </c>
+      <c r="C111" s="368" t="str">
+        <f>C221</f>
+        <v>H400</v>
+      </c>
+      <c r="D111" s="368" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="363"/>
+      <c r="G111" s="361" t="s">
+        <v>18</v>
+      </c>
+      <c r="H111" s="368" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I111" s="368"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="368" t="str">
+        <f>A267</f>
+        <v>autoclave</v>
+      </c>
+      <c r="B112" s="99">
+        <f>1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C112" s="368" t="str">
+        <f>C267</f>
+        <v>autoclave cycle</v>
+      </c>
+      <c r="D112" s="368" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="368" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="363"/>
+      <c r="G112" s="361" t="s">
+        <v>18</v>
+      </c>
+      <c r="H112" s="368" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I112" s="372" t="str">
+        <f>ev391apos!I112</f>
+        <v>The autoclave can handle 7 boxes</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" s="373" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="99">
+        <v>-0.2</v>
+      </c>
+      <c r="C113" s="373" t="s">
+        <v>54</v>
+      </c>
+      <c r="D113" s="374" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="374" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="374"/>
+      <c r="G113" s="375" t="s">
+        <v>18</v>
+      </c>
+      <c r="H113" s="375" t="s">
+        <v>120</v>
+      </c>
+      <c r="I113" s="375"/>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" s="376" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="99">
+        <v>-2.1899999999999999E-2</v>
+      </c>
+      <c r="C114" s="375" t="s">
+        <v>49</v>
+      </c>
+      <c r="D114" s="374" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="374" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="374"/>
+      <c r="G114" s="375" t="s">
+        <v>18</v>
+      </c>
+      <c r="H114" s="375" t="s">
+        <v>120</v>
+      </c>
+      <c r="I114" s="375"/>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" s="376" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="99">
+        <f>-0.420820496891667</f>
+        <v>-0.42082049689166701</v>
+      </c>
+      <c r="C115" s="375" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" s="374" t="s">
+        <v>39</v>
+      </c>
+      <c r="E115" s="374" t="s">
+        <v>40</v>
+      </c>
+      <c r="F115" s="374"/>
+      <c r="G115" s="375" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="375" t="s">
+        <v>120</v>
+      </c>
+      <c r="I115" s="375"/>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" s="376" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" s="99">
+        <v>-7.5747689440499997</v>
+      </c>
+      <c r="C116" s="375" t="s">
+        <v>41</v>
+      </c>
+      <c r="D116" s="374" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="374" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" s="374"/>
+      <c r="G116" s="375" t="s">
+        <v>18</v>
+      </c>
+      <c r="H116" s="368" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I116" s="368"/>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="376" t="s">
+        <v>34</v>
+      </c>
+      <c r="B117" s="96">
+        <v>-8.9899999999999997E-3</v>
+      </c>
+      <c r="C117" s="375" t="s">
+        <v>134</v>
+      </c>
+      <c r="D117" s="374" t="s">
+        <v>60</v>
+      </c>
+      <c r="E117" s="374" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" s="374"/>
+      <c r="G117" s="375" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="375" t="s">
+        <v>120</v>
+      </c>
+      <c r="I117" s="375"/>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="B118" s="460"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.75">
+      <c r="A119" s="377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" s="524" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="379"/>
+      <c r="D119" s="380"/>
+      <c r="E119" s="379"/>
+      <c r="F119" s="381"/>
+      <c r="G119" s="379"/>
+      <c r="H119" s="379"/>
+      <c r="I119" s="379"/>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="382" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="109">
+        <v>1</v>
+      </c>
+      <c r="C120" s="379"/>
+      <c r="D120" s="379"/>
+      <c r="E120" s="379"/>
+      <c r="F120" s="381"/>
+      <c r="G120" s="379"/>
+      <c r="H120" s="379"/>
+      <c r="I120" s="379"/>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="382" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="525" t="s">
+        <v>141</v>
+      </c>
+      <c r="C121" s="379"/>
+      <c r="D121" s="379"/>
+      <c r="E121" s="379"/>
+      <c r="F121" s="381"/>
+      <c r="G121" s="379"/>
+      <c r="H121" s="379"/>
+      <c r="I121" s="379"/>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="382" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="379"/>
+      <c r="D122" s="379"/>
+      <c r="E122" s="379"/>
+      <c r="F122" s="381"/>
+      <c r="G122" s="379"/>
+      <c r="H122" s="379"/>
+      <c r="I122" s="379"/>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" s="379"/>
+      <c r="D123" s="379"/>
+      <c r="E123" s="379"/>
+      <c r="F123" s="381"/>
+      <c r="G123" s="379"/>
+      <c r="H123" s="379"/>
+      <c r="I123" s="379"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.75">
+      <c r="A124" s="387" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="524"/>
+      <c r="C124" s="387"/>
+      <c r="D124" s="387"/>
+      <c r="E124" s="387"/>
+      <c r="F124" s="381"/>
+      <c r="G124" s="387"/>
+      <c r="H124" s="387"/>
+      <c r="I124" s="387"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.75">
+      <c r="A125" s="387" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="524" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="387" t="s">
+        <v>7</v>
+      </c>
+      <c r="E125" s="387" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="388" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="387" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="387" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="387" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="386" t="str">
+        <f>B119</f>
+        <v>H200 REC</v>
+      </c>
+      <c r="B126" s="115">
+        <f>B120</f>
+        <v>1</v>
+      </c>
+      <c r="C126" s="386" t="str">
+        <f>B121</f>
+        <v>H2R</v>
+      </c>
+      <c r="D126" s="386" t="str">
+        <f>B122</f>
+        <v>GLO</v>
+      </c>
+      <c r="E126" s="386" t="str">
+        <f>B123</f>
+        <v>unit</v>
+      </c>
+      <c r="F126" s="381"/>
+      <c r="G126" s="379" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" s="386" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I126" s="386"/>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="386" t="s">
+        <v>52</v>
+      </c>
+      <c r="B127" s="115">
+        <v>1</v>
+      </c>
+      <c r="C127" s="386" t="s">
+        <v>52</v>
+      </c>
+      <c r="D127" s="386" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="381"/>
+      <c r="G127" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H127" s="386" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I127" s="386"/>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" s="386" t="str">
+        <f>A267</f>
+        <v>autoclave</v>
+      </c>
+      <c r="B128" s="115">
+        <f>B96</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C128" s="386" t="str">
+        <f>C267</f>
+        <v>autoclave cycle</v>
+      </c>
+      <c r="D128" s="386" t="s">
+        <v>39</v>
+      </c>
+      <c r="E128" s="386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="381"/>
+      <c r="G128" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H128" s="386" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I128" s="389" t="str">
+        <f>ev391apos!I128</f>
+        <v>The autoclave can handle 14 boxes</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" s="386" t="s">
+        <v>53</v>
+      </c>
+      <c r="B129" s="115">
+        <v>-1.0699999999999999E-2</v>
+      </c>
+      <c r="C129" s="390" t="s">
+        <v>54</v>
+      </c>
+      <c r="D129" s="381" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" s="381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" s="381"/>
+      <c r="G129" s="379" t="str">
+        <f>[1]ev391cutoff!G108</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H129" s="379" t="s">
+        <v>120</v>
+      </c>
+      <c r="I129" s="379"/>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" s="386" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="115">
+        <v>-1.09E-2</v>
+      </c>
+      <c r="C130" s="379" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="381" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="381"/>
+      <c r="G130" s="379" t="str">
+        <f>[1]ev391cutoff!G109</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H130" s="379" t="s">
+        <v>120</v>
+      </c>
+      <c r="I130" s="379"/>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" s="386" t="s">
+        <v>37</v>
+      </c>
+      <c r="B131" s="115">
+        <v>-2.2063716860624999E-2</v>
+      </c>
+      <c r="C131" s="379" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" s="381" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="381" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="381"/>
+      <c r="G131" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H131" s="379" t="s">
+        <v>120</v>
+      </c>
+      <c r="I131" s="379"/>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" s="386" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" s="115">
+        <v>-0.39714690349124998</v>
+      </c>
+      <c r="C132" s="379" t="s">
+        <v>41</v>
+      </c>
+      <c r="D132" s="381" t="s">
+        <v>39</v>
+      </c>
+      <c r="E132" s="381" t="s">
+        <v>42</v>
+      </c>
+      <c r="F132" s="381"/>
+      <c r="G132" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H132" s="386" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I132" s="386"/>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" s="386" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" s="115">
+        <v>-6.0400000000000002E-2</v>
+      </c>
+      <c r="C133" s="379" t="s">
+        <v>57</v>
+      </c>
+      <c r="D133" s="381" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="381"/>
+      <c r="G133" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H133" s="379" t="s">
+        <v>120</v>
+      </c>
+      <c r="I133" s="379"/>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" s="386" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" s="112">
+        <v>-6.1799999999999997E-3</v>
+      </c>
+      <c r="C134" s="379" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="381" t="s">
+        <v>60</v>
+      </c>
+      <c r="E134" s="381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134" s="381"/>
+      <c r="G134" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H134" s="379" t="s">
+        <v>120</v>
+      </c>
+      <c r="I134" s="379"/>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" s="386" t="s">
+        <v>61</v>
+      </c>
+      <c r="B135" s="112">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="C135" s="379" t="s">
+        <v>62</v>
+      </c>
+      <c r="D135" s="381" t="s">
+        <v>60</v>
+      </c>
+      <c r="E135" s="381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" s="381"/>
+      <c r="G135" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H135" s="379" t="s">
+        <v>120</v>
+      </c>
+      <c r="I135" s="379"/>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="386" t="s">
+        <v>63</v>
+      </c>
+      <c r="B136" s="115">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C136" s="379" t="s">
+        <v>64</v>
+      </c>
+      <c r="D136" s="381" t="s">
+        <v>60</v>
+      </c>
+      <c r="E136" s="381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="381"/>
+      <c r="G136" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H136" s="379" t="s">
+        <v>120</v>
+      </c>
+      <c r="I136" s="379"/>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="386" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" s="112">
+        <v>-3.16E-3</v>
+      </c>
+      <c r="C137" s="379" t="s">
+        <v>134</v>
+      </c>
+      <c r="D137" s="381" t="s">
+        <v>60</v>
+      </c>
+      <c r="E137" s="381" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" s="381"/>
+      <c r="G137" s="379" t="s">
+        <v>18</v>
+      </c>
+      <c r="H137" s="379" t="s">
+        <v>120</v>
+      </c>
+      <c r="I137" s="379"/>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="B138" s="460"/>
+    </row>
+    <row r="139" spans="1:9" ht="15.75">
+      <c r="A139" s="391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="527" t="s">
+        <v>118</v>
+      </c>
+      <c r="C139" s="393"/>
+      <c r="D139" s="394"/>
+      <c r="E139" s="393"/>
+      <c r="F139" s="395"/>
+      <c r="G139" s="393"/>
+      <c r="H139" s="393"/>
+      <c r="I139" s="393"/>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="396" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="122">
+        <v>1</v>
+      </c>
+      <c r="C140" s="393"/>
+      <c r="D140" s="393"/>
+      <c r="E140" s="393"/>
+      <c r="F140" s="395"/>
+      <c r="G140" s="393"/>
+      <c r="H140" s="393"/>
+      <c r="I140" s="393"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="396" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="528" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141" s="393"/>
+      <c r="D141" s="393"/>
+      <c r="E141" s="393"/>
+      <c r="F141" s="395"/>
+      <c r="G141" s="393"/>
+      <c r="H141" s="393"/>
+      <c r="I141" s="393"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="396" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" s="122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="393"/>
+      <c r="D142" s="393"/>
+      <c r="E142" s="393"/>
+      <c r="F142" s="395"/>
+      <c r="G142" s="393"/>
+      <c r="H142" s="393"/>
+      <c r="I142" s="393"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="396" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" s="393"/>
+      <c r="D143" s="393"/>
+      <c r="E143" s="393"/>
+      <c r="F143" s="395"/>
+      <c r="G143" s="393"/>
+      <c r="H143" s="393"/>
+      <c r="I143" s="393"/>
+    </row>
+    <row r="144" spans="1:9" ht="15.75">
+      <c r="A144" s="401" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" s="527"/>
+      <c r="C144" s="401"/>
+      <c r="D144" s="401"/>
+      <c r="E144" s="401"/>
+      <c r="F144" s="395"/>
+      <c r="G144" s="401"/>
+      <c r="H144" s="401"/>
+      <c r="I144" s="401"/>
+    </row>
+    <row r="145" spans="1:9" ht="15.75">
+      <c r="A145" s="401" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="527" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="401" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" s="401" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="402" t="s">
+        <v>13</v>
+      </c>
+      <c r="G145" s="401" t="s">
+        <v>14</v>
+      </c>
+      <c r="H145" s="401" t="s">
+        <v>15</v>
+      </c>
+      <c r="I145" s="401" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="400" t="str">
+        <f>B139</f>
+        <v>H400 REC</v>
+      </c>
+      <c r="B146" s="128">
+        <f>B140</f>
+        <v>1</v>
+      </c>
+      <c r="C146" s="400" t="str">
+        <f>B141</f>
+        <v>H4R</v>
+      </c>
+      <c r="D146" s="400" t="str">
+        <f>B142</f>
+        <v>GLO</v>
+      </c>
+      <c r="E146" s="400" t="str">
+        <f>B143</f>
+        <v>unit</v>
+      </c>
+      <c r="F146" s="395"/>
+      <c r="G146" s="393" t="s">
+        <v>16</v>
+      </c>
+      <c r="H146" s="400" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I146" s="400"/>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="400" t="str">
+        <f>A221</f>
+        <v>H400</v>
+      </c>
+      <c r="B147" s="128">
+        <v>1</v>
+      </c>
+      <c r="C147" s="400" t="str">
+        <f>C221</f>
+        <v>H400</v>
+      </c>
+      <c r="D147" s="400" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="400" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147" s="395"/>
+      <c r="G147" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H147" s="400" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I147" s="400"/>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" s="400" t="str">
+        <f>A267</f>
+        <v>autoclave</v>
+      </c>
+      <c r="B148" s="128">
+        <f>B112</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C148" s="400" t="str">
+        <f>C267</f>
+        <v>autoclave cycle</v>
+      </c>
+      <c r="D148" s="400" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="400" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148" s="395"/>
+      <c r="G148" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H148" s="400" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I148" s="403" t="str">
+        <f>ev391apos!I148</f>
+        <v>The autoclave can handle 7 boxes</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" s="400" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" s="128">
+        <v>-3.0300000000000001E-2</v>
+      </c>
+      <c r="C149" s="393" t="s">
+        <v>54</v>
+      </c>
+      <c r="D149" s="395" t="s">
+        <v>33</v>
+      </c>
+      <c r="E149" s="395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F149" s="395"/>
+      <c r="G149" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H149" s="393" t="s">
+        <v>120</v>
+      </c>
+      <c r="I149" s="393"/>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" s="400" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="128">
+        <v>-3.29E-3</v>
+      </c>
+      <c r="C150" s="393" t="s">
+        <v>49</v>
+      </c>
+      <c r="D150" s="395" t="s">
+        <v>33</v>
+      </c>
+      <c r="E150" s="395" t="str">
+        <f>[1]ev391cutoff!E129</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F150" s="395"/>
+      <c r="G150" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H150" s="393" t="s">
+        <v>120</v>
+      </c>
+      <c r="I150" s="393"/>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" s="400" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="128">
+        <v>-6.3123074533750004E-2</v>
+      </c>
+      <c r="C151" s="393" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151" s="395" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151" s="395" t="s">
+        <v>40</v>
+      </c>
+      <c r="F151" s="395"/>
+      <c r="G151" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H151" s="393" t="s">
+        <v>120</v>
+      </c>
+      <c r="I151" s="393"/>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" s="400" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152" s="128">
+        <v>-1.1362153416075</v>
+      </c>
+      <c r="C152" s="393" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" s="395" t="s">
+        <v>39</v>
+      </c>
+      <c r="E152" s="395" t="s">
+        <v>42</v>
+      </c>
+      <c r="F152" s="395"/>
+      <c r="G152" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H152" s="400" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I152" s="400"/>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" s="400" t="s">
+        <v>56</v>
+      </c>
+      <c r="B153" s="128">
+        <v>-0.17</v>
+      </c>
+      <c r="C153" s="393" t="s">
+        <v>57</v>
+      </c>
+      <c r="D153" s="395" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" s="395"/>
+      <c r="G153" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H153" s="393" t="s">
+        <v>120</v>
+      </c>
+      <c r="I153" s="393"/>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" s="400" t="s">
+        <v>58</v>
+      </c>
+      <c r="B154" s="128">
+        <v>-1.8599999999999998E-2</v>
+      </c>
+      <c r="C154" s="393" t="s">
+        <v>59</v>
+      </c>
+      <c r="D154" s="395" t="s">
+        <v>60</v>
+      </c>
+      <c r="E154" s="395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F154" s="395"/>
+      <c r="G154" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H154" s="393" t="s">
+        <v>120</v>
+      </c>
+      <c r="I154" s="393"/>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" s="400" t="s">
+        <v>61</v>
+      </c>
+      <c r="B155" s="128">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="C155" s="393" t="s">
+        <v>62</v>
+      </c>
+      <c r="D155" s="395" t="s">
+        <v>60</v>
+      </c>
+      <c r="E155" s="395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F155" s="395"/>
+      <c r="G155" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H155" s="393" t="s">
+        <v>120</v>
+      </c>
+      <c r="I155" s="393"/>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" s="400" t="s">
+        <v>63</v>
+      </c>
+      <c r="B156" s="128">
+        <v>0.2</v>
+      </c>
+      <c r="C156" s="393" t="s">
+        <v>64</v>
+      </c>
+      <c r="D156" s="395" t="s">
+        <v>60</v>
+      </c>
+      <c r="E156" s="395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F156" s="395"/>
+      <c r="G156" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H156" s="393" t="s">
+        <v>120</v>
+      </c>
+      <c r="I156" s="393"/>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" s="400" t="s">
+        <v>34</v>
+      </c>
+      <c r="B157" s="128">
+        <v>-8.9899999999999997E-3</v>
+      </c>
+      <c r="C157" s="393" t="s">
+        <v>134</v>
+      </c>
+      <c r="D157" s="395" t="s">
+        <v>60</v>
+      </c>
+      <c r="E157" s="395" t="s">
+        <v>27</v>
+      </c>
+      <c r="F157" s="395"/>
+      <c r="G157" s="393" t="s">
+        <v>18</v>
+      </c>
+      <c r="H157" s="393" t="s">
+        <v>120</v>
+      </c>
+      <c r="I157" s="393"/>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="B158" s="460"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.75">
+      <c r="A159" s="404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="530" t="s">
+        <v>45</v>
+      </c>
+      <c r="C159" s="406"/>
+      <c r="D159" s="407"/>
+      <c r="E159" s="406"/>
+      <c r="F159" s="406"/>
+      <c r="G159" s="406"/>
+      <c r="H159" s="406"/>
+      <c r="I159" s="406"/>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" s="408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" s="534">
+        <v>1</v>
+      </c>
+      <c r="C160" s="406"/>
+      <c r="D160" s="406"/>
+      <c r="E160" s="406"/>
+      <c r="F160" s="406"/>
+      <c r="G160" s="406"/>
+      <c r="H160" s="406"/>
+      <c r="I160" s="406"/>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" s="408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" s="535" t="s">
+        <v>44</v>
+      </c>
+      <c r="C161" s="406"/>
+      <c r="D161" s="406"/>
+      <c r="E161" s="406"/>
+      <c r="F161" s="406"/>
+      <c r="G161" s="406"/>
+      <c r="H161" s="406"/>
+      <c r="I161" s="406"/>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" s="408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="406"/>
+      <c r="D162" s="406"/>
+      <c r="E162" s="406"/>
+      <c r="F162" s="406"/>
+      <c r="G162" s="406"/>
+      <c r="H162" s="406"/>
+      <c r="I162" s="406"/>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" s="408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B163" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C163" s="406"/>
+      <c r="D163" s="406"/>
+      <c r="E163" s="406"/>
+      <c r="F163" s="406"/>
+      <c r="G163" s="406"/>
+      <c r="H163" s="406"/>
+      <c r="I163" s="406"/>
+    </row>
+    <row r="164" spans="1:9" ht="15.75">
+      <c r="A164" s="413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="530"/>
+      <c r="C164" s="413"/>
+      <c r="D164" s="413"/>
+      <c r="E164" s="413"/>
+      <c r="F164" s="413"/>
+      <c r="G164" s="413"/>
+      <c r="H164" s="413"/>
+      <c r="I164" s="413"/>
+    </row>
+    <row r="165" spans="1:9" ht="15.75">
+      <c r="A165" s="413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E165" s="413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H165" s="413" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="413" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" s="412" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="134">
+        <f>B160</f>
+        <v>1</v>
+      </c>
+      <c r="C166" s="412" t="s">
+        <v>44</v>
+      </c>
+      <c r="D166" s="412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="412"/>
+      <c r="G166" s="412" t="s">
+        <v>16</v>
+      </c>
+      <c r="H166" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I166" s="412"/>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" s="415" t="s">
+        <v>144</v>
+      </c>
+      <c r="B167" s="134">
+        <f>2.3205-B176</f>
+        <v>2.2755000000000001</v>
+      </c>
+      <c r="C167" s="415" t="s">
+        <v>130</v>
+      </c>
+      <c r="D167" s="415" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="415" t="s">
+        <v>27</v>
+      </c>
+      <c r="F167" s="415"/>
+      <c r="G167" s="415" t="s">
+        <v>18</v>
+      </c>
+      <c r="H167" s="415" t="s">
+        <v>120</v>
+      </c>
+      <c r="I167" s="415"/>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" s="406" t="s">
+        <v>77</v>
+      </c>
+      <c r="B168" s="134">
+        <f>2*((297*279)+(297*131)+(279*131))*10^-6</f>
+        <v>0.31663799999999998</v>
+      </c>
+      <c r="C168" s="406" t="s">
+        <v>77</v>
+      </c>
+      <c r="D168" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E168" s="406" t="s">
+        <v>78</v>
+      </c>
+      <c r="F168" s="406"/>
+      <c r="G168" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H168" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I168" s="406"/>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" s="406" t="s">
+        <v>79</v>
+      </c>
+      <c r="B169" s="134">
+        <f>B167</f>
+        <v>2.2755000000000001</v>
+      </c>
+      <c r="C169" s="406" t="s">
+        <v>79</v>
+      </c>
+      <c r="D169" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E169" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F169" s="406"/>
+      <c r="G169" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H169" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I169" s="406"/>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" s="406" t="s">
+        <v>80</v>
+      </c>
+      <c r="B170" s="535">
+        <f>B167</f>
+        <v>2.2755000000000001</v>
+      </c>
+      <c r="C170" s="406" t="s">
+        <v>80</v>
+      </c>
+      <c r="D170" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E170" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F170" s="406"/>
+      <c r="G170" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H170" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I170" s="406"/>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="412" t="str">
+        <f>A296</f>
+        <v xml:space="preserve">assembly of aluminium container </v>
+      </c>
+      <c r="B171" s="535">
+        <f>B167</f>
+        <v>2.2755000000000001</v>
+      </c>
+      <c r="C171" s="412" t="str">
+        <f>C296</f>
+        <v>assembly process</v>
+      </c>
+      <c r="D171" s="412" t="str">
+        <f t="shared" ref="D171:E171" si="3">D296</f>
+        <v>RER</v>
+      </c>
+      <c r="E171" s="412" t="str">
+        <f t="shared" si="3"/>
+        <v>kilogram</v>
+      </c>
+      <c r="F171" s="412"/>
+      <c r="G171" s="412" t="s">
+        <v>18</v>
+      </c>
+      <c r="H171" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I171" s="412"/>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="406" t="s">
+        <v>81</v>
+      </c>
+      <c r="B172" s="540">
+        <f>0.000158*513</f>
+        <v>8.1054000000000001E-2</v>
+      </c>
+      <c r="C172" s="406" t="s">
+        <v>82</v>
+      </c>
+      <c r="D172" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F172" s="406"/>
+      <c r="G172" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H172" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I172" s="406"/>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" s="540">
+        <f>0.00513*513</f>
+        <v>2.6316899999999999</v>
+      </c>
+      <c r="C173" s="406" t="s">
+        <v>84</v>
+      </c>
+      <c r="D173" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E173" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F173" s="406"/>
+      <c r="G173" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H173" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I173" s="406"/>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" s="406" t="s">
+        <v>86</v>
+      </c>
+      <c r="B174" s="540">
+        <f>0.000113*513</f>
+        <v>5.7969E-2</v>
+      </c>
+      <c r="C174" s="406" t="s">
+        <v>87</v>
+      </c>
+      <c r="D174" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F174" s="406"/>
+      <c r="G174" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H174" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I174" s="406"/>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" s="406" t="s">
+        <v>88</v>
+      </c>
+      <c r="B175" s="540">
+        <f>0.000591*513</f>
+        <v>0.30318300000000004</v>
+      </c>
+      <c r="C175" s="406" t="s">
+        <v>89</v>
+      </c>
+      <c r="D175" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F175" s="406"/>
+      <c r="G175" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H175" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I175" s="406"/>
+    </row>
+    <row r="176" spans="1:9">
+      <c r="A176" s="416" t="str">
+        <f>ev391apos!A176</f>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="B176" s="540">
+        <f>45/1000</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C176" s="416" t="str">
+        <f>ev391apos!C176</f>
+        <v>steel, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="D176" s="416" t="str">
+        <f>ev391apos!D176</f>
+        <v>RER</v>
+      </c>
+      <c r="E176" s="416" t="str">
+        <f>ev391apos!E176</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F176" s="416"/>
+      <c r="G176" s="416" t="str">
+        <f>ev391apos!G176</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H176" s="416" t="s">
+        <v>120</v>
+      </c>
+      <c r="I176" s="416"/>
+    </row>
+    <row r="177" spans="1:9">
+      <c r="B177" s="460"/>
+    </row>
+    <row r="178" spans="1:9" ht="15.75">
+      <c r="A178" s="404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B178" s="530" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" s="406"/>
+      <c r="D178" s="407"/>
+      <c r="E178" s="406"/>
+      <c r="F178" s="406"/>
+      <c r="G178" s="406"/>
+      <c r="H178" s="406"/>
+      <c r="I178" s="406"/>
+    </row>
+    <row r="179" spans="1:9">
+      <c r="A179" s="408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="534">
+        <v>1</v>
+      </c>
+      <c r="C179" s="406"/>
+      <c r="D179" s="406"/>
+      <c r="E179" s="406"/>
+      <c r="F179" s="406"/>
+      <c r="G179" s="406"/>
+      <c r="H179" s="406"/>
+      <c r="I179" s="406"/>
+    </row>
+    <row r="180" spans="1:9">
+      <c r="A180" s="408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" s="535" t="s">
+        <v>20</v>
+      </c>
+      <c r="C180" s="406"/>
+      <c r="D180" s="406"/>
+      <c r="E180" s="406"/>
+      <c r="F180" s="406"/>
+      <c r="G180" s="406"/>
+      <c r="H180" s="406"/>
+      <c r="I180" s="406"/>
+    </row>
+    <row r="181" spans="1:9">
+      <c r="A181" s="408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" s="534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181" s="406"/>
+      <c r="D181" s="406"/>
+      <c r="E181" s="406"/>
+      <c r="F181" s="406"/>
+      <c r="G181" s="406"/>
+      <c r="H181" s="406"/>
+      <c r="I181" s="406"/>
+    </row>
+    <row r="182" spans="1:9">
+      <c r="A182" s="408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B182" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182" s="406"/>
+      <c r="D182" s="406"/>
+      <c r="E182" s="406"/>
+      <c r="F182" s="406"/>
+      <c r="G182" s="406"/>
+      <c r="H182" s="406"/>
+      <c r="I182" s="406"/>
+    </row>
+    <row r="183" spans="1:9" ht="15.75">
+      <c r="A183" s="413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="530"/>
+      <c r="C183" s="413"/>
+      <c r="D183" s="413"/>
+      <c r="E183" s="413"/>
+      <c r="F183" s="413"/>
+      <c r="G183" s="413"/>
+      <c r="H183" s="413"/>
+      <c r="I183" s="413"/>
+    </row>
+    <row r="184" spans="1:9" ht="15.75">
+      <c r="A184" s="413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C184" s="413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D184" s="413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" s="413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F184" s="413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G184" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H184" s="413" t="s">
+        <v>15</v>
+      </c>
+      <c r="I184" s="413" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
+      <c r="A185" s="412" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" s="134">
+        <f>B179</f>
+        <v>1</v>
+      </c>
+      <c r="C185" s="412" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F185" s="412"/>
+      <c r="G185" s="412" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I185" s="412"/>
+    </row>
+    <row r="186" spans="1:9">
+      <c r="A186" s="412" t="s">
+        <v>144</v>
+      </c>
+      <c r="B186" s="134">
+        <f>3.8835-B195</f>
+        <v>3.8385000000000002</v>
+      </c>
+      <c r="C186" s="412" t="s">
+        <v>130</v>
+      </c>
+      <c r="D186" s="412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="412" t="s">
+        <v>27</v>
+      </c>
+      <c r="F186" s="412"/>
+      <c r="G186" s="412" t="s">
+        <v>18</v>
+      </c>
+      <c r="H186" s="412" t="s">
+        <v>120</v>
+      </c>
+      <c r="I186" s="412"/>
+    </row>
+    <row r="187" spans="1:9">
+      <c r="A187" s="406" t="s">
+        <v>77</v>
+      </c>
+      <c r="B187" s="134">
+        <f>2*((587*279)+(587*131)+(279*131))*10^-6</f>
+        <v>0.55443799999999999</v>
+      </c>
+      <c r="C187" s="406" t="s">
+        <v>77</v>
+      </c>
+      <c r="D187" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="406" t="s">
+        <v>78</v>
+      </c>
+      <c r="F187" s="406"/>
+      <c r="G187" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H187" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I187" s="406"/>
+    </row>
+    <row r="188" spans="1:9">
+      <c r="A188" s="406" t="s">
+        <v>79</v>
+      </c>
+      <c r="B188" s="134">
+        <f>B186</f>
+        <v>3.8385000000000002</v>
+      </c>
+      <c r="C188" s="406" t="s">
+        <v>79</v>
+      </c>
+      <c r="D188" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F188" s="406"/>
+      <c r="G188" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H188" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I188" s="406"/>
+    </row>
+    <row r="189" spans="1:9">
+      <c r="A189" s="406" t="s">
+        <v>80</v>
+      </c>
+      <c r="B189" s="535">
+        <f>B186</f>
+        <v>3.8385000000000002</v>
+      </c>
+      <c r="C189" s="406" t="s">
+        <v>80</v>
+      </c>
+      <c r="D189" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E189" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F189" s="406"/>
+      <c r="G189" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H189" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I189" s="406"/>
+    </row>
+    <row r="190" spans="1:9">
+      <c r="A190" s="412" t="str">
+        <f>A296</f>
+        <v xml:space="preserve">assembly of aluminium container </v>
+      </c>
+      <c r="B190" s="535">
+        <f>B186</f>
+        <v>3.8385000000000002</v>
+      </c>
+      <c r="C190" s="412" t="str">
+        <f>C296</f>
+        <v>assembly process</v>
+      </c>
+      <c r="D190" s="412" t="str">
+        <f t="shared" ref="D190:E190" si="4">D296</f>
+        <v>RER</v>
+      </c>
+      <c r="E190" s="412" t="str">
+        <f t="shared" si="4"/>
+        <v>kilogram</v>
+      </c>
+      <c r="F190" s="412"/>
+      <c r="G190" s="412" t="s">
+        <v>18</v>
+      </c>
+      <c r="H190" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I190" s="412"/>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="406" t="s">
+        <v>81</v>
+      </c>
+      <c r="B191" s="540">
+        <f>0.000316*513</f>
+        <v>0.162108</v>
+      </c>
+      <c r="C191" s="406" t="s">
+        <v>82</v>
+      </c>
+      <c r="D191" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F191" s="406"/>
+      <c r="G191" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H191" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I191" s="406"/>
+    </row>
+    <row r="192" spans="1:9">
+      <c r="A192" s="406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B192" s="540">
+        <f>0.00859*513</f>
+        <v>4.4066700000000001</v>
+      </c>
+      <c r="C192" s="406" t="s">
+        <v>84</v>
+      </c>
+      <c r="D192" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E192" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F192" s="406"/>
+      <c r="G192" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H192" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I192" s="406"/>
+    </row>
+    <row r="193" spans="1:9">
+      <c r="A193" s="406" t="s">
+        <v>86</v>
+      </c>
+      <c r="B193" s="540">
+        <f>0.00019*513</f>
+        <v>9.7470000000000001E-2</v>
+      </c>
+      <c r="C193" s="406" t="s">
+        <v>87</v>
+      </c>
+      <c r="D193" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F193" s="406"/>
+      <c r="G193" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H193" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I193" s="406"/>
+    </row>
+    <row r="194" spans="1:9">
+      <c r="A194" s="406" t="s">
+        <v>88</v>
+      </c>
+      <c r="B194" s="540">
+        <f>0.000989*513</f>
+        <v>0.50735700000000006</v>
+      </c>
+      <c r="C194" s="406" t="s">
+        <v>89</v>
+      </c>
+      <c r="D194" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E194" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F194" s="406"/>
+      <c r="G194" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H194" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I194" s="406"/>
+    </row>
+    <row r="195" spans="1:9">
+      <c r="A195" s="416" t="str">
+        <f>ev391apos!A195</f>
+        <v>steel production, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="B195" s="540">
+        <f>45/1000</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C195" s="416" t="str">
+        <f>ev391apos!C195</f>
+        <v>steel, chromium steel 18/8, hot rolled</v>
+      </c>
+      <c r="D195" s="416" t="str">
+        <f>ev391apos!D195</f>
+        <v>RER</v>
+      </c>
+      <c r="E195" s="416" t="str">
+        <f>ev391apos!E195</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F195" s="416"/>
+      <c r="G195" s="416" t="str">
+        <f>ev391apos!G195</f>
+        <v>technosphere</v>
+      </c>
+      <c r="H195" s="416" t="str">
+        <f>ev391apos!H195</f>
+        <v>ev391apos</v>
+      </c>
+      <c r="I195" s="416"/>
+    </row>
+    <row r="196" spans="1:9">
+      <c r="B196" s="460"/>
+    </row>
+    <row r="197" spans="1:9" ht="15.75">
+      <c r="A197" s="404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B197" s="530" t="s">
+        <v>52</v>
+      </c>
+      <c r="C197" s="406"/>
+      <c r="D197" s="407"/>
+      <c r="E197" s="406"/>
+      <c r="F197" s="406"/>
+      <c r="G197" s="406"/>
+      <c r="H197" s="406"/>
+      <c r="I197" s="406"/>
+    </row>
+    <row r="198" spans="1:9">
+      <c r="A198" s="408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="534">
+        <v>1</v>
+      </c>
+      <c r="C198" s="406"/>
+      <c r="D198" s="406"/>
+      <c r="E198" s="406"/>
+      <c r="F198" s="406"/>
+      <c r="G198" s="406"/>
+      <c r="H198" s="406"/>
+      <c r="I198" s="406"/>
+    </row>
+    <row r="199" spans="1:9">
+      <c r="A199" s="408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" s="535" t="s">
+        <v>52</v>
+      </c>
+      <c r="C199" s="406"/>
+      <c r="D199" s="406"/>
+      <c r="E199" s="406"/>
+      <c r="F199" s="406"/>
+      <c r="G199" s="406"/>
+      <c r="H199" s="406"/>
+      <c r="I199" s="406"/>
+    </row>
+    <row r="200" spans="1:9">
+      <c r="A200" s="408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B200" s="534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="406"/>
+      <c r="D200" s="406"/>
+      <c r="E200" s="406"/>
+      <c r="F200" s="406"/>
+      <c r="G200" s="406"/>
+      <c r="H200" s="406"/>
+      <c r="I200" s="406"/>
+    </row>
+    <row r="201" spans="1:9">
+      <c r="A201" s="408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B201" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C201" s="406"/>
+      <c r="D201" s="406"/>
+      <c r="E201" s="406"/>
+      <c r="F201" s="406"/>
+      <c r="G201" s="406"/>
+      <c r="H201" s="406"/>
+      <c r="I201" s="406"/>
+    </row>
+    <row r="202" spans="1:9" ht="15.75">
+      <c r="A202" s="413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="530"/>
+      <c r="C202" s="413"/>
+      <c r="D202" s="413"/>
+      <c r="E202" s="413"/>
+      <c r="F202" s="413"/>
+      <c r="G202" s="413"/>
+      <c r="H202" s="413"/>
+      <c r="I202" s="413"/>
+    </row>
+    <row r="203" spans="1:9" ht="15.75">
+      <c r="A203" s="413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" s="530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" s="413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D203" s="413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E203" s="413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F203" s="413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G203" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H203" s="413" t="s">
+        <v>15</v>
+      </c>
+      <c r="I203" s="413" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
+      <c r="A204" s="412" t="s">
+        <v>52</v>
+      </c>
+      <c r="B204" s="134">
+        <f>B198</f>
+        <v>1</v>
+      </c>
+      <c r="C204" s="412" t="s">
+        <v>52</v>
+      </c>
+      <c r="D204" s="412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F204" s="412"/>
+      <c r="G204" s="412" t="s">
+        <v>16</v>
+      </c>
+      <c r="H204" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I204" s="412"/>
+    </row>
+    <row r="205" spans="1:9">
+      <c r="A205" s="406" t="s">
+        <v>90</v>
+      </c>
+      <c r="B205" s="134">
+        <v>6.3E-2</v>
+      </c>
+      <c r="C205" s="406" t="s">
+        <v>91</v>
+      </c>
+      <c r="D205" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F205" s="406"/>
+      <c r="G205" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H205" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I205" s="406"/>
+    </row>
+    <row r="206" spans="1:9">
+      <c r="A206" s="406" t="s">
+        <v>90</v>
+      </c>
+      <c r="B206" s="133">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C206" s="406" t="s">
+        <v>91</v>
+      </c>
+      <c r="D206" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F206" s="406"/>
+      <c r="G206" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H206" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I206" s="406"/>
+    </row>
+    <row r="207" spans="1:9">
+      <c r="A207" s="406" t="s">
+        <v>92</v>
+      </c>
+      <c r="B207" s="538">
+        <v>7.2700000000000004E-3</v>
+      </c>
+      <c r="C207" s="406" t="s">
+        <v>93</v>
+      </c>
+      <c r="D207" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E207" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F207" s="406"/>
+      <c r="G207" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H207" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I207" s="406"/>
+    </row>
+    <row r="208" spans="1:9">
+      <c r="A208" s="406" t="s">
+        <v>88</v>
+      </c>
+      <c r="B208" s="542">
+        <v>2.8E-3</v>
+      </c>
+      <c r="C208" s="406" t="s">
+        <v>89</v>
+      </c>
+      <c r="D208" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E208" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F208" s="406"/>
+      <c r="G208" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H208" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I208" s="406"/>
+    </row>
+    <row r="209" spans="1:9">
+      <c r="A209" s="406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B209" s="542">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C209" s="406" t="s">
+        <v>84</v>
+      </c>
+      <c r="D209" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E209" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F209" s="406"/>
+      <c r="G209" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H209" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I209" s="406"/>
+    </row>
+    <row r="210" spans="1:9">
+      <c r="A210" s="406" t="s">
+        <v>94</v>
+      </c>
+      <c r="B210" s="542">
+        <v>1.8100000000000001E-4</v>
+      </c>
+      <c r="C210" s="406" t="s">
+        <v>95</v>
+      </c>
+      <c r="D210" s="406" t="s">
+        <v>96</v>
+      </c>
+      <c r="E210" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F210" s="406"/>
+      <c r="G210" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H210" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I210" s="406"/>
+    </row>
+    <row r="211" spans="1:9">
+      <c r="A211" s="406" t="s">
+        <v>86</v>
+      </c>
+      <c r="B211" s="542">
+        <v>3.3300000000000001E-3</v>
+      </c>
+      <c r="C211" s="406" t="s">
+        <v>87</v>
+      </c>
+      <c r="D211" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F211" s="406"/>
+      <c r="G211" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H211" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I211" s="406"/>
+    </row>
+    <row r="212" spans="1:9">
+      <c r="A212" s="406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B212" s="542">
+        <v>4.1300000000000001E-5</v>
+      </c>
+      <c r="C212" s="406" t="s">
+        <v>84</v>
+      </c>
+      <c r="D212" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E212" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F212" s="406"/>
+      <c r="G212" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H212" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I212" s="406"/>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="B213" s="460"/>
+    </row>
+    <row r="214" spans="1:9" ht="15.75">
+      <c r="A214" s="404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B214" s="530" t="s">
+        <v>65</v>
+      </c>
+      <c r="C214" s="406"/>
+      <c r="D214" s="407"/>
+      <c r="E214" s="406"/>
+      <c r="F214" s="406"/>
+      <c r="G214" s="406"/>
+      <c r="H214" s="406"/>
+      <c r="I214" s="406"/>
+    </row>
+    <row r="215" spans="1:9">
+      <c r="A215" s="408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" s="534">
+        <v>1</v>
+      </c>
+      <c r="C215" s="406"/>
+      <c r="D215" s="406"/>
+      <c r="E215" s="406"/>
+      <c r="F215" s="406"/>
+      <c r="G215" s="406"/>
+      <c r="H215" s="406"/>
+      <c r="I215" s="406"/>
+    </row>
+    <row r="216" spans="1:9">
+      <c r="A216" s="408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" s="535" t="s">
+        <v>65</v>
+      </c>
+      <c r="C216" s="406"/>
+      <c r="D216" s="406"/>
+      <c r="E216" s="406"/>
+      <c r="F216" s="406"/>
+      <c r="G216" s="406"/>
+      <c r="H216" s="406"/>
+      <c r="I216" s="406"/>
+    </row>
+    <row r="217" spans="1:9">
+      <c r="A217" s="408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217" s="406"/>
+      <c r="D217" s="406"/>
+      <c r="E217" s="406"/>
+      <c r="F217" s="406"/>
+      <c r="G217" s="406"/>
+      <c r="H217" s="406"/>
+      <c r="I217" s="406"/>
+    </row>
+    <row r="218" spans="1:9">
+      <c r="A218" s="408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B218" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C218" s="406"/>
+      <c r="D218" s="406"/>
+      <c r="E218" s="406"/>
+      <c r="F218" s="406"/>
+      <c r="G218" s="406"/>
+      <c r="H218" s="406"/>
+      <c r="I218" s="406"/>
+    </row>
+    <row r="219" spans="1:9" ht="15.75">
+      <c r="A219" s="413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="530"/>
+      <c r="C219" s="413"/>
+      <c r="D219" s="413"/>
+      <c r="E219" s="413"/>
+      <c r="F219" s="413"/>
+      <c r="G219" s="413"/>
+      <c r="H219" s="413"/>
+      <c r="I219" s="413"/>
+    </row>
+    <row r="220" spans="1:9" ht="15.75">
+      <c r="A220" s="413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B220" s="530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C220" s="413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D220" s="413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" s="413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F220" s="413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" s="413" t="s">
+        <v>15</v>
+      </c>
+      <c r="I220" s="413" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
+      <c r="A221" s="412" t="s">
+        <v>65</v>
+      </c>
+      <c r="B221" s="134">
+        <f>B215</f>
+        <v>1</v>
+      </c>
+      <c r="C221" s="412" t="s">
+        <v>65</v>
+      </c>
+      <c r="D221" s="412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F221" s="412"/>
+      <c r="G221" s="412" t="s">
+        <v>16</v>
+      </c>
+      <c r="H221" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I221" s="412"/>
+    </row>
+    <row r="222" spans="1:9">
+      <c r="A222" s="406" t="s">
+        <v>90</v>
+      </c>
+      <c r="B222" s="134">
+        <v>0.19</v>
+      </c>
+      <c r="C222" s="406" t="s">
+        <v>91</v>
+      </c>
+      <c r="D222" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F222" s="406"/>
+      <c r="G222" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H222" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I222" s="406"/>
+    </row>
+    <row r="223" spans="1:9">
+      <c r="A223" s="406" t="s">
+        <v>90</v>
+      </c>
+      <c r="B223" s="134">
+        <v>1.2E-2</v>
+      </c>
+      <c r="C223" s="406" t="s">
+        <v>91</v>
+      </c>
+      <c r="D223" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F223" s="406"/>
+      <c r="G223" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H223" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I223" s="406"/>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="A224" s="406" t="s">
+        <v>92</v>
+      </c>
+      <c r="B224" s="535">
+        <v>2.1899999999999999E-2</v>
+      </c>
+      <c r="C224" s="406" t="s">
+        <v>93</v>
+      </c>
+      <c r="D224" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E224" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F224" s="406"/>
+      <c r="G224" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H224" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I224" s="406"/>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="A225" s="406" t="s">
+        <v>88</v>
+      </c>
+      <c r="B225" s="540">
+        <v>8.4499999999999992E-3</v>
+      </c>
+      <c r="C225" s="406" t="s">
+        <v>89</v>
+      </c>
+      <c r="D225" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E225" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F225" s="406"/>
+      <c r="G225" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H225" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I225" s="406"/>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="A226" s="406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B226" s="542">
+        <v>7.8399999999999995E-5</v>
+      </c>
+      <c r="C226" s="406" t="s">
+        <v>84</v>
+      </c>
+      <c r="D226" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E226" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F226" s="406"/>
+      <c r="G226" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H226" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I226" s="406"/>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="A227" s="406" t="s">
+        <v>94</v>
+      </c>
+      <c r="B227" s="542">
+        <v>5.4600000000000004E-4</v>
+      </c>
+      <c r="C227" s="406" t="s">
+        <v>95</v>
+      </c>
+      <c r="D227" s="406" t="s">
+        <v>96</v>
+      </c>
+      <c r="E227" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F227" s="406"/>
+      <c r="G227" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H227" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I227" s="406"/>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="A228" s="406" t="s">
+        <v>86</v>
+      </c>
+      <c r="B228" s="540">
+        <v>1.01E-2</v>
+      </c>
+      <c r="C228" s="406" t="s">
+        <v>87</v>
+      </c>
+      <c r="D228" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F228" s="406"/>
+      <c r="G228" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H228" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I228" s="406"/>
+    </row>
+    <row r="229" spans="1:9">
+      <c r="A229" s="406" t="s">
+        <v>83</v>
+      </c>
+      <c r="B229" s="542">
+        <v>1.2400000000000001E-4</v>
+      </c>
+      <c r="C229" s="406" t="s">
+        <v>84</v>
+      </c>
+      <c r="D229" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E229" s="406" t="s">
+        <v>85</v>
+      </c>
+      <c r="F229" s="406"/>
+      <c r="G229" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H229" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I229" s="406"/>
+    </row>
+    <row r="230" spans="1:9">
+      <c r="B230" s="460"/>
+    </row>
+    <row r="231" spans="1:9" ht="15.75">
+      <c r="A231" s="404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B231" s="530" t="s">
+        <v>21</v>
+      </c>
+      <c r="C231" s="406"/>
+      <c r="D231" s="407"/>
+      <c r="E231" s="406"/>
+      <c r="F231" s="406"/>
+      <c r="G231" s="406"/>
+      <c r="H231" s="406"/>
+      <c r="I231" s="406"/>
+    </row>
+    <row r="232" spans="1:9">
+      <c r="A232" s="408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" s="534">
+        <v>1</v>
+      </c>
+      <c r="C232" s="406"/>
+      <c r="D232" s="406"/>
+      <c r="E232" s="406"/>
+      <c r="F232" s="406"/>
+      <c r="G232" s="406"/>
+      <c r="H232" s="406"/>
+      <c r="I232" s="406"/>
+    </row>
+    <row r="233" spans="1:9">
+      <c r="A233" s="408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" s="535" t="s">
+        <v>149</v>
+      </c>
+      <c r="C233" s="406"/>
+      <c r="D233" s="406"/>
+      <c r="E233" s="406"/>
+      <c r="F233" s="406"/>
+      <c r="G233" s="406"/>
+      <c r="H233" s="406"/>
+      <c r="I233" s="406"/>
+    </row>
+    <row r="234" spans="1:9">
+      <c r="A234" s="408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B234" s="534" t="s">
+        <v>39</v>
+      </c>
+      <c r="C234" s="406"/>
+      <c r="D234" s="406"/>
+      <c r="E234" s="406"/>
+      <c r="F234" s="406"/>
+      <c r="G234" s="406"/>
+      <c r="H234" s="406"/>
+      <c r="I234" s="406"/>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="A235" s="408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B235" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C235" s="406"/>
+      <c r="D235" s="406"/>
+      <c r="E235" s="406"/>
+      <c r="F235" s="406"/>
+      <c r="G235" s="406"/>
+      <c r="H235" s="406"/>
+      <c r="I235" s="406"/>
+    </row>
+    <row r="236" spans="1:9" ht="15.75">
+      <c r="A236" s="413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="530"/>
+      <c r="C236" s="413"/>
+      <c r="D236" s="413"/>
+      <c r="E236" s="413"/>
+      <c r="F236" s="413"/>
+      <c r="G236" s="413"/>
+      <c r="H236" s="413"/>
+      <c r="I236" s="413"/>
+    </row>
+    <row r="237" spans="1:9" ht="15.75">
+      <c r="A237" s="413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B237" s="530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D237" s="413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" s="413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G237" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="413" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" s="413" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
+      <c r="A238" s="412" t="s">
+        <v>21</v>
+      </c>
+      <c r="B238" s="134">
+        <f>B232</f>
+        <v>1</v>
+      </c>
+      <c r="C238" s="412" t="s">
+        <v>149</v>
+      </c>
+      <c r="D238" s="412" t="s">
+        <v>39</v>
+      </c>
+      <c r="E238" s="412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F238" s="412"/>
+      <c r="G238" s="412" t="s">
+        <v>16</v>
+      </c>
+      <c r="H238" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I238" s="412"/>
+    </row>
+    <row r="239" spans="1:9">
+      <c r="A239" s="406" t="s">
+        <v>97</v>
+      </c>
+      <c r="B239" s="134">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C239" s="417" t="s">
+        <v>98</v>
+      </c>
+      <c r="D239" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E239" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F239" s="406"/>
+      <c r="G239" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H239" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I239" s="406"/>
+    </row>
+    <row r="240" spans="1:9">
+      <c r="A240" s="418" t="s">
+        <v>69</v>
+      </c>
+      <c r="B240" s="134">
+        <v>15</v>
+      </c>
+      <c r="C240" s="417" t="s">
+        <v>70</v>
+      </c>
+      <c r="D240" s="406" t="s">
+        <v>39</v>
+      </c>
+      <c r="E240" s="406" t="s">
+        <v>40</v>
+      </c>
+      <c r="F240" s="406"/>
+      <c r="G240" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H240" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I240" s="406"/>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241" s="418" t="s">
+        <v>99</v>
+      </c>
+      <c r="B241" s="535">
+        <v>70</v>
+      </c>
+      <c r="C241" s="406" t="s">
+        <v>100</v>
+      </c>
+      <c r="D241" s="418" t="s">
+        <v>60</v>
+      </c>
+      <c r="E241" s="418" t="s">
+        <v>27</v>
+      </c>
+      <c r="F241" s="418"/>
+      <c r="G241" s="418" t="s">
+        <v>18</v>
+      </c>
+      <c r="H241" s="418" t="s">
+        <v>120</v>
+      </c>
+      <c r="I241" s="418"/>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242" s="418" t="s">
+        <v>101</v>
+      </c>
+      <c r="B242" s="540">
+        <v>140</v>
+      </c>
+      <c r="C242" s="406" t="s">
+        <v>102</v>
+      </c>
+      <c r="D242" s="418" t="s">
+        <v>26</v>
+      </c>
+      <c r="E242" s="418" t="s">
+        <v>27</v>
+      </c>
+      <c r="F242" s="418"/>
+      <c r="G242" s="418" t="s">
+        <v>18</v>
+      </c>
+      <c r="H242" s="418" t="s">
+        <v>120</v>
+      </c>
+      <c r="I242" s="418"/>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243" s="418" t="s">
+        <v>103</v>
+      </c>
+      <c r="B243" s="540">
+        <v>-0.21</v>
+      </c>
+      <c r="C243" s="406" t="s">
+        <v>104</v>
+      </c>
+      <c r="D243" s="418" t="s">
+        <v>60</v>
+      </c>
+      <c r="E243" s="418" t="s">
+        <v>105</v>
+      </c>
+      <c r="F243" s="418"/>
+      <c r="G243" s="418" t="s">
+        <v>18</v>
+      </c>
+      <c r="H243" s="418" t="s">
+        <v>120</v>
+      </c>
+      <c r="I243" s="418"/>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="B244" s="460"/>
+    </row>
+    <row r="245" spans="1:12" ht="15.75">
+      <c r="A245" s="404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B245" s="530" t="s">
+        <v>106</v>
+      </c>
+      <c r="C245" s="406"/>
+      <c r="D245" s="407"/>
+      <c r="E245" s="406"/>
+      <c r="F245" s="406"/>
+      <c r="G245" s="406"/>
+      <c r="H245" s="406"/>
+      <c r="I245" s="406"/>
+    </row>
+    <row r="246" spans="1:12">
+      <c r="A246" s="408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" s="534">
+        <v>1</v>
+      </c>
+      <c r="C246" s="406"/>
+      <c r="D246" s="406"/>
+      <c r="E246" s="406"/>
+      <c r="F246" s="406"/>
+      <c r="G246" s="406"/>
+      <c r="H246" s="406"/>
+      <c r="I246" s="406"/>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="A247" s="408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" s="535" t="s">
+        <v>106</v>
+      </c>
+      <c r="C247" s="406"/>
+      <c r="D247" s="406"/>
+      <c r="E247" s="406"/>
+      <c r="F247" s="406"/>
+      <c r="G247" s="406"/>
+      <c r="H247" s="406"/>
+      <c r="I247" s="406"/>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248" s="408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B248" s="534" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248" s="406"/>
+      <c r="D248" s="406"/>
+      <c r="E248" s="406"/>
+      <c r="F248" s="406"/>
+      <c r="G248" s="406"/>
+      <c r="H248" s="406"/>
+      <c r="I248" s="406"/>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="A249" s="408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B249" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C249" s="406"/>
+      <c r="D249" s="406"/>
+      <c r="E249" s="406"/>
+      <c r="F249" s="406"/>
+      <c r="G249" s="406"/>
+      <c r="H249" s="406"/>
+      <c r="I249" s="406"/>
+    </row>
+    <row r="250" spans="1:12" ht="15.75">
+      <c r="A250" s="413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B250" s="530"/>
+      <c r="C250" s="413"/>
+      <c r="D250" s="413"/>
+      <c r="E250" s="413"/>
+      <c r="F250" s="413"/>
+      <c r="G250" s="413"/>
+      <c r="H250" s="413"/>
+      <c r="I250" s="413"/>
+    </row>
+    <row r="251" spans="1:12" ht="15.75">
+      <c r="A251" s="413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B251" s="530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C251" s="413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F251" s="413" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H251" s="413" t="s">
+        <v>15</v>
+      </c>
+      <c r="I251" s="413" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="A252" s="412" t="s">
+        <v>106</v>
+      </c>
+      <c r="B252" s="134">
+        <f>B246</f>
+        <v>1</v>
+      </c>
+      <c r="C252" s="412" t="s">
+        <v>106</v>
+      </c>
+      <c r="D252" s="412" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F252" s="412"/>
+      <c r="G252" s="412" t="s">
+        <v>16</v>
+      </c>
+      <c r="H252" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I252" s="412"/>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="A253" s="406" t="s">
+        <v>107</v>
+      </c>
+      <c r="B253" s="143">
+        <v>1E-3</v>
+      </c>
+      <c r="C253" s="417" t="s">
+        <v>108</v>
+      </c>
+      <c r="D253" s="406" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F253" s="406"/>
+      <c r="G253" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H253" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I253" s="406"/>
+      <c r="K253" s="488"/>
+      <c r="L253" s="489"/>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="A254" s="418" t="s">
+        <v>109</v>
+      </c>
+      <c r="B254" s="143">
+        <f>$B$253/35%*5%</f>
+        <v>1.4285714285714289E-4</v>
+      </c>
+      <c r="C254" s="417" t="s">
+        <v>110</v>
+      </c>
+      <c r="D254" s="406" t="s">
+        <v>26</v>
+      </c>
+      <c r="E254" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F254" s="406"/>
+      <c r="G254" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H254" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I254" s="406"/>
+      <c r="K254" s="488"/>
+      <c r="L254" s="489"/>
+    </row>
+    <row r="255" spans="1:12">
+      <c r="A255" s="418" t="s">
+        <v>111</v>
+      </c>
+      <c r="B255" s="143">
+        <f>$B$253/35%*60%</f>
+        <v>1.7142857142857144E-3</v>
+      </c>
+      <c r="C255" s="406" t="s">
+        <v>112</v>
+      </c>
+      <c r="D255" s="418" t="s">
+        <v>26</v>
+      </c>
+      <c r="E255" s="418" t="s">
+        <v>27</v>
+      </c>
+      <c r="F255" s="418"/>
+      <c r="G255" s="418" t="s">
+        <v>18</v>
+      </c>
+      <c r="H255" s="418" t="s">
+        <v>120</v>
+      </c>
+      <c r="I255" s="418"/>
+      <c r="K255" s="488"/>
+      <c r="L255" s="489"/>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256" s="418" t="s">
+        <v>92</v>
+      </c>
+      <c r="B256" s="542">
+        <f>60/25*10^-3</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="C256" s="406" t="s">
+        <v>93</v>
+      </c>
+      <c r="D256" s="418" t="s">
+        <v>26</v>
+      </c>
+      <c r="E256" s="418" t="s">
+        <v>27</v>
+      </c>
+      <c r="F256" s="418"/>
+      <c r="G256" s="418" t="s">
+        <v>18</v>
+      </c>
+      <c r="H256" s="418" t="s">
+        <v>120</v>
+      </c>
+      <c r="I256" s="418"/>
+      <c r="J256" s="420"/>
+      <c r="K256" s="490"/>
+    </row>
+    <row r="257" spans="1:9">
+      <c r="A257" s="418" t="s">
+        <v>113</v>
+      </c>
+      <c r="B257" s="538">
+        <f>B255</f>
+        <v>1.7142857142857144E-3</v>
+      </c>
+      <c r="C257" s="418"/>
+      <c r="D257" s="418"/>
+      <c r="E257" s="418" t="s">
+        <v>27</v>
+      </c>
+      <c r="F257" s="418" t="s">
+        <v>114</v>
+      </c>
+      <c r="G257" s="418" t="s">
+        <v>67</v>
+      </c>
+      <c r="H257" s="418" t="s">
+        <v>68</v>
+      </c>
+      <c r="I257" s="418"/>
+    </row>
+    <row r="258" spans="1:9">
+      <c r="A258" s="418" t="s">
+        <v>115</v>
+      </c>
+      <c r="B258" s="133">
+        <f>B254</f>
+        <v>1.4285714285714289E-4</v>
+      </c>
+      <c r="C258" s="418"/>
+      <c r="D258" s="418"/>
+      <c r="E258" s="418" t="s">
+        <v>27</v>
+      </c>
+      <c r="F258" s="418" t="s">
+        <v>114</v>
+      </c>
+      <c r="G258" s="418" t="s">
+        <v>67</v>
+      </c>
+      <c r="H258" s="418" t="s">
+        <v>68</v>
+      </c>
+      <c r="I258" s="418"/>
+    </row>
+    <row r="259" spans="1:9">
+      <c r="B259" s="460"/>
+    </row>
+    <row r="260" spans="1:9" ht="15.75">
+      <c r="A260" s="404" t="s">
+        <v>4</v>
+      </c>
+      <c r="B260" s="530" t="s">
+        <v>22</v>
+      </c>
+      <c r="C260" s="406"/>
+      <c r="D260" s="407"/>
+      <c r="E260" s="406"/>
+      <c r="F260" s="491"/>
+      <c r="G260" s="406"/>
+      <c r="H260" s="406"/>
+      <c r="I260" s="406"/>
+    </row>
+    <row r="261" spans="1:9">
+      <c r="A261" s="408" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" s="534">
+        <v>1</v>
+      </c>
+      <c r="C261" s="406"/>
+      <c r="D261" s="406"/>
+      <c r="E261" s="406"/>
+      <c r="F261" s="491"/>
+      <c r="G261" s="406"/>
+      <c r="H261" s="406"/>
+      <c r="I261" s="406"/>
+    </row>
+    <row r="262" spans="1:9">
+      <c r="A262" s="408" t="s">
+        <v>6</v>
+      </c>
+      <c r="B262" s="535" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262" s="406"/>
+      <c r="D262" s="406"/>
+      <c r="E262" s="406"/>
+      <c r="F262" s="491"/>
+      <c r="G262" s="406"/>
+      <c r="H262" s="406"/>
+      <c r="I262" s="406"/>
+    </row>
+    <row r="263" spans="1:9">
+      <c r="A263" s="408" t="s">
+        <v>7</v>
+      </c>
+      <c r="B263" s="534" t="s">
+        <v>39</v>
+      </c>
+      <c r="C263" s="406"/>
+      <c r="D263" s="406"/>
+      <c r="E263" s="406"/>
+      <c r="F263" s="491"/>
+      <c r="G263" s="406"/>
+      <c r="H263" s="406"/>
+      <c r="I263" s="406"/>
+    </row>
+    <row r="264" spans="1:9">
+      <c r="A264" s="408" t="s">
+        <v>9</v>
+      </c>
+      <c r="B264" s="134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C264" s="406"/>
+      <c r="D264" s="406"/>
+      <c r="E264" s="406"/>
+      <c r="F264" s="491"/>
+      <c r="G264" s="406"/>
+      <c r="H264" s="406"/>
+      <c r="I264" s="406"/>
+    </row>
+    <row r="265" spans="1:9" ht="15.75">
+      <c r="A265" s="413" t="s">
+        <v>10</v>
+      </c>
+      <c r="B265" s="530"/>
+      <c r="C265" s="413"/>
+      <c r="D265" s="413"/>
+      <c r="E265" s="413"/>
+      <c r="F265" s="491"/>
+      <c r="G265" s="413"/>
+      <c r="H265" s="413"/>
+      <c r="I265" s="406"/>
+    </row>
+    <row r="266" spans="1:9" ht="15.75">
+      <c r="A266" s="413" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" s="530" t="s">
+        <v>12</v>
+      </c>
+      <c r="C266" s="413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" s="413" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="413" t="s">
+        <v>9</v>
+      </c>
+      <c r="F266" s="421" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" s="413" t="s">
+        <v>14</v>
+      </c>
+      <c r="H266" s="413" t="s">
+        <v>15</v>
+      </c>
+      <c r="I266" s="413" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="15.75">
+      <c r="A267" s="412" t="s">
+        <v>22</v>
+      </c>
+      <c r="B267" s="134">
+        <f>B261</f>
+        <v>1</v>
+      </c>
+      <c r="C267" s="412" t="s">
+        <v>23</v>
+      </c>
+      <c r="D267" s="412" t="s">
+        <v>39</v>
+      </c>
+      <c r="E267" s="412" t="s">
+        <v>9</v>
+      </c>
+      <c r="F267" s="491"/>
+      <c r="G267" s="406" t="s">
+        <v>16</v>
+      </c>
+      <c r="H267" s="412" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I267" s="413"/>
+    </row>
+    <row r="268" spans="1:9">
+      <c r="A268" s="406" t="s">
+        <v>69</v>
+      </c>
+      <c r="B268" s="134">
+        <v>10.9</v>
+      </c>
+      <c r="C268" s="406" t="s">
+        <v>70</v>
+      </c>
+      <c r="D268" s="406" t="s">
+        <v>39</v>
+      </c>
+      <c r="E268" s="406" t="s">
+        <v>40</v>
+      </c>
+      <c r="F268" s="406"/>
+      <c r="G268" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H268" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I268" s="412"/>
+    </row>
+    <row r="269" spans="1:9">
+      <c r="A269" s="406" t="s">
+        <v>99</v>
+      </c>
+      <c r="B269" s="134">
+        <v>280</v>
+      </c>
+      <c r="C269" s="406" t="s">
+        <v>100</v>
+      </c>
+      <c r="D269" s="406" t="s">
+        <v>60</v>
+      </c>
+      <c r="E269" s="406" t="s">
+        <v>27</v>
+      </c>
+      <c r="F269" s="406"/>
+      <c r="G269" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H269" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I269" s="406"/>
+    </row>
+    <row r="270" spans="1:9">
+      <c r="A270" s="406" t="s">
+        <v>103</v>
+      </c>
+      <c r="B270" s="535">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C270" s="406" t="s">
+        <v>104</v>
+      </c>
+      <c r="D270" s="406" t="s">
+        <v>60</v>
+      </c>
+      <c r="E270" s="406" t="s">
+        <v>105</v>
+      </c>
+      <c r="F270" s="406"/>
+      <c r="G270" s="406" t="s">
+        <v>18</v>
+      </c>
+      <c r="H270" s="406" t="s">
+        <v>120</v>
+      </c>
+      <c r="I270" s="406"/>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="B271" s="460"/>
+    </row>
+    <row r="272" spans="1:9" ht="15.75">
+      <c r="A272" s="563" t="s">
+        <v>4</v>
+      </c>
+      <c r="B272" s="563" t="s">
+        <v>41</v>
+      </c>
+      <c r="C272" s="564"/>
+      <c r="D272" s="564"/>
+      <c r="E272" s="564"/>
+      <c r="F272" s="564"/>
+      <c r="G272" s="564"/>
+      <c r="H272" s="564"/>
+      <c r="I272" s="564"/>
+    </row>
+    <row r="273" spans="1:9">
+      <c r="A273" s="564" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" s="564">
+        <v>1</v>
+      </c>
+      <c r="C273" s="564"/>
+      <c r="D273" s="564"/>
+      <c r="E273" s="564"/>
+      <c r="F273" s="564"/>
+      <c r="G273" s="564"/>
+      <c r="H273" s="564"/>
+      <c r="I273" s="564"/>
+    </row>
+    <row r="274" spans="1:9">
+      <c r="A274" s="564" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" s="564" t="s">
+        <v>41</v>
+      </c>
+      <c r="C274" s="564"/>
+      <c r="D274" s="564"/>
+      <c r="E274" s="564"/>
+      <c r="F274" s="564"/>
+      <c r="G274" s="564"/>
+      <c r="H274" s="564"/>
+      <c r="I274" s="564"/>
+    </row>
+    <row r="275" spans="1:9">
+      <c r="A275" s="564" t="s">
+        <v>7</v>
+      </c>
+      <c r="B275" s="564" t="s">
+        <v>39</v>
+      </c>
+      <c r="C275" s="564"/>
+      <c r="D275" s="564"/>
+      <c r="E275" s="564"/>
+      <c r="F275" s="564"/>
+      <c r="G275" s="564"/>
+      <c r="H275" s="564"/>
+      <c r="I275" s="564"/>
+    </row>
+    <row r="276" spans="1:9">
+      <c r="A276" s="564" t="s">
+        <v>9</v>
+      </c>
+      <c r="B276" s="564" t="s">
+        <v>42</v>
+      </c>
+      <c r="C276" s="564"/>
+      <c r="D276" s="564"/>
+      <c r="E276" s="564"/>
+      <c r="F276" s="564"/>
+      <c r="G276" s="564"/>
+      <c r="H276" s="564"/>
+      <c r="I276" s="564"/>
+    </row>
+    <row r="277" spans="1:9" ht="15.75">
+      <c r="A277" s="563" t="s">
+        <v>10</v>
+      </c>
+      <c r="B277" s="563"/>
+      <c r="C277" s="564"/>
+      <c r="D277" s="564"/>
+      <c r="E277" s="564"/>
+      <c r="F277" s="564"/>
+      <c r="G277" s="564"/>
+      <c r="H277" s="564"/>
+      <c r="I277" s="564"/>
+    </row>
+    <row r="278" spans="1:9" ht="15.75">
+      <c r="A278" s="566" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" s="566" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" s="566" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" s="566" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" s="566" t="s">
+        <v>9</v>
+      </c>
+      <c r="F278" s="567" t="s">
+        <v>13</v>
+      </c>
+      <c r="G278" s="566" t="s">
+        <v>14</v>
+      </c>
+      <c r="H278" s="566" t="s">
+        <v>15</v>
+      </c>
+      <c r="I278" s="566" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9">
+      <c r="A279" s="564" t="str">
+        <f>B272</f>
+        <v>mixed heating grid</v>
+      </c>
+      <c r="B279" s="564">
+        <v>1</v>
+      </c>
+      <c r="C279" s="564" t="str">
+        <f>B274</f>
+        <v>mixed heating grid</v>
+      </c>
+      <c r="D279" s="564" t="str">
+        <f>B275</f>
+        <v>DK</v>
+      </c>
+      <c r="E279" s="564" t="str">
+        <f>B276</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F279" s="564"/>
+      <c r="G279" s="564" t="s">
+        <v>16</v>
+      </c>
+      <c r="H279" s="569" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I279" s="569"/>
+    </row>
+    <row r="280" spans="1:9">
+      <c r="A280" s="564" t="str">
+        <f>ev391apos!A280</f>
+        <v>heat and power co-generation, wood chips, 6667 kW, state-of-the-art 2014</v>
+      </c>
+      <c r="B280" s="568">
+        <v>0.487179487179487</v>
+      </c>
+      <c r="C280" s="564" t="str">
+        <f>ev391apos!C280</f>
+        <v>heat, district or industrial, other than natural gas</v>
+      </c>
+      <c r="D280" s="564" t="str">
+        <f>ev391apos!D280</f>
+        <v>CH</v>
+      </c>
+      <c r="E280" s="564" t="str">
+        <f>ev391apos!E280</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F280" s="564"/>
+      <c r="G280" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="H280" s="569" t="str">
+        <f>IF(ev391apos!H280=ev391apos!$B$1,$B$1,"ev391cutoff")</f>
+        <v>ev391cutoff</v>
+      </c>
+      <c r="I280" s="569"/>
+    </row>
+    <row r="281" spans="1:9">
+      <c r="A281" s="564" t="str">
+        <f>ev391apos!A281</f>
+        <v>heat and power co-generation, natural gas, conventional power plant, 100MW electrical</v>
+      </c>
+      <c r="B281" s="568">
+        <v>0.15384615384615399</v>
+      </c>
+      <c r="C281" s="564" t="str">
+        <f>ev391apos!C281</f>
+        <v>heat, district or industrial, natural gas</v>
+      </c>
+      <c r="D281" s="564" t="str">
+        <f>ev391apos!D281</f>
+        <v>DK</v>
+      </c>
+      <c r="E281" s="564" t="str">
+        <f>ev391apos!E281</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F281" s="564"/>
+      <c r="G281" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="H281" s="569" t="str">
+        <f>IF(ev391apos!H281=ev391apos!$B$1,$B$1,"ev391cutoff")</f>
+        <v>ev391cutoff</v>
+      </c>
+      <c r="I281" s="564"/>
+    </row>
+    <row r="282" spans="1:9">
+      <c r="A282" s="564" t="str">
+        <f>ev391apos!A282</f>
+        <v>heat and power co-generation, bio gas, conventional power plant, 100MW electrical</v>
+      </c>
+      <c r="B282" s="568">
+        <v>5.1282051282051301E-2</v>
+      </c>
+      <c r="C282" s="564" t="str">
+        <f>ev391apos!C282</f>
+        <v>heat, district or industrial, bio gas</v>
+      </c>
+      <c r="D282" s="564" t="str">
+        <f>ev391apos!D282</f>
+        <v>DK</v>
+      </c>
+      <c r="E282" s="564" t="str">
+        <f>ev391apos!E282</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F282" s="564"/>
+      <c r="G282" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="H282" s="569" t="str">
+        <f>IF(ev391apos!H282=ev391apos!$B$1,$B$1,"ev391cutoff")</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I282" s="564"/>
+    </row>
+    <row r="283" spans="1:9">
+      <c r="A283" s="564" t="str">
+        <f>ev391apos!A283</f>
+        <v>heat and power co-generation, hard coal</v>
+      </c>
+      <c r="B283" s="568">
+        <v>5.1282051282051301E-2</v>
+      </c>
+      <c r="C283" s="564" t="str">
+        <f>ev391apos!C283</f>
+        <v>heat, district or industrial, other than natural gas</v>
+      </c>
+      <c r="D283" s="564" t="str">
+        <f>ev391apos!D283</f>
+        <v>DK</v>
+      </c>
+      <c r="E283" s="564" t="str">
+        <f>ev391apos!E283</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F283" s="564"/>
+      <c r="G283" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="H283" s="569" t="str">
+        <f>IF(ev391apos!H283=ev391apos!$B$1,$B$1,"ev391cutoff")</f>
+        <v>ev391cutoff</v>
+      </c>
+      <c r="I283" s="564"/>
+    </row>
+    <row r="284" spans="1:9">
+      <c r="A284" s="564" t="str">
+        <f>ev391apos!A284</f>
+        <v>heat production, straw, at furnace 300kW</v>
+      </c>
+      <c r="B284" s="568">
+        <v>0.141025641025641</v>
+      </c>
+      <c r="C284" s="564" t="str">
+        <f>ev391apos!C284</f>
+        <v>heat, district or industrial, other than natural gas</v>
+      </c>
+      <c r="D284" s="564" t="str">
+        <f>ev391apos!D284</f>
+        <v>RER</v>
+      </c>
+      <c r="E284" s="564" t="str">
+        <f>ev391apos!E284</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F284" s="564"/>
+      <c r="G284" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="H284" s="569" t="str">
+        <f>IF(ev391apos!H284=ev391apos!$B$1,$B$1,"ev391cutoff")</f>
+        <v>ev391cutoff</v>
+      </c>
+      <c r="I284" s="564"/>
+    </row>
+    <row r="285" spans="1:9">
+      <c r="A285" s="564" t="str">
+        <f>ev391apos!A285</f>
+        <v>heavy fuel oil, burned in refinery furnace</v>
+      </c>
+      <c r="B285" s="568">
+        <v>1.2820512820512799E-2</v>
+      </c>
+      <c r="C285" s="564" t="str">
+        <f>ev391apos!C285</f>
+        <v>heavy fuel oil, burned in refinery furnace</v>
+      </c>
+      <c r="D285" s="564" t="str">
+        <f>ev391apos!D285</f>
+        <v>CH</v>
+      </c>
+      <c r="E285" s="564" t="str">
+        <f>ev391apos!E285</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F285" s="564"/>
+      <c r="G285" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="H285" s="569" t="str">
+        <f>IF(ev391apos!H285=ev391apos!$B$1,$B$1,"ev391cutoff")</f>
+        <v>ev391cutoff</v>
+      </c>
+      <c r="I285" s="564"/>
+    </row>
+    <row r="286" spans="1:9">
+      <c r="A286" s="564" t="str">
+        <f>ev391apos!A286</f>
+        <v>heat production, at heat pump 30kW, allocation exergy</v>
+      </c>
+      <c r="B286" s="568">
+        <v>6.4102564102564097E-2</v>
+      </c>
+      <c r="C286" s="564" t="str">
+        <f>ev391apos!C286</f>
+        <v>heat, central or small-scale, other than natural gas</v>
+      </c>
+      <c r="D286" s="564" t="str">
+        <f>ev391apos!D286</f>
+        <v>DK</v>
+      </c>
+      <c r="E286" s="564" t="str">
+        <f>ev391apos!E286</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F286" s="564"/>
+      <c r="G286" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="H286" s="569" t="str">
+        <f>IF(ev391apos!H286=ev391apos!$B$1,$B$1,"ev391cutoff")</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I286" s="564"/>
+    </row>
+    <row r="287" spans="1:9">
+      <c r="A287" s="564" t="str">
+        <f>ev391apos!A287</f>
+        <v>heat production, solar</v>
+      </c>
+      <c r="B287" s="568">
+        <v>3.8461538461538498E-2</v>
+      </c>
+      <c r="C287" s="564" t="str">
+        <f>ev391apos!C287</f>
+        <v>heat, solar</v>
+      </c>
+      <c r="D287" s="564" t="str">
+        <f>ev391apos!D287</f>
+        <v>DK</v>
+      </c>
+      <c r="E287" s="564" t="str">
+        <f>ev391apos!E287</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F287" s="564"/>
+      <c r="G287" s="564" t="s">
+        <v>18</v>
+      </c>
+      <c r="H287" s="569" t="str">
+        <f>IF(ev391apos!H287=ev391apos!$B$1,$B$1,"ev391cutoff")</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I287" s="564"/>
+    </row>
+    <row r="288" spans="1:9">
+      <c r="B288" s="460"/>
+    </row>
+    <row r="289" spans="1:9" ht="15.75">
+      <c r="A289" s="422" t="s">
+        <v>4</v>
+      </c>
+      <c r="B289" s="554" t="s">
+        <v>159</v>
+      </c>
+      <c r="C289" s="424"/>
+      <c r="D289" s="425"/>
+      <c r="E289" s="424"/>
+      <c r="F289" s="426"/>
+      <c r="G289" s="424"/>
+      <c r="H289" s="424"/>
+      <c r="I289" s="424"/>
+    </row>
+    <row r="290" spans="1:9">
+      <c r="A290" s="427" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" s="253">
+        <v>1</v>
+      </c>
+      <c r="C290" s="424"/>
+      <c r="D290" s="424"/>
+      <c r="E290" s="424"/>
+      <c r="F290" s="426"/>
+      <c r="G290" s="424"/>
+      <c r="H290" s="424"/>
+      <c r="I290" s="424"/>
+    </row>
+    <row r="291" spans="1:9">
+      <c r="A291" s="427" t="s">
+        <v>6</v>
+      </c>
+      <c r="B291" s="555" t="s">
+        <v>160</v>
+      </c>
+      <c r="C291" s="424"/>
+      <c r="D291" s="424"/>
+      <c r="E291" s="424"/>
+      <c r="F291" s="426"/>
+      <c r="G291" s="424"/>
+      <c r="H291" s="424"/>
+      <c r="I291" s="424"/>
+    </row>
+    <row r="292" spans="1:9">
+      <c r="A292" s="427" t="s">
+        <v>7</v>
+      </c>
+      <c r="B292" s="253" t="s">
+        <v>26</v>
+      </c>
+      <c r="C292" s="424"/>
+      <c r="D292" s="424"/>
+      <c r="E292" s="424"/>
+      <c r="F292" s="426"/>
+      <c r="G292" s="424"/>
+      <c r="H292" s="424"/>
+      <c r="I292" s="424"/>
+    </row>
+    <row r="293" spans="1:9">
+      <c r="A293" s="427" t="s">
+        <v>9</v>
+      </c>
+      <c r="B293" s="260" t="s">
+        <v>27</v>
+      </c>
+      <c r="C293" s="424"/>
+      <c r="D293" s="424"/>
+      <c r="E293" s="424"/>
+      <c r="F293" s="426"/>
+      <c r="G293" s="424"/>
+      <c r="H293" s="424"/>
+      <c r="I293" s="424"/>
+    </row>
+    <row r="294" spans="1:9" ht="15.75">
+      <c r="A294" s="432" t="s">
+        <v>10</v>
+      </c>
+      <c r="B294" s="556"/>
+      <c r="C294" s="432"/>
+      <c r="D294" s="432"/>
+      <c r="E294" s="432"/>
+      <c r="F294" s="426"/>
+      <c r="G294" s="432"/>
+      <c r="H294" s="432"/>
+      <c r="I294" s="432"/>
+    </row>
+    <row r="295" spans="1:9" ht="15.75">
+      <c r="A295" s="432" t="s">
+        <v>11</v>
+      </c>
+      <c r="B295" s="556" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" s="432" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" s="432" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" s="432" t="s">
+        <v>9</v>
+      </c>
+      <c r="F295" s="434" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" s="432" t="s">
+        <v>14</v>
+      </c>
+      <c r="H295" s="432" t="s">
+        <v>15</v>
+      </c>
+      <c r="I295" s="432" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
+      <c r="A296" s="431" t="str">
+        <f>B289</f>
+        <v xml:space="preserve">assembly of aluminium container </v>
+      </c>
+      <c r="B296" s="260">
+        <f>B290</f>
+        <v>1</v>
+      </c>
+      <c r="C296" s="431" t="str">
+        <f>B291</f>
+        <v>assembly process</v>
+      </c>
+      <c r="D296" s="431" t="str">
+        <f>B292</f>
+        <v>RER</v>
+      </c>
+      <c r="E296" s="431" t="str">
+        <f>B293</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F296" s="426"/>
+      <c r="G296" s="424" t="s">
+        <v>16</v>
+      </c>
+      <c r="H296" s="431" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I296" s="431"/>
+    </row>
+    <row r="297" spans="1:9">
+      <c r="A297" s="436" t="s">
+        <v>156</v>
+      </c>
+      <c r="B297" s="262">
+        <f>29.9606978647957/57.9</f>
+        <v>0.51745592167177379</v>
+      </c>
+      <c r="C297" s="438" t="s">
+        <v>153</v>
+      </c>
+      <c r="D297" s="439" t="s">
+        <v>26</v>
+      </c>
+      <c r="E297" s="439" t="s">
+        <v>40</v>
+      </c>
+      <c r="F297" s="439"/>
+      <c r="G297" s="438" t="s">
+        <v>18</v>
+      </c>
+      <c r="H297" s="438" t="s">
+        <v>120</v>
+      </c>
+      <c r="I297" s="438"/>
+    </row>
+    <row r="298" spans="1:9">
+      <c r="A298" s="426" t="s">
+        <v>157</v>
+      </c>
+      <c r="B298" s="265">
+        <f>4.828916289625E-09/57.9+2.16545429809825E-08/57.9</f>
+        <v>4.5739998740254746E-10</v>
+      </c>
+      <c r="C298" s="426" t="s">
+        <v>154</v>
+      </c>
+      <c r="D298" s="426" t="s">
+        <v>26</v>
+      </c>
+      <c r="E298" s="439" t="s">
+        <v>27</v>
+      </c>
+      <c r="F298" s="426"/>
+      <c r="G298" s="426" t="s">
+        <v>18</v>
+      </c>
+      <c r="H298" s="438" t="s">
+        <v>120</v>
+      </c>
+      <c r="I298" s="438"/>
+    </row>
+    <row r="299" spans="1:9">
+      <c r="A299" s="426" t="s">
+        <v>158</v>
+      </c>
+      <c r="B299" s="265">
+        <f>2.64834592706075E-08/57.9</f>
+        <v>4.5739998740254751E-10</v>
+      </c>
+      <c r="C299" s="426" t="s">
+        <v>155</v>
+      </c>
+      <c r="D299" s="426" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" s="439" t="s">
+        <v>9</v>
+      </c>
+      <c r="F299" s="426"/>
+      <c r="G299" s="426" t="s">
+        <v>18</v>
+      </c>
+      <c r="H299" s="438" t="s">
+        <v>120</v>
+      </c>
+      <c r="I299" s="438"/>
+    </row>
+    <row r="300" spans="1:9">
+      <c r="B300" s="460"/>
+    </row>
+    <row r="301" spans="1:9" ht="15.75">
+      <c r="A301" s="441" t="s">
+        <v>4</v>
+      </c>
+      <c r="B301" s="557" t="s">
+        <v>163</v>
+      </c>
+      <c r="C301" s="443"/>
+      <c r="D301" s="444"/>
+      <c r="E301" s="443"/>
+      <c r="F301" s="445"/>
+      <c r="G301" s="443"/>
+      <c r="H301" s="443"/>
+      <c r="I301" s="443"/>
+    </row>
+    <row r="302" spans="1:9">
+      <c r="A302" s="446" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" s="207">
+        <v>1</v>
+      </c>
+      <c r="C302" s="443"/>
+      <c r="D302" s="443"/>
+      <c r="E302" s="443"/>
+      <c r="F302" s="445"/>
+      <c r="G302" s="443"/>
+      <c r="H302" s="443"/>
+      <c r="I302" s="443"/>
+    </row>
+    <row r="303" spans="1:9">
+      <c r="A303" s="446" t="s">
+        <v>6</v>
+      </c>
+      <c r="B303" s="558" t="s">
+        <v>163</v>
+      </c>
+      <c r="C303" s="443"/>
+      <c r="D303" s="443"/>
+      <c r="E303" s="443"/>
+      <c r="F303" s="445"/>
+      <c r="G303" s="443"/>
+      <c r="H303" s="443"/>
+      <c r="I303" s="443"/>
+    </row>
+    <row r="304" spans="1:9">
+      <c r="A304" s="446" t="s">
+        <v>7</v>
+      </c>
+      <c r="B304" s="207" t="s">
+        <v>26</v>
+      </c>
+      <c r="C304" s="443"/>
+      <c r="D304" s="443"/>
+      <c r="E304" s="443"/>
+      <c r="F304" s="445"/>
+      <c r="G304" s="443"/>
+      <c r="H304" s="443"/>
+      <c r="I304" s="443"/>
+    </row>
+    <row r="305" spans="1:9">
+      <c r="A305" s="446" t="s">
+        <v>9</v>
+      </c>
+      <c r="B305" s="214" t="s">
+        <v>27</v>
+      </c>
+      <c r="C305" s="443"/>
+      <c r="D305" s="443"/>
+      <c r="E305" s="443"/>
+      <c r="F305" s="445"/>
+      <c r="G305" s="443"/>
+      <c r="H305" s="443"/>
+      <c r="I305" s="443"/>
+    </row>
+    <row r="306" spans="1:9" ht="15.75">
+      <c r="A306" s="451" t="s">
+        <v>10</v>
+      </c>
+      <c r="B306" s="559"/>
+      <c r="C306" s="451"/>
+      <c r="D306" s="451"/>
+      <c r="E306" s="451"/>
+      <c r="F306" s="445"/>
+      <c r="G306" s="451"/>
+      <c r="H306" s="451"/>
+      <c r="I306" s="451"/>
+    </row>
+    <row r="307" spans="1:9" ht="15.75">
+      <c r="A307" s="451" t="s">
+        <v>11</v>
+      </c>
+      <c r="B307" s="559" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" s="451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" s="451" t="s">
+        <v>7</v>
+      </c>
+      <c r="E307" s="451" t="s">
+        <v>9</v>
+      </c>
+      <c r="F307" s="453" t="s">
+        <v>13</v>
+      </c>
+      <c r="G307" s="451" t="s">
+        <v>14</v>
+      </c>
+      <c r="H307" s="451" t="s">
+        <v>15</v>
+      </c>
+      <c r="I307" s="451" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" s="450" t="str">
+        <f>B301</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="B308" s="214">
+        <f>B302</f>
+        <v>1</v>
+      </c>
+      <c r="C308" s="450" t="str">
+        <f>B303</f>
+        <v>steel recycling</v>
+      </c>
+      <c r="D308" s="450" t="str">
+        <f>B304</f>
+        <v>RER</v>
+      </c>
+      <c r="E308" s="450" t="str">
+        <f>B305</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F308" s="445"/>
+      <c r="G308" s="443" t="s">
+        <v>16</v>
+      </c>
+      <c r="H308" s="450" t="str">
+        <f>$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I308" s="450"/>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="A309" s="455" t="s">
+        <v>164</v>
+      </c>
+      <c r="B309" s="270">
+        <v>1</v>
+      </c>
+      <c r="C309" s="457" t="s">
+        <v>165</v>
+      </c>
+      <c r="D309" s="458" t="s">
+        <v>26</v>
+      </c>
+      <c r="E309" s="458" t="s">
+        <v>27</v>
+      </c>
+      <c r="F309" s="458"/>
+      <c r="G309" s="457" t="s">
+        <v>18</v>
+      </c>
+      <c r="H309" s="457" t="s">
+        <v>120</v>
+      </c>
+      <c r="I309" s="457"/>
+    </row>
+    <row r="310" spans="1:9">
+      <c r="A310" s="445" t="s">
+        <v>167</v>
+      </c>
+      <c r="B310" s="271">
+        <v>-0.26470798457675399</v>
+      </c>
+      <c r="C310" s="445" t="s">
+        <v>166</v>
+      </c>
+      <c r="D310" s="445" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310" s="458" t="s">
+        <v>27</v>
+      </c>
+      <c r="F310" s="445"/>
+      <c r="G310" s="445" t="s">
+        <v>18</v>
+      </c>
+      <c r="H310" s="457" t="s">
+        <v>120</v>
+      </c>
+      <c r="I310" s="457"/>
+    </row>
+    <row r="311" spans="1:9">
+      <c r="A311" s="445" t="s">
+        <v>169</v>
+      </c>
+      <c r="B311" s="271">
+        <v>-0.31999756361513099</v>
+      </c>
+      <c r="C311" s="445" t="s">
+        <v>168</v>
+      </c>
+      <c r="D311" s="445" t="s">
+        <v>8</v>
+      </c>
+      <c r="E311" s="458" t="s">
+        <v>27</v>
+      </c>
+      <c r="F311" s="445"/>
+      <c r="G311" s="445" t="s">
+        <v>18</v>
+      </c>
+      <c r="H311" s="457" t="s">
+        <v>120</v>
+      </c>
+      <c r="I311" s="457"/>
+    </row>
+    <row r="312" spans="1:9">
+      <c r="A312" s="445" t="s">
+        <v>171</v>
+      </c>
+      <c r="B312" s="271">
+        <v>-0.55078580644868103</v>
+      </c>
+      <c r="C312" s="445" t="s">
+        <v>170</v>
+      </c>
+      <c r="D312" s="445" t="s">
+        <v>26</v>
+      </c>
+      <c r="E312" s="458" t="s">
+        <v>27</v>
+      </c>
+      <c r="F312" s="445"/>
+      <c r="G312" s="445" t="s">
+        <v>18</v>
+      </c>
+      <c r="H312" s="457" t="s">
+        <v>120</v>
+      </c>
+      <c r="I312" s="457"/>
+    </row>
+    <row r="313" spans="1:9">
+      <c r="B313" s="460"/>
+    </row>
+    <row r="314" spans="1:9" ht="15.75">
+      <c r="A314" s="461" t="s">
+        <v>4</v>
+      </c>
+      <c r="B314" s="462" t="s">
+        <v>150</v>
+      </c>
+      <c r="C314" s="463"/>
+      <c r="D314" s="463"/>
+      <c r="E314" s="463"/>
+      <c r="F314" s="463"/>
+      <c r="G314" s="463"/>
+      <c r="H314" s="463"/>
+      <c r="I314" s="463"/>
+    </row>
+    <row r="315" spans="1:9">
+      <c r="A315" s="463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" s="464">
+        <v>1</v>
+      </c>
+      <c r="C315" s="463"/>
+      <c r="D315" s="463"/>
+      <c r="E315" s="463"/>
+      <c r="F315" s="463"/>
+      <c r="G315" s="463"/>
+      <c r="H315" s="463"/>
+      <c r="I315" s="463"/>
+    </row>
+    <row r="316" spans="1:9">
+      <c r="A316" s="463" t="s">
+        <v>6</v>
+      </c>
+      <c r="B316" s="465" t="s">
+        <v>75</v>
+      </c>
+      <c r="C316" s="463"/>
+      <c r="D316" s="463"/>
+      <c r="E316" s="463"/>
+      <c r="F316" s="463"/>
+      <c r="G316" s="463"/>
+      <c r="H316" s="463"/>
+      <c r="I316" s="463"/>
+    </row>
+    <row r="317" spans="1:9">
+      <c r="A317" s="463" t="s">
+        <v>7</v>
+      </c>
+      <c r="B317" s="465" t="s">
+        <v>39</v>
+      </c>
+      <c r="C317" s="463"/>
+      <c r="D317" s="463"/>
+      <c r="E317" s="463"/>
+      <c r="F317" s="463"/>
+      <c r="G317" s="463"/>
+      <c r="H317" s="463"/>
+      <c r="I317" s="463"/>
+    </row>
+    <row r="318" spans="1:9">
+      <c r="A318" s="463" t="s">
+        <v>9</v>
+      </c>
+      <c r="B318" s="465" t="s">
+        <v>42</v>
+      </c>
+      <c r="C318" s="463"/>
+      <c r="D318" s="463"/>
+      <c r="E318" s="463"/>
+      <c r="F318" s="463"/>
+      <c r="G318" s="463"/>
+      <c r="H318" s="463"/>
+      <c r="I318" s="463"/>
+    </row>
+    <row r="319" spans="1:9" ht="15.75">
+      <c r="A319" s="461" t="s">
+        <v>10</v>
+      </c>
+      <c r="B319" s="465"/>
+      <c r="C319" s="463"/>
+      <c r="D319" s="463"/>
+      <c r="E319" s="463"/>
+      <c r="F319" s="463"/>
+      <c r="G319" s="463"/>
+      <c r="H319" s="463"/>
+      <c r="I319" s="463"/>
+    </row>
+    <row r="320" spans="1:9" ht="15.75">
+      <c r="A320" s="466" t="s">
+        <v>11</v>
+      </c>
+      <c r="B320" s="467" t="s">
+        <v>12</v>
+      </c>
+      <c r="C320" s="466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" s="466" t="s">
+        <v>7</v>
+      </c>
+      <c r="E320" s="466" t="s">
+        <v>9</v>
+      </c>
+      <c r="F320" s="468" t="s">
+        <v>13</v>
+      </c>
+      <c r="G320" s="466" t="s">
+        <v>14</v>
+      </c>
+      <c r="H320" s="466" t="s">
+        <v>15</v>
+      </c>
+      <c r="I320" s="466" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
+      <c r="A321" s="465" t="str">
+        <f>B314</f>
+        <v>heat production, at heat pump 30kW, allocation exergy</v>
+      </c>
+      <c r="B321" s="465">
+        <f>B315</f>
+        <v>1</v>
+      </c>
+      <c r="C321" s="465" t="str">
+        <f>B316</f>
+        <v>heat, central or small-scale, other than natural gas</v>
+      </c>
+      <c r="D321" s="465" t="str">
+        <f>B317</f>
+        <v>DK</v>
+      </c>
+      <c r="E321" s="465" t="str">
+        <f>B318</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F321" s="463"/>
+      <c r="G321" s="463" t="s">
+        <v>16</v>
+      </c>
+      <c r="H321" s="463" t="str">
+        <f t="shared" ref="H321" si="5">$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I321" s="463" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9">
+      <c r="A322" s="463" t="s">
+        <v>69</v>
+      </c>
+      <c r="B322" s="465">
+        <v>6.1699999999999998E-2</v>
+      </c>
+      <c r="C322" s="463" t="s">
+        <v>70</v>
+      </c>
+      <c r="D322" s="463" t="s">
+        <v>39</v>
+      </c>
+      <c r="E322" s="463" t="s">
+        <v>40</v>
+      </c>
+      <c r="F322" s="463"/>
+      <c r="G322" s="463" t="s">
+        <v>18</v>
+      </c>
+      <c r="H322" s="463" t="s">
+        <v>120</v>
+      </c>
+      <c r="I322" s="463"/>
+    </row>
+    <row r="323" spans="1:9">
+      <c r="A323" s="463" t="s">
+        <v>152</v>
+      </c>
+      <c r="B323" s="469">
+        <v>3.47E-8</v>
+      </c>
+      <c r="C323" s="463" t="s">
+        <v>151</v>
+      </c>
+      <c r="D323" s="463" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323" s="463" t="s">
+        <v>9</v>
+      </c>
+      <c r="F323" s="463"/>
+      <c r="G323" s="463" t="s">
+        <v>18</v>
+      </c>
+      <c r="H323" s="463" t="s">
+        <v>120</v>
+      </c>
+      <c r="I323" s="463"/>
+    </row>
+    <row r="324" spans="1:9">
+      <c r="A324" s="463" t="str">
+        <f>ev391apos!A324</f>
+        <v>Ethane, 1,1,1,2-tetrafluoro-, HFC-134a</v>
+      </c>
+      <c r="B324" s="469">
+        <v>3.9299999999999999E-7</v>
+      </c>
+      <c r="C324" s="463"/>
+      <c r="D324" s="463"/>
+      <c r="E324" s="463" t="str">
+        <f>ev391apos!E324</f>
+        <v>kilogram</v>
+      </c>
+      <c r="F324" s="463" t="str">
+        <f>ev391apos!F324</f>
+        <v>air, urban air close to ground</v>
+      </c>
+      <c r="G324" s="463" t="str">
+        <f>ev391apos!G324</f>
+        <v>biosphere</v>
+      </c>
+      <c r="H324" s="463" t="str">
+        <f>ev391apos!H324</f>
+        <v>biosphere3</v>
+      </c>
+      <c r="I324" s="463"/>
+    </row>
+    <row r="325" spans="1:9">
+      <c r="A325" s="129"/>
+      <c r="B325" s="460"/>
+      <c r="C325" s="129"/>
+      <c r="D325" s="129"/>
+      <c r="E325" s="129"/>
+      <c r="F325" s="129"/>
+      <c r="G325" s="129"/>
+      <c r="H325" s="129"/>
+      <c r="I325" s="129"/>
+    </row>
+    <row r="326" spans="1:9" ht="15.75">
+      <c r="A326" s="470" t="s">
+        <v>4</v>
+      </c>
+      <c r="B326" s="471" t="s">
+        <v>193</v>
+      </c>
+      <c r="C326" s="472"/>
+      <c r="D326" s="472"/>
+      <c r="E326" s="472"/>
+      <c r="F326" s="472"/>
+      <c r="G326" s="472"/>
+      <c r="H326" s="472"/>
+      <c r="I326" s="472"/>
+    </row>
+    <row r="327" spans="1:9">
+      <c r="A327" s="472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" s="473">
+        <v>1</v>
+      </c>
+      <c r="C327" s="472"/>
+      <c r="D327" s="472"/>
+      <c r="E327" s="472"/>
+      <c r="F327" s="472"/>
+      <c r="G327" s="472"/>
+      <c r="H327" s="472"/>
+      <c r="I327" s="472"/>
+    </row>
+    <row r="328" spans="1:9">
+      <c r="A328" s="472" t="s">
+        <v>6</v>
+      </c>
+      <c r="B328" s="474" t="s">
+        <v>194</v>
+      </c>
+      <c r="C328" s="472"/>
+      <c r="D328" s="472"/>
+      <c r="E328" s="472"/>
+      <c r="F328" s="472"/>
+      <c r="G328" s="472"/>
+      <c r="H328" s="472"/>
+      <c r="I328" s="472"/>
+    </row>
+    <row r="329" spans="1:9">
+      <c r="A329" s="472" t="s">
+        <v>7</v>
+      </c>
+      <c r="B329" s="474" t="s">
+        <v>39</v>
+      </c>
+      <c r="C329" s="472"/>
+      <c r="D329" s="472"/>
+      <c r="E329" s="472"/>
+      <c r="F329" s="472"/>
+      <c r="G329" s="472"/>
+      <c r="H329" s="472"/>
+      <c r="I329" s="472"/>
+    </row>
+    <row r="330" spans="1:9">
+      <c r="A330" s="472" t="s">
+        <v>9</v>
+      </c>
+      <c r="B330" s="474" t="s">
+        <v>42</v>
+      </c>
+      <c r="C330" s="472"/>
+      <c r="D330" s="472"/>
+      <c r="E330" s="472"/>
+      <c r="F330" s="472"/>
+      <c r="G330" s="472"/>
+      <c r="H330" s="472"/>
+      <c r="I330" s="472"/>
+    </row>
+    <row r="331" spans="1:9" ht="15.75">
+      <c r="A331" s="470" t="s">
+        <v>10</v>
+      </c>
+      <c r="B331" s="474"/>
+      <c r="C331" s="472"/>
+      <c r="D331" s="472"/>
+      <c r="E331" s="472"/>
+      <c r="F331" s="472"/>
+      <c r="G331" s="472"/>
+      <c r="H331" s="472"/>
+      <c r="I331" s="472"/>
+    </row>
+    <row r="332" spans="1:9" ht="15.75">
+      <c r="A332" s="475" t="s">
+        <v>11</v>
+      </c>
+      <c r="B332" s="476" t="s">
+        <v>12</v>
+      </c>
+      <c r="C332" s="475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" s="475" t="s">
+        <v>7</v>
+      </c>
+      <c r="E332" s="475" t="s">
+        <v>9</v>
+      </c>
+      <c r="F332" s="477" t="s">
+        <v>13</v>
+      </c>
+      <c r="G332" s="475" t="s">
+        <v>14</v>
+      </c>
+      <c r="H332" s="475" t="s">
+        <v>15</v>
+      </c>
+      <c r="I332" s="475" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="474" t="str">
+        <f>B326</f>
+        <v>heat production, solar</v>
+      </c>
+      <c r="B333" s="474">
+        <f>B327</f>
+        <v>1</v>
+      </c>
+      <c r="C333" s="474" t="str">
+        <f>B328</f>
+        <v>heat, solar</v>
+      </c>
+      <c r="D333" s="474" t="str">
+        <f>B329</f>
+        <v>DK</v>
+      </c>
+      <c r="E333" s="474" t="str">
+        <f>B330</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F333" s="472"/>
+      <c r="G333" s="472" t="s">
+        <v>16</v>
+      </c>
+      <c r="H333" s="472" t="str">
+        <f t="shared" ref="H333" si="6">$B$1</f>
+        <v>case1_cut_off</v>
+      </c>
+      <c r="I333" s="472" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="472" t="s">
+        <v>69</v>
+      </c>
+      <c r="B334" s="478">
+        <v>1.5579000000000001E-3</v>
+      </c>
+      <c r="C334" s="472" t="s">
+        <v>70</v>
+      </c>
+      <c r="D334" s="472" t="s">
+        <v>39</v>
+      </c>
+      <c r="E334" s="472" t="s">
+        <v>40</v>
+      </c>
+      <c r="F334" s="472"/>
+      <c r="G334" s="472" t="s">
+        <v>18</v>
+      </c>
+      <c r="H334" s="472" t="s">
+        <v>120</v>
+      </c>
+      <c r="I334" s="472"/>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="472" t="s">
+        <v>71</v>
+      </c>
+      <c r="B335" s="478">
+        <v>2.5707000000000001E-7</v>
+      </c>
+      <c r="C335" s="472" t="s">
+        <v>72</v>
+      </c>
+      <c r="D335" s="472" t="s">
+        <v>33</v>
+      </c>
+      <c r="E335" s="472" t="s">
+        <v>9</v>
+      </c>
+      <c r="F335" s="472"/>
+      <c r="G335" s="472" t="s">
+        <v>18</v>
+      </c>
+      <c r="H335" s="472" t="s">
+        <v>120</v>
+      </c>
+      <c r="I335" s="472"/>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="472" t="str">
+        <f>ev391apos!A336</f>
+        <v>Energy, solar, converted</v>
+      </c>
+      <c r="B336" s="474">
+        <v>1.1315</v>
+      </c>
+      <c r="C336" s="472"/>
+      <c r="D336" s="472"/>
+      <c r="E336" s="472" t="str">
+        <f>ev391apos!E336</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F336" s="472" t="str">
+        <f>ev391apos!F336</f>
+        <v>natural resource::in air</v>
+      </c>
+      <c r="G336" s="472" t="str">
+        <f>ev391apos!G336</f>
+        <v>biosphere</v>
+      </c>
+      <c r="H336" s="472" t="str">
+        <f>ev391apos!H336</f>
+        <v>biosphere3</v>
+      </c>
+      <c r="I336" s="472"/>
+    </row>
+    <row r="337" spans="1:9">
+      <c r="A337" s="129"/>
+      <c r="B337" s="460"/>
+      <c r="C337" s="129"/>
+      <c r="D337" s="129"/>
+      <c r="E337" s="129"/>
+      <c r="F337" s="129"/>
+      <c r="G337" s="129"/>
+      <c r="H337" s="129"/>
+      <c r="I337" s="129"/>
+    </row>
+    <row r="338" spans="1:9" ht="15.75">
+      <c r="A338" s="479" t="s">
+        <v>4</v>
+      </c>
+      <c r="B338" s="480" t="s">
+        <v>178</v>
+      </c>
+      <c r="C338" s="481"/>
+      <c r="D338" s="481"/>
+      <c r="E338" s="481"/>
+      <c r="F338" s="481"/>
+      <c r="G338" s="481"/>
+      <c r="H338" s="481"/>
+      <c r="I338" s="481"/>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" s="481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" s="482">
+        <v>1</v>
+      </c>
+      <c r="C339" s="481"/>
+      <c r="D339" s="481"/>
+      <c r="E339" s="481"/>
+      <c r="F339" s="481"/>
+      <c r="G339" s="481"/>
+      <c r="H339" s="481"/>
+      <c r="I339" s="481"/>
+    </row>
+    <row r="340" spans="1:9">
+      <c r="A340" s="481" t="s">
+        <v>6</v>
+      </c>
+      <c r="B340" s="483" t="s">
+        <v>179</v>
+      </c>
+      <c r="C340" s="481"/>
+      <c r="D340" s="481"/>
+      <c r="E340" s="481"/>
+      <c r="F340" s="481"/>
+      <c r="G340" s="481"/>
+      <c r="H340" s="481"/>
+      <c r="I340" s="481"/>
+    </row>
+    <row r="341" spans="1:9">
+      <c r="A341" s="481" t="s">
+        <v>7</v>
+      </c>
+      <c r="B341" s="483" t="s">
+        <v>39</v>
+      </c>
+      <c r="C341" s="481"/>
+      <c r="D341" s="481"/>
+      <c r="E341" s="481"/>
+      <c r="F341" s="481"/>
+      <c r="G341" s="481"/>
+      <c r="H341" s="481"/>
+      <c r="I341" s="481"/>
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="481" t="s">
+        <v>9</v>
+      </c>
+      <c r="B342" s="483" t="s">
+        <v>42</v>
+      </c>
+      <c r="C342" s="481"/>
+      <c r="D342" s="481"/>
+      <c r="E342" s="481"/>
+      <c r="F342" s="481"/>
+      <c r="G342" s="481"/>
+      <c r="H342" s="481"/>
+      <c r="I342" s="481"/>
+    </row>
+    <row r="343" spans="1:9" ht="15.75">
+      <c r="A343" s="479" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="483"/>
+      <c r="C343" s="481"/>
+      <c r="D343" s="481"/>
+      <c r="E343" s="481"/>
+      <c r="F343" s="481"/>
+      <c r="G343" s="481"/>
+      <c r="H343" s="481"/>
+      <c r="I343" s="481"/>
+    </row>
+    <row r="344" spans="1:9" ht="15.75">
+      <c r="A344" s="484" t="s">
+        <v>11</v>
+      </c>
+      <c r="B344" s="485" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="484" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" s="484" t="s">
+        <v>7</v>
+      </c>
+      <c r="E344" s="484" t="s">
+        <v>9</v>
+      </c>
+      <c r="F344" s="486" t="s">
+        <v>13</v>
+      </c>
+      <c r="G344" s="484" t="s">
+        <v>14</v>
+      </c>
+      <c r="H344" s="484" t="s">
+        <v>15</v>
+      </c>
+      <c r="I344" s="484" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" s="483" t="str">
+        <f>B338</f>
+        <v>heat and power co-generation, bio gas, conventional power plant, 100MW electrical</v>
+      </c>
+      <c r="B345" s="483">
+        <f>B339</f>
+        <v>1</v>
+      </c>
+      <c r="C345" s="483" t="str">
+        <f>B340</f>
+        <v>heat, district or industrial, bio gas</v>
+      </c>
+      <c r="D345" s="483" t="str">
+        <f>B341</f>
+        <v>DK</v>
+      </c>
+      <c r="E345" s="483" t="str">
+        <f>B342</f>
+        <v>megajoule</v>
+      </c>
+      <c r="F345" s="481"/>
+      <c r="G345" s="481" t="s">
+        <v>16</v>
+      </c>
+      <c r="H345" s="481" t="str">
+        <f t="shared" ref="H345" si="7">$B$1</f>
         <v>case1_cut_off</v>
       </c>
       <c r="I345" s="481" t="s">
